--- a/2.0/documents/JPCOARスキーマ項目一覧.xlsx
+++ b/2.0/documents/JPCOARスキーマ項目一覧.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A93143-FBE4-4984-A259-9154135D12DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DABBBB2-20F6-4BE6-ADC4-1DBE6357AA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="2123" windowWidth="16913" windowHeight="12705" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1837" yWindow="4140" windowWidth="16913" windowHeight="12705" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="9" r:id="rId1"/>
@@ -4881,9 +4881,6 @@
 isIdenticalTo
 isDerivedFrom
 isSourceOf</t>
-  </si>
-  <si>
-    <t>関連するコンテンツの識別子を記入する。記述方法は選択したスキーマに依存する（例：https://doi.org/10.1594/WDCC/CCSRNIES_SRES_B2 （DOI））。identifierTypeには以下の統制語彙から選択して記入する。　-　ARK　-　arXiv　-　CRID　-　DOI　-　HDL　-　ICHUSHI　-　ISBN　-　J-GLOBAL　-　Local　-　PISSN　-　EISSN　-　ISSN【非推奨】-　NAID【非推奨】-　NCID　　-　PMID【現在不使用】-　PURL　-　SCOPUS　-　URI　-　WOS</t>
   </si>
   <si>
     <t>助成主体の永続的な識別子をHTTP URI形式で記入する。
@@ -5452,17 +5449,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>e-Rad_funderの例 
-&lt;jpcoar:funderIdentifier funderIdentifierType ="e-Rad_funder" funderIdentifierTypeURI="https://www.e-rad.go.jp/datasets/files/haibunkikan.csv"&gt;
- 1020
-&lt;/jpcoar:funderIdentifier&gt;
-Crossref Funderの例
-&lt;jpcoar:funderIdentifier funderIdentifierType ="Crossref Funder" funderIdentifierTypeURI="https://www.crossref.org/services/funder-registry/"&gt;
-    https://dx.doi.org/10.13039/501100002241
-&lt;/jpcoar:funderIdentifier&gt;</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>&lt;jpcoar:funderName xml:lang="ja"&gt;
  国立研究開発法人科学技術振興機構（JST）
 &lt;/jpcoar:funderName&gt;
@@ -5503,6 +5489,21 @@
   </si>
   <si>
     <t>リポジトリコンテンツの自身のIDを記入する。学術雑誌論文の出版社版等のDOIはjpcoar:relation（関連情報）に記入する。JaLC DOIを登録する場合は、jpcoar:identifierだけではなく、jpcoar:identifierRegistration（ID登録）に登録するDOIを"prefix/suffix"形式で記入する。jpcoar:identifierを記入する際には必ずidentifierTypeを指定する。</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>e-Rad_funderの例 
+&lt;jpcoar:funderIdentifier funderIdentifierType ="e-Rad_funder" funderIdentifierTypeURI="https://www.e-rad.go.jp/datasets/files/haibunkikan.csv"&gt;
+ 1020
+&lt;/jpcoar:funderIdentifier&gt;
+Crossref Funderの例
+&lt;jpcoar:funderIdentifier funderIdentifierType ="Crossref Funder" funderIdentifierTypeURI="https://www.crossref.org/services/funder-registry/"&gt;
+    https://doi.org/10.13039/501100002241
+&lt;/jpcoar:funderIdentifier&gt;</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>関連するコンテンツの識別子を記入する。記述方法は選択したスキーマに依存する（例：https://doi.org/10.1594/WDCC/CCSRNIES_SRES_B2 （DOI））。identifierTypeには以下の統制語彙から選択して記入する。　-　ARK　-　arXiv　-　CRID　-　DOI　-　HDL　-　ICHUSHI　-　ISBN　-　J-GLOBAL　-　Local　-　PISSN　-　EISSN　-　ISSN【非推奨】-　NAID【非推奨】-　NCID　　-　PMID　-　PURL　-　SCOPUS　-　URI　-　WOS</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -6698,14 +6699,23 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -6713,130 +6723,58 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6857,17 +6795,80 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6875,25 +6876,25 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6902,10 +6903,10 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7327,7 +7328,7 @@
     </row>
     <row r="7" spans="1:3" ht="366.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="116" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="B7" s="150">
         <v>44916</v>
@@ -7434,7 +7435,7 @@
     </row>
     <row r="8" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="156" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="C8" s="156"/>
       <c r="D8" s="156"/>
@@ -8556,11 +8557,11 @@
   <dimension ref="A1:AL174"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane xSplit="12" ySplit="1" topLeftCell="N63" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="1" topLeftCell="M69" activePane="bottomRight" state="frozen"/>
       <selection sqref="A1:H1048576"/>
       <selection pane="topRight" sqref="A1:H1048576"/>
       <selection pane="bottomLeft" sqref="A1:H1048576"/>
-      <selection pane="bottomRight" activeCell="N63" sqref="N63:N64"/>
+      <selection pane="bottomRight" activeCell="M69" sqref="M69:M70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -8589,7 +8590,7 @@
   <sheetData>
     <row r="1" spans="1:38" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="63" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="B1" s="63" t="s">
         <v>629</v>
@@ -8597,13 +8598,13 @@
       <c r="C1" s="64" t="s">
         <v>630</v>
       </c>
-      <c r="D1" s="205" t="s">
+      <c r="D1" s="184" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="206"/>
-      <c r="F1" s="206"/>
-      <c r="G1" s="206"/>
-      <c r="H1" s="207"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="186"/>
       <c r="I1" s="63" t="s">
         <v>1</v>
       </c>
@@ -8631,10 +8632,10 @@
       <c r="Q1" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="208" t="s">
+      <c r="R1" s="187" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="207"/>
+      <c r="S1" s="186"/>
       <c r="T1" s="24"/>
       <c r="U1" s="24"/>
       <c r="V1" s="24"/>
@@ -8689,7 +8690,7 @@
         <v>948</v>
       </c>
       <c r="O2" s="31" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="P2" s="31" t="s">
         <v>16</v>
@@ -8788,13 +8789,13 @@
       <c r="AL3" s="24"/>
     </row>
     <row r="4" spans="1:38" ht="216" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="167">
+      <c r="A4" s="158">
         <v>3</v>
       </c>
-      <c r="B4" s="167" t="s">
+      <c r="B4" s="158" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="175" t="s">
+      <c r="C4" s="172" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="28" t="s">
@@ -8814,17 +8815,17 @@
       <c r="L4" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="172" t="s">
+      <c r="M4" s="173" t="s">
         <v>1345</v>
       </c>
-      <c r="N4" s="180" t="s">
+      <c r="N4" s="178" t="s">
         <v>1344</v>
       </c>
-      <c r="O4" s="180" t="s">
+      <c r="O4" s="178" t="s">
         <v>950</v>
       </c>
-      <c r="P4" s="204"/>
-      <c r="Q4" s="209"/>
+      <c r="P4" s="193"/>
+      <c r="Q4" s="188"/>
       <c r="R4" s="77"/>
       <c r="S4" s="131"/>
       <c r="T4" s="127"/>
@@ -8848,9 +8849,9 @@
       <c r="AL4" s="28"/>
     </row>
     <row r="5" spans="1:38" ht="216" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="168"/>
-      <c r="B5" s="168"/>
-      <c r="C5" s="165"/>
+      <c r="A5" s="160"/>
+      <c r="B5" s="160"/>
+      <c r="C5" s="167"/>
       <c r="D5" s="78"/>
       <c r="E5" s="74"/>
       <c r="F5" s="74"/>
@@ -8868,11 +8869,11 @@
       <c r="L5" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="168"/>
-      <c r="N5" s="165"/>
-      <c r="O5" s="200"/>
-      <c r="P5" s="173"/>
-      <c r="Q5" s="210"/>
+      <c r="M5" s="160"/>
+      <c r="N5" s="167"/>
+      <c r="O5" s="179"/>
+      <c r="P5" s="175"/>
+      <c r="Q5" s="189"/>
       <c r="R5" s="77"/>
       <c r="S5" s="132"/>
       <c r="T5" s="127"/>
@@ -8896,13 +8897,13 @@
       <c r="AL5" s="28"/>
     </row>
     <row r="6" spans="1:38" ht="42.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="172">
+      <c r="A6" s="173">
         <v>3.1</v>
       </c>
-      <c r="B6" s="172" t="s">
+      <c r="B6" s="173" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="180" t="s">
+      <c r="C6" s="178" t="s">
         <v>30</v>
       </c>
       <c r="D6" s="59"/>
@@ -8922,16 +8923,16 @@
       <c r="L6" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="172" t="s">
+      <c r="M6" s="173" t="s">
         <v>1346</v>
       </c>
-      <c r="N6" s="172" t="s">
+      <c r="N6" s="173" t="s">
         <v>637</v>
       </c>
-      <c r="O6" s="172" t="s">
+      <c r="O6" s="173" t="s">
         <v>638</v>
       </c>
-      <c r="P6" s="204" t="s">
+      <c r="P6" s="193" t="s">
         <v>639</v>
       </c>
       <c r="Q6" s="92"/>
@@ -8962,9 +8963,9 @@
       <c r="AL6" s="24"/>
     </row>
     <row r="7" spans="1:38" ht="142.5" x14ac:dyDescent="0.4">
-      <c r="A7" s="171"/>
-      <c r="B7" s="171"/>
-      <c r="C7" s="179"/>
+      <c r="A7" s="159"/>
+      <c r="B7" s="159"/>
+      <c r="C7" s="166"/>
       <c r="D7" s="59"/>
       <c r="E7" s="78"/>
       <c r="F7" s="24"/>
@@ -8982,12 +8983,12 @@
       <c r="L7" s="76">
         <v>1</v>
       </c>
-      <c r="M7" s="171"/>
-      <c r="N7" s="171"/>
-      <c r="O7" s="187"/>
-      <c r="P7" s="187"/>
+      <c r="M7" s="159"/>
+      <c r="N7" s="159"/>
+      <c r="O7" s="174"/>
+      <c r="P7" s="174"/>
       <c r="Q7" s="125" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="R7" s="26"/>
       <c r="S7" s="130"/>
@@ -9012,9 +9013,9 @@
       <c r="AL7" s="24"/>
     </row>
     <row r="8" spans="1:38" ht="57" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="168"/>
-      <c r="B8" s="168"/>
-      <c r="C8" s="165"/>
+      <c r="A8" s="160"/>
+      <c r="B8" s="160"/>
+      <c r="C8" s="167"/>
       <c r="D8" s="30"/>
       <c r="E8" s="68"/>
       <c r="F8" s="69"/>
@@ -9032,10 +9033,10 @@
       <c r="L8" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="M8" s="168"/>
-      <c r="N8" s="168"/>
-      <c r="O8" s="173"/>
-      <c r="P8" s="173"/>
+      <c r="M8" s="160"/>
+      <c r="N8" s="160"/>
+      <c r="O8" s="175"/>
+      <c r="P8" s="175"/>
       <c r="Q8" s="31"/>
       <c r="R8" s="31"/>
       <c r="S8" s="134"/>
@@ -9060,22 +9061,22 @@
       <c r="AL8" s="24"/>
     </row>
     <row r="9" spans="1:38" ht="122.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="172">
+      <c r="A9" s="173">
         <v>3.2</v>
       </c>
-      <c r="B9" s="172" t="s">
+      <c r="B9" s="173" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="180" t="s">
+      <c r="C9" s="178" t="s">
         <v>34</v>
       </c>
       <c r="D9" s="56"/>
-      <c r="E9" s="160" t="s">
+      <c r="E9" s="168" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="161"/>
-      <c r="G9" s="161"/>
-      <c r="H9" s="162"/>
+      <c r="F9" s="164"/>
+      <c r="G9" s="164"/>
+      <c r="H9" s="165"/>
       <c r="I9" s="26"/>
       <c r="J9" s="75" t="b">
         <v>1</v>
@@ -9126,14 +9127,14 @@
       <c r="AL9" s="24"/>
     </row>
     <row r="10" spans="1:38" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="168"/>
-      <c r="B10" s="168"/>
-      <c r="C10" s="165"/>
+      <c r="A10" s="160"/>
+      <c r="B10" s="160"/>
+      <c r="C10" s="167"/>
       <c r="D10" s="59"/>
-      <c r="E10" s="163"/>
-      <c r="F10" s="164"/>
-      <c r="G10" s="164"/>
-      <c r="H10" s="165"/>
+      <c r="E10" s="170"/>
+      <c r="F10" s="163"/>
+      <c r="G10" s="163"/>
+      <c r="H10" s="167"/>
       <c r="I10" s="30" t="s">
         <v>39</v>
       </c>
@@ -9153,7 +9154,7 @@
       <c r="O10" s="26"/>
       <c r="P10" s="26"/>
       <c r="Q10" s="31" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="R10" s="26"/>
       <c r="S10" s="130"/>
@@ -9416,22 +9417,22 @@
       <c r="AL14" s="24"/>
     </row>
     <row r="15" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="167" t="s">
+      <c r="A15" s="158" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="172" t="s">
+      <c r="B15" s="173" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="180" t="s">
+      <c r="C15" s="178" t="s">
         <v>54</v>
       </c>
       <c r="D15" s="78"/>
       <c r="E15" s="59"/>
-      <c r="F15" s="196" t="s">
+      <c r="F15" s="161" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="161"/>
-      <c r="H15" s="162"/>
+      <c r="G15" s="164"/>
+      <c r="H15" s="165"/>
       <c r="I15" s="26"/>
       <c r="J15" s="75" t="b">
         <v>0</v>
@@ -9442,21 +9443,21 @@
       <c r="L15" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="M15" s="172" t="s">
+      <c r="M15" s="173" t="s">
         <v>953</v>
       </c>
-      <c r="N15" s="172" t="s">
+      <c r="N15" s="173" t="s">
         <v>637</v>
       </c>
-      <c r="O15" s="172" t="s">
+      <c r="O15" s="173" t="s">
         <v>655</v>
       </c>
-      <c r="P15" s="172"/>
-      <c r="Q15" s="172" t="s">
-        <v>1382</v>
-      </c>
-      <c r="R15" s="172"/>
-      <c r="S15" s="201"/>
+      <c r="P15" s="173"/>
+      <c r="Q15" s="173" t="s">
+        <v>1381</v>
+      </c>
+      <c r="R15" s="173"/>
+      <c r="S15" s="190"/>
       <c r="T15" s="126"/>
       <c r="U15" s="24"/>
       <c r="V15" s="24"/>
@@ -9478,14 +9479,14 @@
       <c r="AL15" s="24"/>
     </row>
     <row r="16" spans="1:38" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="171"/>
-      <c r="B16" s="171"/>
-      <c r="C16" s="179"/>
+      <c r="A16" s="159"/>
+      <c r="B16" s="159"/>
+      <c r="C16" s="166"/>
       <c r="D16" s="78"/>
       <c r="E16" s="59"/>
-      <c r="F16" s="170"/>
-      <c r="G16" s="170"/>
-      <c r="H16" s="179"/>
+      <c r="F16" s="162"/>
+      <c r="G16" s="162"/>
+      <c r="H16" s="166"/>
       <c r="I16" s="31" t="s">
         <v>32</v>
       </c>
@@ -9498,13 +9499,13 @@
       <c r="L16" s="76">
         <v>1</v>
       </c>
-      <c r="M16" s="171"/>
-      <c r="N16" s="171"/>
-      <c r="O16" s="187"/>
-      <c r="P16" s="187"/>
-      <c r="Q16" s="197"/>
-      <c r="R16" s="171"/>
-      <c r="S16" s="202"/>
+      <c r="M16" s="159"/>
+      <c r="N16" s="159"/>
+      <c r="O16" s="174"/>
+      <c r="P16" s="174"/>
+      <c r="Q16" s="195"/>
+      <c r="R16" s="159"/>
+      <c r="S16" s="191"/>
       <c r="T16" s="126"/>
       <c r="U16" s="24"/>
       <c r="V16" s="24"/>
@@ -9526,14 +9527,14 @@
       <c r="AL16" s="24"/>
     </row>
     <row r="17" spans="1:38" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="168"/>
-      <c r="B17" s="168"/>
-      <c r="C17" s="165"/>
+      <c r="A17" s="160"/>
+      <c r="B17" s="160"/>
+      <c r="C17" s="167"/>
       <c r="D17" s="78"/>
       <c r="E17" s="59"/>
-      <c r="F17" s="164"/>
-      <c r="G17" s="164"/>
-      <c r="H17" s="165"/>
+      <c r="F17" s="163"/>
+      <c r="G17" s="163"/>
+      <c r="H17" s="167"/>
       <c r="I17" s="26" t="s">
         <v>227</v>
       </c>
@@ -9546,13 +9547,13 @@
       <c r="L17" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="M17" s="171"/>
-      <c r="N17" s="168"/>
-      <c r="O17" s="173"/>
-      <c r="P17" s="173"/>
-      <c r="Q17" s="198"/>
-      <c r="R17" s="168"/>
-      <c r="S17" s="203"/>
+      <c r="M17" s="159"/>
+      <c r="N17" s="160"/>
+      <c r="O17" s="175"/>
+      <c r="P17" s="175"/>
+      <c r="Q17" s="196"/>
+      <c r="R17" s="160"/>
+      <c r="S17" s="192"/>
       <c r="T17" s="126"/>
       <c r="U17" s="24"/>
       <c r="V17" s="24"/>
@@ -9634,22 +9635,22 @@
       <c r="AL18" s="24"/>
     </row>
     <row r="19" spans="1:38" ht="110.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="172">
+      <c r="A19" s="173">
         <v>4</v>
       </c>
-      <c r="B19" s="172" t="s">
+      <c r="B19" s="173" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="180" t="s">
+      <c r="C19" s="178" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="160" t="s">
+      <c r="D19" s="168" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="161"/>
-      <c r="F19" s="161"/>
-      <c r="G19" s="161"/>
-      <c r="H19" s="161"/>
+      <c r="E19" s="164"/>
+      <c r="F19" s="164"/>
+      <c r="G19" s="164"/>
+      <c r="H19" s="164"/>
       <c r="I19" s="26"/>
       <c r="J19" s="75" t="s">
         <v>50</v>
@@ -9660,12 +9661,12 @@
       <c r="L19" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="M19" s="172" t="s">
+      <c r="M19" s="173" t="s">
         <v>65</v>
       </c>
-      <c r="N19" s="167"/>
-      <c r="O19" s="185" t="s">
-        <v>1379</v>
+      <c r="N19" s="158"/>
+      <c r="O19" s="194" t="s">
+        <v>1378</v>
       </c>
       <c r="P19" s="57"/>
       <c r="Q19" s="92"/>
@@ -9692,14 +9693,14 @@
       <c r="AL19" s="24"/>
     </row>
     <row r="20" spans="1:38" ht="284.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="168"/>
-      <c r="B20" s="168"/>
-      <c r="C20" s="165"/>
+      <c r="A20" s="160"/>
+      <c r="B20" s="160"/>
+      <c r="C20" s="167"/>
       <c r="D20" s="169"/>
-      <c r="E20" s="170"/>
-      <c r="F20" s="170"/>
-      <c r="G20" s="170"/>
-      <c r="H20" s="170"/>
+      <c r="E20" s="162"/>
+      <c r="F20" s="162"/>
+      <c r="G20" s="162"/>
+      <c r="H20" s="162"/>
       <c r="I20" s="26" t="s">
         <v>64</v>
       </c>
@@ -9712,9 +9713,9 @@
       <c r="L20" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="M20" s="168"/>
-      <c r="N20" s="168"/>
-      <c r="O20" s="200"/>
+      <c r="M20" s="160"/>
+      <c r="N20" s="160"/>
+      <c r="O20" s="179"/>
       <c r="P20" s="30"/>
       <c r="Q20" s="92" t="s">
         <v>656</v>
@@ -9742,22 +9743,22 @@
       <c r="AL20" s="24"/>
     </row>
     <row r="21" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="172">
+      <c r="A21" s="173">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B21" s="172" t="s">
+      <c r="B21" s="173" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="180" t="s">
+      <c r="C21" s="178" t="s">
         <v>67</v>
       </c>
       <c r="D21" s="78"/>
-      <c r="E21" s="160" t="s">
+      <c r="E21" s="168" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="161"/>
-      <c r="G21" s="161"/>
-      <c r="H21" s="162"/>
+      <c r="F21" s="164"/>
+      <c r="G21" s="164"/>
+      <c r="H21" s="165"/>
       <c r="I21" s="26"/>
       <c r="J21" s="75" t="b">
         <v>0</v>
@@ -9768,20 +9769,20 @@
       <c r="L21" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="M21" s="183" t="s">
+      <c r="M21" s="176" t="s">
         <v>1348</v>
       </c>
-      <c r="N21" s="172" t="s">
+      <c r="N21" s="173" t="s">
         <v>637</v>
       </c>
-      <c r="O21" s="172" t="s">
+      <c r="O21" s="173" t="s">
         <v>638</v>
       </c>
-      <c r="P21" s="172" t="s">
+      <c r="P21" s="173" t="s">
         <v>657</v>
       </c>
-      <c r="Q21" s="180" t="s">
-        <v>1381</v>
+      <c r="Q21" s="178" t="s">
+        <v>1380</v>
       </c>
       <c r="R21" s="26" t="s">
         <v>640</v>
@@ -9810,14 +9811,14 @@
       <c r="AL21" s="24"/>
     </row>
     <row r="22" spans="1:38" ht="147" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="171"/>
-      <c r="B22" s="171"/>
-      <c r="C22" s="179"/>
+      <c r="A22" s="159"/>
+      <c r="B22" s="159"/>
+      <c r="C22" s="166"/>
       <c r="D22" s="78"/>
       <c r="E22" s="169"/>
-      <c r="F22" s="170"/>
-      <c r="G22" s="170"/>
-      <c r="H22" s="179"/>
+      <c r="F22" s="162"/>
+      <c r="G22" s="162"/>
+      <c r="H22" s="166"/>
       <c r="I22" s="26" t="s">
         <v>32</v>
       </c>
@@ -9830,11 +9831,11 @@
       <c r="L22" s="76">
         <v>1</v>
       </c>
-      <c r="M22" s="171"/>
-      <c r="N22" s="171"/>
-      <c r="O22" s="187"/>
-      <c r="P22" s="187"/>
-      <c r="Q22" s="211"/>
+      <c r="M22" s="159"/>
+      <c r="N22" s="159"/>
+      <c r="O22" s="174"/>
+      <c r="P22" s="174"/>
+      <c r="Q22" s="182"/>
       <c r="R22" s="26"/>
       <c r="S22" s="130"/>
       <c r="T22" s="126"/>
@@ -9858,14 +9859,14 @@
       <c r="AL22" s="24"/>
     </row>
     <row r="23" spans="1:38" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="168"/>
-      <c r="B23" s="168"/>
-      <c r="C23" s="165"/>
+      <c r="A23" s="160"/>
+      <c r="B23" s="160"/>
+      <c r="C23" s="167"/>
       <c r="D23" s="78"/>
-      <c r="E23" s="163"/>
-      <c r="F23" s="164"/>
-      <c r="G23" s="164"/>
-      <c r="H23" s="165"/>
+      <c r="E23" s="170"/>
+      <c r="F23" s="163"/>
+      <c r="G23" s="163"/>
+      <c r="H23" s="167"/>
       <c r="I23" s="26" t="s">
         <v>227</v>
       </c>
@@ -9878,11 +9879,11 @@
       <c r="L23" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="M23" s="168"/>
-      <c r="N23" s="168"/>
-      <c r="O23" s="173"/>
-      <c r="P23" s="173"/>
-      <c r="Q23" s="212"/>
+      <c r="M23" s="160"/>
+      <c r="N23" s="160"/>
+      <c r="O23" s="175"/>
+      <c r="P23" s="175"/>
+      <c r="Q23" s="183"/>
       <c r="R23" s="26"/>
       <c r="S23" s="130"/>
       <c r="T23" s="126"/>
@@ -9906,22 +9907,22 @@
       <c r="AL23" s="24"/>
     </row>
     <row r="24" spans="1:38" ht="97.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="172">
+      <c r="A24" s="173">
         <v>4.2</v>
       </c>
-      <c r="B24" s="172" t="s">
+      <c r="B24" s="173" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="180" t="s">
+      <c r="C24" s="178" t="s">
         <v>69</v>
       </c>
       <c r="D24" s="78"/>
-      <c r="E24" s="160" t="s">
+      <c r="E24" s="168" t="s">
         <v>70</v>
       </c>
-      <c r="F24" s="161"/>
-      <c r="G24" s="161"/>
-      <c r="H24" s="162"/>
+      <c r="F24" s="164"/>
+      <c r="G24" s="164"/>
+      <c r="H24" s="165"/>
       <c r="I24" s="26"/>
       <c r="J24" s="75" t="b">
         <v>1</v>
@@ -9935,13 +9936,13 @@
       <c r="M24" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="N24" s="185" t="s">
+      <c r="N24" s="194" t="s">
         <v>955</v>
       </c>
-      <c r="O24" s="172" t="s">
+      <c r="O24" s="173" t="s">
         <v>72</v>
       </c>
-      <c r="P24" s="172" t="s">
+      <c r="P24" s="173" t="s">
         <v>73</v>
       </c>
       <c r="Q24" s="92"/>
@@ -9972,14 +9973,14 @@
       <c r="AL24" s="24"/>
     </row>
     <row r="25" spans="1:38" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="168"/>
-      <c r="B25" s="168"/>
-      <c r="C25" s="165"/>
+      <c r="A25" s="160"/>
+      <c r="B25" s="160"/>
+      <c r="C25" s="167"/>
       <c r="D25" s="78"/>
-      <c r="E25" s="163"/>
-      <c r="F25" s="164"/>
-      <c r="G25" s="164"/>
-      <c r="H25" s="165"/>
+      <c r="E25" s="170"/>
+      <c r="F25" s="163"/>
+      <c r="G25" s="163"/>
+      <c r="H25" s="167"/>
       <c r="I25" s="25" t="s">
         <v>39</v>
       </c>
@@ -9995,11 +9996,11 @@
       <c r="M25" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="N25" s="200"/>
-      <c r="O25" s="188"/>
-      <c r="P25" s="188"/>
+      <c r="N25" s="179"/>
+      <c r="O25" s="177"/>
+      <c r="P25" s="177"/>
       <c r="Q25" s="73" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="R25" s="26"/>
       <c r="S25" s="130"/>
@@ -10260,22 +10261,22 @@
       <c r="AL29" s="24"/>
     </row>
     <row r="30" spans="1:38" ht="66" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="172" t="s">
+      <c r="A30" s="173" t="s">
         <v>80</v>
       </c>
-      <c r="B30" s="183" t="s">
+      <c r="B30" s="176" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="185" t="s">
+      <c r="C30" s="194" t="s">
         <v>54</v>
       </c>
       <c r="D30" s="78"/>
       <c r="E30" s="59"/>
-      <c r="F30" s="196" t="s">
+      <c r="F30" s="161" t="s">
         <v>31</v>
       </c>
-      <c r="G30" s="161"/>
-      <c r="H30" s="162"/>
+      <c r="G30" s="164"/>
+      <c r="H30" s="165"/>
       <c r="I30" s="31"/>
       <c r="J30" s="83" t="s">
         <v>50</v>
@@ -10286,18 +10287,18 @@
       <c r="L30" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="M30" s="172" t="s">
+      <c r="M30" s="173" t="s">
         <v>957</v>
       </c>
-      <c r="N30" s="172" t="s">
+      <c r="N30" s="173" t="s">
         <v>637</v>
       </c>
-      <c r="O30" s="185" t="s">
+      <c r="O30" s="194" t="s">
         <v>958</v>
       </c>
-      <c r="P30" s="172"/>
-      <c r="Q30" s="172" t="s">
-        <v>1386</v>
+      <c r="P30" s="173"/>
+      <c r="Q30" s="173" t="s">
+        <v>1385</v>
       </c>
       <c r="R30" s="26"/>
       <c r="S30" s="133"/>
@@ -10322,14 +10323,14 @@
       <c r="AL30" s="24"/>
     </row>
     <row r="31" spans="1:38" ht="66" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="171"/>
-      <c r="B31" s="171"/>
-      <c r="C31" s="179"/>
+      <c r="A31" s="159"/>
+      <c r="B31" s="159"/>
+      <c r="C31" s="166"/>
       <c r="D31" s="78"/>
       <c r="E31" s="59"/>
-      <c r="F31" s="170"/>
-      <c r="G31" s="170"/>
-      <c r="H31" s="179"/>
+      <c r="F31" s="162"/>
+      <c r="G31" s="162"/>
+      <c r="H31" s="166"/>
       <c r="I31" s="26" t="s">
         <v>32</v>
       </c>
@@ -10342,11 +10343,11 @@
       <c r="L31" s="115">
         <v>1</v>
       </c>
-      <c r="M31" s="171"/>
-      <c r="N31" s="171"/>
-      <c r="O31" s="199"/>
-      <c r="P31" s="187"/>
-      <c r="Q31" s="197"/>
+      <c r="M31" s="159"/>
+      <c r="N31" s="159"/>
+      <c r="O31" s="181"/>
+      <c r="P31" s="174"/>
+      <c r="Q31" s="195"/>
       <c r="R31" s="26"/>
       <c r="S31" s="133"/>
       <c r="T31" s="126"/>
@@ -10370,14 +10371,14 @@
       <c r="AL31" s="24"/>
     </row>
     <row r="32" spans="1:38" ht="66" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="168"/>
-      <c r="B32" s="168"/>
-      <c r="C32" s="165"/>
+      <c r="A32" s="160"/>
+      <c r="B32" s="160"/>
+      <c r="C32" s="167"/>
       <c r="D32" s="78"/>
       <c r="E32" s="59"/>
-      <c r="F32" s="164"/>
-      <c r="G32" s="164"/>
-      <c r="H32" s="165"/>
+      <c r="F32" s="163"/>
+      <c r="G32" s="163"/>
+      <c r="H32" s="167"/>
       <c r="I32" s="26" t="s">
         <v>227</v>
       </c>
@@ -10390,11 +10391,11 @@
       <c r="L32" s="115" t="s">
         <v>28</v>
       </c>
-      <c r="M32" s="168"/>
-      <c r="N32" s="168"/>
-      <c r="O32" s="200"/>
-      <c r="P32" s="173"/>
-      <c r="Q32" s="198"/>
+      <c r="M32" s="160"/>
+      <c r="N32" s="160"/>
+      <c r="O32" s="179"/>
+      <c r="P32" s="175"/>
+      <c r="Q32" s="196"/>
       <c r="R32" s="26"/>
       <c r="S32" s="133"/>
       <c r="T32" s="126"/>
@@ -10478,13 +10479,13 @@
       <c r="AL33" s="24"/>
     </row>
     <row r="34" spans="1:38" ht="71.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="172">
+      <c r="A34" s="173">
         <v>5</v>
       </c>
-      <c r="B34" s="172" t="s">
+      <c r="B34" s="173" t="s">
         <v>666</v>
       </c>
-      <c r="C34" s="180" t="s">
+      <c r="C34" s="178" t="s">
         <v>311</v>
       </c>
       <c r="D34" s="62" t="s">
@@ -10504,16 +10505,16 @@
       <c r="L34" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="M34" s="172" t="s">
+      <c r="M34" s="173" t="s">
         <v>667</v>
       </c>
-      <c r="N34" s="172" t="s">
+      <c r="N34" s="173" t="s">
         <v>668</v>
       </c>
-      <c r="O34" s="172" t="s">
+      <c r="O34" s="173" t="s">
         <v>315</v>
       </c>
-      <c r="P34" s="172"/>
+      <c r="P34" s="173"/>
       <c r="Q34" s="92" t="s">
         <v>316</v>
       </c>
@@ -10540,9 +10541,9 @@
       <c r="AL34" s="24"/>
     </row>
     <row r="35" spans="1:38" ht="178.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="168"/>
-      <c r="B35" s="168"/>
-      <c r="C35" s="165"/>
+      <c r="A35" s="160"/>
+      <c r="B35" s="160"/>
+      <c r="C35" s="167"/>
       <c r="D35" s="68"/>
       <c r="E35" s="69"/>
       <c r="F35" s="69"/>
@@ -10560,10 +10561,10 @@
       <c r="L35" s="76">
         <v>1</v>
       </c>
-      <c r="M35" s="168"/>
-      <c r="N35" s="168"/>
-      <c r="O35" s="173"/>
-      <c r="P35" s="173"/>
+      <c r="M35" s="160"/>
+      <c r="N35" s="160"/>
+      <c r="O35" s="175"/>
+      <c r="P35" s="175"/>
       <c r="Q35" s="92"/>
       <c r="R35" s="26"/>
       <c r="S35" s="130"/>
@@ -10588,13 +10589,13 @@
       <c r="AL35" s="24"/>
     </row>
     <row r="36" spans="1:38" ht="88.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="172">
+      <c r="A36" s="173">
         <v>6</v>
       </c>
-      <c r="B36" s="172" t="s">
+      <c r="B36" s="173" t="s">
         <v>304</v>
       </c>
-      <c r="C36" s="180" t="s">
+      <c r="C36" s="178" t="s">
         <v>305</v>
       </c>
       <c r="D36" s="62" t="s">
@@ -10614,17 +10615,17 @@
       <c r="L36" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="M36" s="172" t="s">
+      <c r="M36" s="173" t="s">
         <v>669</v>
       </c>
-      <c r="N36" s="172" t="s">
+      <c r="N36" s="173" t="s">
         <v>670</v>
       </c>
-      <c r="O36" s="172" t="s">
+      <c r="O36" s="173" t="s">
         <v>671</v>
       </c>
-      <c r="P36" s="172" t="s">
-        <v>1377</v>
+      <c r="P36" s="173" t="s">
+        <v>1376</v>
       </c>
       <c r="Q36" s="92"/>
       <c r="R36" s="26" t="s">
@@ -10654,9 +10655,9 @@
       <c r="AL36" s="24"/>
     </row>
     <row r="37" spans="1:38" ht="181.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="168"/>
-      <c r="B37" s="168"/>
-      <c r="C37" s="165"/>
+      <c r="A37" s="160"/>
+      <c r="B37" s="160"/>
+      <c r="C37" s="167"/>
       <c r="D37" s="68"/>
       <c r="E37" s="69"/>
       <c r="F37" s="69"/>
@@ -10674,10 +10675,10 @@
       <c r="L37" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="M37" s="168"/>
-      <c r="N37" s="168"/>
-      <c r="O37" s="173"/>
-      <c r="P37" s="173"/>
+      <c r="M37" s="160"/>
+      <c r="N37" s="160"/>
+      <c r="O37" s="175"/>
+      <c r="P37" s="175"/>
       <c r="Q37" s="92"/>
       <c r="R37" s="26"/>
       <c r="S37" s="130"/>
@@ -10760,13 +10761,13 @@
       <c r="AL38" s="24"/>
     </row>
     <row r="39" spans="1:38" ht="42.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="172">
+      <c r="A39" s="173">
         <v>7.1</v>
       </c>
-      <c r="B39" s="172" t="s">
+      <c r="B39" s="173" t="s">
         <v>679</v>
       </c>
-      <c r="C39" s="172" t="s">
+      <c r="C39" s="173" t="s">
         <v>416</v>
       </c>
       <c r="D39" s="78"/>
@@ -10786,16 +10787,16 @@
       <c r="L39" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="M39" s="172" t="s">
+      <c r="M39" s="173" t="s">
         <v>680</v>
       </c>
-      <c r="N39" s="172" t="s">
+      <c r="N39" s="173" t="s">
         <v>637</v>
       </c>
-      <c r="O39" s="172" t="s">
+      <c r="O39" s="173" t="s">
         <v>681</v>
       </c>
-      <c r="P39" s="172"/>
+      <c r="P39" s="173"/>
       <c r="Q39" s="92"/>
       <c r="R39" s="26"/>
       <c r="S39" s="130"/>
@@ -10820,9 +10821,9 @@
       <c r="AL39" s="24"/>
     </row>
     <row r="40" spans="1:38" ht="150" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="171"/>
-      <c r="B40" s="171"/>
-      <c r="C40" s="171"/>
+      <c r="A40" s="159"/>
+      <c r="B40" s="159"/>
+      <c r="C40" s="159"/>
       <c r="D40" s="78"/>
       <c r="E40" s="78"/>
       <c r="F40" s="24"/>
@@ -10840,10 +10841,10 @@
       <c r="L40" s="76">
         <v>1</v>
       </c>
-      <c r="M40" s="171"/>
-      <c r="N40" s="171"/>
-      <c r="O40" s="187"/>
-      <c r="P40" s="187"/>
+      <c r="M40" s="159"/>
+      <c r="N40" s="159"/>
+      <c r="O40" s="174"/>
+      <c r="P40" s="174"/>
       <c r="Q40" s="92" t="s">
         <v>682</v>
       </c>
@@ -10870,9 +10871,9 @@
       <c r="AL40" s="24"/>
     </row>
     <row r="41" spans="1:38" ht="65.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="168"/>
-      <c r="B41" s="168"/>
-      <c r="C41" s="168"/>
+      <c r="A41" s="160"/>
+      <c r="B41" s="160"/>
+      <c r="C41" s="160"/>
       <c r="D41" s="78"/>
       <c r="E41" s="78"/>
       <c r="F41" s="69"/>
@@ -10890,10 +10891,10 @@
       <c r="L41" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="M41" s="168"/>
-      <c r="N41" s="168"/>
-      <c r="O41" s="173"/>
-      <c r="P41" s="173"/>
+      <c r="M41" s="160"/>
+      <c r="N41" s="160"/>
+      <c r="O41" s="175"/>
+      <c r="P41" s="175"/>
       <c r="Q41" s="92"/>
       <c r="R41" s="26"/>
       <c r="S41" s="130"/>
@@ -10976,13 +10977,13 @@
       <c r="AL42" s="24"/>
     </row>
     <row r="43" spans="1:38" ht="203.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="172">
+      <c r="A43" s="173">
         <v>8</v>
       </c>
-      <c r="B43" s="172" t="s">
+      <c r="B43" s="173" t="s">
         <v>82</v>
       </c>
-      <c r="C43" s="180" t="s">
+      <c r="C43" s="178" t="s">
         <v>83</v>
       </c>
       <c r="D43" s="62" t="s">
@@ -11002,16 +11003,16 @@
       <c r="L43" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="M43" s="172" t="s">
+      <c r="M43" s="173" t="s">
         <v>1349</v>
       </c>
-      <c r="N43" s="172" t="s">
-        <v>1425</v>
-      </c>
-      <c r="O43" s="172" t="s">
-        <v>1428</v>
-      </c>
-      <c r="P43" s="172"/>
+      <c r="N43" s="173" t="s">
+        <v>1424</v>
+      </c>
+      <c r="O43" s="173" t="s">
+        <v>1427</v>
+      </c>
+      <c r="P43" s="173"/>
       <c r="Q43" s="92"/>
       <c r="R43" s="26" t="s">
         <v>688</v>
@@ -11040,9 +11041,9 @@
       <c r="AL43" s="24"/>
     </row>
     <row r="44" spans="1:38" ht="185.25" x14ac:dyDescent="0.4">
-      <c r="A44" s="171"/>
-      <c r="B44" s="171"/>
-      <c r="C44" s="179"/>
+      <c r="A44" s="159"/>
+      <c r="B44" s="159"/>
+      <c r="C44" s="166"/>
       <c r="D44" s="78"/>
       <c r="E44" s="24"/>
       <c r="F44" s="24"/>
@@ -11060,10 +11061,10 @@
       <c r="L44" s="76">
         <v>1</v>
       </c>
-      <c r="M44" s="171"/>
-      <c r="N44" s="171"/>
-      <c r="O44" s="187"/>
-      <c r="P44" s="187"/>
+      <c r="M44" s="159"/>
+      <c r="N44" s="159"/>
+      <c r="O44" s="174"/>
+      <c r="P44" s="174"/>
       <c r="Q44" s="26" t="s">
         <v>1350</v>
       </c>
@@ -11090,9 +11091,9 @@
       <c r="AL44" s="24"/>
     </row>
     <row r="45" spans="1:38" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="168"/>
-      <c r="B45" s="168"/>
-      <c r="C45" s="165"/>
+      <c r="A45" s="160"/>
+      <c r="B45" s="160"/>
+      <c r="C45" s="167"/>
       <c r="D45" s="68"/>
       <c r="E45" s="69"/>
       <c r="F45" s="69"/>
@@ -11110,10 +11111,10 @@
       <c r="L45" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="M45" s="168"/>
-      <c r="N45" s="168"/>
-      <c r="O45" s="173"/>
-      <c r="P45" s="173"/>
+      <c r="M45" s="160"/>
+      <c r="N45" s="160"/>
+      <c r="O45" s="175"/>
+      <c r="P45" s="175"/>
       <c r="Q45" s="92"/>
       <c r="R45" s="26"/>
       <c r="S45" s="133"/>
@@ -11138,13 +11139,13 @@
       <c r="AL45" s="24"/>
     </row>
     <row r="46" spans="1:38" ht="83.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="172">
+      <c r="A46" s="173">
         <v>9</v>
       </c>
-      <c r="B46" s="172" t="s">
+      <c r="B46" s="173" t="s">
         <v>285</v>
       </c>
-      <c r="C46" s="180" t="s">
+      <c r="C46" s="178" t="s">
         <v>286</v>
       </c>
       <c r="D46" s="62" t="s">
@@ -11164,16 +11165,16 @@
       <c r="L46" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="M46" s="172" t="s">
+      <c r="M46" s="173" t="s">
         <v>690</v>
       </c>
-      <c r="N46" s="172" t="s">
+      <c r="N46" s="173" t="s">
         <v>691</v>
       </c>
-      <c r="O46" s="172" t="s">
+      <c r="O46" s="173" t="s">
         <v>692</v>
       </c>
-      <c r="P46" s="172" t="s">
+      <c r="P46" s="173" t="s">
         <v>693</v>
       </c>
       <c r="Q46" s="92"/>
@@ -11204,9 +11205,9 @@
       <c r="AL46" s="24"/>
     </row>
     <row r="47" spans="1:38" ht="177" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="168"/>
-      <c r="B47" s="168"/>
-      <c r="C47" s="165"/>
+      <c r="A47" s="160"/>
+      <c r="B47" s="160"/>
+      <c r="C47" s="167"/>
       <c r="D47" s="78"/>
       <c r="E47" s="69"/>
       <c r="F47" s="69"/>
@@ -11224,10 +11225,10 @@
       <c r="L47" s="76">
         <v>1</v>
       </c>
-      <c r="M47" s="168"/>
-      <c r="N47" s="168"/>
-      <c r="O47" s="173"/>
-      <c r="P47" s="173"/>
+      <c r="M47" s="160"/>
+      <c r="N47" s="160"/>
+      <c r="O47" s="175"/>
+      <c r="P47" s="175"/>
       <c r="Q47" s="92" t="s">
         <v>292</v>
       </c>
@@ -11281,7 +11282,7 @@
         <v>21</v>
       </c>
       <c r="M48" s="26" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="N48" s="26" t="s">
         <v>959</v>
@@ -11329,13 +11330,13 @@
       <c r="C49" s="88" t="s">
         <v>92</v>
       </c>
-      <c r="D49" s="195" t="s">
+      <c r="D49" s="197" t="s">
         <v>93</v>
       </c>
-      <c r="E49" s="177"/>
-      <c r="F49" s="177"/>
-      <c r="G49" s="177"/>
-      <c r="H49" s="177"/>
+      <c r="E49" s="198"/>
+      <c r="F49" s="198"/>
+      <c r="G49" s="198"/>
+      <c r="H49" s="198"/>
       <c r="I49" s="26"/>
       <c r="J49" s="83" t="s">
         <v>50</v>
@@ -11390,12 +11391,12 @@
         <v>97</v>
       </c>
       <c r="D50" s="86"/>
-      <c r="E50" s="194" t="s">
+      <c r="E50" s="199" t="s">
         <v>98</v>
       </c>
-      <c r="F50" s="164"/>
-      <c r="G50" s="164"/>
-      <c r="H50" s="164"/>
+      <c r="F50" s="163"/>
+      <c r="G50" s="163"/>
+      <c r="H50" s="163"/>
       <c r="I50" s="31"/>
       <c r="J50" s="85" t="b">
         <v>1</v>
@@ -11452,12 +11453,12 @@
         <v>100</v>
       </c>
       <c r="D51" s="86"/>
-      <c r="E51" s="193" t="s">
+      <c r="E51" s="200" t="s">
         <v>101</v>
       </c>
-      <c r="F51" s="177"/>
-      <c r="G51" s="177"/>
-      <c r="H51" s="177"/>
+      <c r="F51" s="198"/>
+      <c r="G51" s="198"/>
+      <c r="H51" s="198"/>
       <c r="I51" s="31"/>
       <c r="J51" s="85" t="b">
         <v>1</v>
@@ -11512,12 +11513,12 @@
         <v>105</v>
       </c>
       <c r="D52" s="86"/>
-      <c r="E52" s="194" t="s">
+      <c r="E52" s="199" t="s">
         <v>106</v>
       </c>
-      <c r="F52" s="164"/>
-      <c r="G52" s="164"/>
-      <c r="H52" s="164"/>
+      <c r="F52" s="163"/>
+      <c r="G52" s="163"/>
+      <c r="H52" s="163"/>
       <c r="I52" s="31"/>
       <c r="J52" s="85" t="b">
         <v>1</v>
@@ -11574,12 +11575,12 @@
         <v>110</v>
       </c>
       <c r="D53" s="31"/>
-      <c r="E53" s="194" t="s">
+      <c r="E53" s="199" t="s">
         <v>111</v>
       </c>
-      <c r="F53" s="164"/>
-      <c r="G53" s="164"/>
-      <c r="H53" s="164"/>
+      <c r="F53" s="163"/>
+      <c r="G53" s="163"/>
+      <c r="H53" s="163"/>
       <c r="I53" s="31"/>
       <c r="J53" s="85" t="b">
         <v>0</v>
@@ -11624,13 +11625,13 @@
       <c r="AL53" s="32"/>
     </row>
     <row r="54" spans="1:38" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="172">
+      <c r="A54" s="173">
         <v>12</v>
       </c>
-      <c r="B54" s="172" t="s">
+      <c r="B54" s="173" t="s">
         <v>114</v>
       </c>
-      <c r="C54" s="180" t="s">
+      <c r="C54" s="178" t="s">
         <v>115</v>
       </c>
       <c r="D54" s="62" t="s">
@@ -11650,16 +11651,16 @@
       <c r="L54" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="M54" s="172" t="s">
+      <c r="M54" s="173" t="s">
         <v>962</v>
       </c>
-      <c r="N54" s="172" t="s">
+      <c r="N54" s="173" t="s">
         <v>963</v>
       </c>
-      <c r="O54" s="172" t="s">
-        <v>1368</v>
-      </c>
-      <c r="P54" s="172" t="s">
+      <c r="O54" s="173" t="s">
+        <v>1367</v>
+      </c>
+      <c r="P54" s="173" t="s">
         <v>117</v>
       </c>
       <c r="Q54" s="92"/>
@@ -11690,9 +11691,9 @@
       <c r="AL54" s="24"/>
     </row>
     <row r="55" spans="1:38" ht="128.25" x14ac:dyDescent="0.4">
-      <c r="A55" s="168"/>
-      <c r="B55" s="168"/>
-      <c r="C55" s="165"/>
+      <c r="A55" s="160"/>
+      <c r="B55" s="160"/>
+      <c r="C55" s="167"/>
       <c r="D55" s="68"/>
       <c r="E55" s="69"/>
       <c r="F55" s="69"/>
@@ -11710,10 +11711,10 @@
       <c r="L55" s="76">
         <v>1</v>
       </c>
-      <c r="M55" s="168"/>
-      <c r="N55" s="168"/>
-      <c r="O55" s="173"/>
-      <c r="P55" s="173"/>
+      <c r="M55" s="160"/>
+      <c r="N55" s="160"/>
+      <c r="O55" s="175"/>
+      <c r="P55" s="175"/>
       <c r="Q55" s="92" t="s">
         <v>119</v>
       </c>
@@ -11868,13 +11869,13 @@
       <c r="AL57" s="24"/>
     </row>
     <row r="58" spans="1:38" ht="123" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="172">
+      <c r="A58" s="173">
         <v>15</v>
       </c>
-      <c r="B58" s="172" t="s">
+      <c r="B58" s="173" t="s">
         <v>123</v>
       </c>
-      <c r="C58" s="180" t="s">
+      <c r="C58" s="178" t="s">
         <v>124</v>
       </c>
       <c r="D58" s="62" t="s">
@@ -11894,16 +11895,16 @@
       <c r="L58" s="94">
         <v>1</v>
       </c>
-      <c r="M58" s="172" t="s">
+      <c r="M58" s="173" t="s">
         <v>965</v>
       </c>
-      <c r="N58" s="172" t="s">
+      <c r="N58" s="173" t="s">
         <v>126</v>
       </c>
-      <c r="O58" s="172" t="s">
+      <c r="O58" s="173" t="s">
         <v>718</v>
       </c>
-      <c r="P58" s="172" t="s">
+      <c r="P58" s="173" t="s">
         <v>127</v>
       </c>
       <c r="Q58" s="57" t="s">
@@ -11936,9 +11937,9 @@
       <c r="AL58" s="24"/>
     </row>
     <row r="59" spans="1:38" ht="137.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="168"/>
-      <c r="B59" s="168"/>
-      <c r="C59" s="165"/>
+      <c r="A59" s="160"/>
+      <c r="B59" s="160"/>
+      <c r="C59" s="167"/>
       <c r="D59" s="68"/>
       <c r="E59" s="69"/>
       <c r="F59" s="69"/>
@@ -11952,10 +11953,10 @@
       </c>
       <c r="K59" s="95"/>
       <c r="L59" s="96"/>
-      <c r="M59" s="168"/>
-      <c r="N59" s="168"/>
-      <c r="O59" s="173"/>
-      <c r="P59" s="173"/>
+      <c r="M59" s="160"/>
+      <c r="N59" s="160"/>
+      <c r="O59" s="175"/>
+      <c r="P59" s="175"/>
       <c r="Q59" s="31"/>
       <c r="R59" s="26"/>
       <c r="S59" s="130"/>
@@ -12042,13 +12043,13 @@
       <c r="AL60" s="24"/>
     </row>
     <row r="61" spans="1:38" ht="172.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="172">
+      <c r="A61" s="173">
         <v>17</v>
       </c>
-      <c r="B61" s="172" t="s">
+      <c r="B61" s="173" t="s">
         <v>721</v>
       </c>
-      <c r="C61" s="172" t="s">
+      <c r="C61" s="173" t="s">
         <v>472</v>
       </c>
       <c r="D61" s="62" t="s">
@@ -12068,16 +12069,16 @@
       <c r="L61" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="M61" s="172" t="s">
+      <c r="M61" s="173" t="s">
         <v>722</v>
       </c>
-      <c r="N61" s="172" t="s">
+      <c r="N61" s="173" t="s">
         <v>723</v>
       </c>
-      <c r="O61" s="172" t="s">
-        <v>1378</v>
-      </c>
-      <c r="P61" s="172"/>
+      <c r="O61" s="173" t="s">
+        <v>1377</v>
+      </c>
+      <c r="P61" s="173"/>
       <c r="Q61" s="92" t="s">
         <v>724</v>
       </c>
@@ -12108,9 +12109,9 @@
       <c r="AL61" s="24"/>
     </row>
     <row r="62" spans="1:38" ht="44.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="168"/>
-      <c r="B62" s="168"/>
-      <c r="C62" s="168"/>
+      <c r="A62" s="160"/>
+      <c r="B62" s="160"/>
+      <c r="C62" s="160"/>
       <c r="D62" s="68"/>
       <c r="E62" s="69"/>
       <c r="F62" s="69"/>
@@ -12128,10 +12129,10 @@
       <c r="L62" s="76">
         <v>1</v>
       </c>
-      <c r="M62" s="188"/>
-      <c r="N62" s="168"/>
-      <c r="O62" s="173"/>
-      <c r="P62" s="173"/>
+      <c r="M62" s="177"/>
+      <c r="N62" s="160"/>
+      <c r="O62" s="175"/>
+      <c r="P62" s="175"/>
       <c r="Q62" s="92"/>
       <c r="R62" s="26"/>
       <c r="S62" s="130"/>
@@ -12156,13 +12157,13 @@
       <c r="AL62" s="24"/>
     </row>
     <row r="63" spans="1:38" ht="87" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="172">
+      <c r="A63" s="173">
         <v>18</v>
       </c>
-      <c r="B63" s="181" t="s">
+      <c r="B63" s="205" t="s">
         <v>134</v>
       </c>
-      <c r="C63" s="180" t="s">
+      <c r="C63" s="178" t="s">
         <v>135</v>
       </c>
       <c r="D63" s="62" t="s">
@@ -12182,16 +12183,16 @@
       <c r="L63" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="M63" s="172" t="s">
+      <c r="M63" s="173" t="s">
         <v>727</v>
       </c>
-      <c r="N63" s="172" t="s">
-        <v>1437</v>
-      </c>
-      <c r="O63" s="172" t="s">
+      <c r="N63" s="173" t="s">
+        <v>1435</v>
+      </c>
+      <c r="O63" s="173" t="s">
         <v>137</v>
       </c>
-      <c r="P63" s="172"/>
+      <c r="P63" s="173"/>
       <c r="Q63" s="92"/>
       <c r="R63" s="26" t="s">
         <v>728</v>
@@ -12220,9 +12221,9 @@
       <c r="AL63" s="24"/>
     </row>
     <row r="64" spans="1:38" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="168"/>
-      <c r="B64" s="168"/>
-      <c r="C64" s="165"/>
+      <c r="A64" s="160"/>
+      <c r="B64" s="160"/>
+      <c r="C64" s="167"/>
       <c r="D64" s="68"/>
       <c r="E64" s="69"/>
       <c r="F64" s="69"/>
@@ -12240,10 +12241,10 @@
       <c r="L64" s="76">
         <v>1</v>
       </c>
-      <c r="M64" s="188"/>
-      <c r="N64" s="168"/>
-      <c r="O64" s="173"/>
-      <c r="P64" s="173"/>
+      <c r="M64" s="177"/>
+      <c r="N64" s="160"/>
+      <c r="O64" s="175"/>
+      <c r="P64" s="175"/>
       <c r="Q64" s="92" t="s">
         <v>139</v>
       </c>
@@ -12270,13 +12271,13 @@
       <c r="AL64" s="24"/>
     </row>
     <row r="65" spans="1:38" ht="75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="172">
+      <c r="A65" s="173">
         <v>19</v>
       </c>
-      <c r="B65" s="172" t="s">
+      <c r="B65" s="173" t="s">
         <v>730</v>
       </c>
-      <c r="C65" s="180" t="s">
+      <c r="C65" s="178" t="s">
         <v>505</v>
       </c>
       <c r="D65" s="82" t="s">
@@ -12296,16 +12297,16 @@
       <c r="L65" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="M65" s="172" t="s">
+      <c r="M65" s="173" t="s">
         <v>731</v>
       </c>
-      <c r="N65" s="172" t="s">
+      <c r="N65" s="173" t="s">
         <v>732</v>
       </c>
-      <c r="O65" s="172" t="s">
+      <c r="O65" s="173" t="s">
         <v>733</v>
       </c>
-      <c r="P65" s="172" t="s">
+      <c r="P65" s="173" t="s">
         <v>734</v>
       </c>
       <c r="Q65" s="92"/>
@@ -12336,9 +12337,9 @@
       <c r="AL65" s="24"/>
     </row>
     <row r="66" spans="1:38" ht="93" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="168"/>
-      <c r="B66" s="168"/>
-      <c r="C66" s="165"/>
+      <c r="A66" s="160"/>
+      <c r="B66" s="160"/>
+      <c r="C66" s="167"/>
       <c r="D66" s="69"/>
       <c r="E66" s="69"/>
       <c r="F66" s="69"/>
@@ -12356,10 +12357,10 @@
       <c r="L66" s="76">
         <v>1</v>
       </c>
-      <c r="M66" s="168"/>
-      <c r="N66" s="168"/>
-      <c r="O66" s="173"/>
-      <c r="P66" s="173"/>
+      <c r="M66" s="160"/>
+      <c r="N66" s="160"/>
+      <c r="O66" s="175"/>
+      <c r="P66" s="175"/>
       <c r="Q66" s="92" t="s">
         <v>737</v>
       </c>
@@ -12390,13 +12391,13 @@
       <c r="AL66" s="24"/>
     </row>
     <row r="67" spans="1:38" ht="233.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="172">
+      <c r="A67" s="173">
         <v>20</v>
       </c>
-      <c r="B67" s="172" t="s">
+      <c r="B67" s="173" t="s">
         <v>140</v>
       </c>
-      <c r="C67" s="180" t="s">
+      <c r="C67" s="178" t="s">
         <v>141</v>
       </c>
       <c r="D67" s="62" t="s">
@@ -12416,16 +12417,16 @@
       <c r="L67" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="M67" s="172" t="s">
+      <c r="M67" s="173" t="s">
         <v>1353</v>
       </c>
-      <c r="N67" s="172" t="s">
+      <c r="N67" s="173" t="s">
         <v>966</v>
       </c>
-      <c r="O67" s="191" t="s">
-        <v>1387</v>
-      </c>
-      <c r="P67" s="172"/>
+      <c r="O67" s="203" t="s">
+        <v>1386</v>
+      </c>
+      <c r="P67" s="173"/>
       <c r="Q67" s="92"/>
       <c r="R67" s="26" t="s">
         <v>143</v>
@@ -12454,9 +12455,9 @@
       <c r="AL67" s="24"/>
     </row>
     <row r="68" spans="1:38" ht="409.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="168"/>
-      <c r="B68" s="168"/>
-      <c r="C68" s="165"/>
+      <c r="A68" s="160"/>
+      <c r="B68" s="160"/>
+      <c r="C68" s="167"/>
       <c r="D68" s="78"/>
       <c r="E68" s="69"/>
       <c r="F68" s="69"/>
@@ -12474,10 +12475,10 @@
       <c r="L68" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="M68" s="168"/>
-      <c r="N68" s="168"/>
-      <c r="O68" s="192"/>
-      <c r="P68" s="173"/>
+      <c r="M68" s="160"/>
+      <c r="N68" s="160"/>
+      <c r="O68" s="204"/>
+      <c r="P68" s="175"/>
       <c r="Q68" s="92" t="s">
         <v>1354</v>
       </c>
@@ -12504,13 +12505,13 @@
       <c r="AL68" s="24"/>
     </row>
     <row r="69" spans="1:38" ht="126" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="172">
+      <c r="A69" s="173">
         <v>20.100000000000001</v>
       </c>
-      <c r="B69" s="183" t="s">
+      <c r="B69" s="176" t="s">
         <v>145</v>
       </c>
-      <c r="C69" s="185" t="s">
+      <c r="C69" s="194" t="s">
         <v>146</v>
       </c>
       <c r="D69" s="78"/>
@@ -12530,16 +12531,16 @@
       <c r="L69" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="M69" s="172" t="s">
-        <v>1355</v>
-      </c>
-      <c r="N69" s="172" t="s">
+      <c r="M69" s="173" t="s">
+        <v>1437</v>
+      </c>
+      <c r="N69" s="173" t="s">
         <v>967</v>
       </c>
-      <c r="O69" s="172" t="s">
+      <c r="O69" s="173" t="s">
         <v>148</v>
       </c>
-      <c r="P69" s="172"/>
+      <c r="P69" s="173"/>
       <c r="Q69" s="92"/>
       <c r="R69" s="26" t="s">
         <v>741</v>
@@ -12568,9 +12569,9 @@
       <c r="AL69" s="24"/>
     </row>
     <row r="70" spans="1:38" ht="290.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="168"/>
-      <c r="B70" s="171"/>
-      <c r="C70" s="179"/>
+      <c r="A70" s="160"/>
+      <c r="B70" s="159"/>
+      <c r="C70" s="166"/>
       <c r="D70" s="78"/>
       <c r="E70" s="68"/>
       <c r="F70" s="69"/>
@@ -12588,10 +12589,10 @@
       <c r="L70" s="76">
         <v>1</v>
       </c>
-      <c r="M70" s="168"/>
-      <c r="N70" s="168"/>
-      <c r="O70" s="173"/>
-      <c r="P70" s="173"/>
+      <c r="M70" s="160"/>
+      <c r="N70" s="160"/>
+      <c r="O70" s="175"/>
+      <c r="P70" s="175"/>
       <c r="Q70" s="92"/>
       <c r="R70" s="26"/>
       <c r="S70" s="130"/>
@@ -13357,7 +13358,7 @@
       </c>
       <c r="N83" s="26"/>
       <c r="O83" s="26" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="P83" s="26"/>
       <c r="Q83" s="92"/>
@@ -13384,13 +13385,13 @@
       <c r="AL83" s="24"/>
     </row>
     <row r="84" spans="1:38" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="172">
+      <c r="A84" s="173">
         <v>23.1</v>
       </c>
-      <c r="B84" s="172" t="s">
+      <c r="B84" s="173" t="s">
         <v>158</v>
       </c>
-      <c r="C84" s="180" t="s">
+      <c r="C84" s="178" t="s">
         <v>159</v>
       </c>
       <c r="D84" s="78"/>
@@ -13410,16 +13411,16 @@
       <c r="L84" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="M84" s="172" t="s">
-        <v>1356</v>
-      </c>
-      <c r="N84" s="172" t="s">
-        <v>1424</v>
-      </c>
-      <c r="O84" s="172" t="s">
-        <v>1431</v>
-      </c>
-      <c r="P84" s="172"/>
+      <c r="M84" s="173" t="s">
+        <v>1355</v>
+      </c>
+      <c r="N84" s="173" t="s">
+        <v>1423</v>
+      </c>
+      <c r="O84" s="173" t="s">
+        <v>1436</v>
+      </c>
+      <c r="P84" s="173"/>
       <c r="Q84" s="92"/>
       <c r="R84" s="26"/>
       <c r="S84" s="130"/>
@@ -13444,9 +13445,9 @@
       <c r="AL84" s="24"/>
     </row>
     <row r="85" spans="1:38" ht="111" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="171"/>
-      <c r="B85" s="171"/>
-      <c r="C85" s="179"/>
+      <c r="A85" s="159"/>
+      <c r="B85" s="159"/>
+      <c r="C85" s="166"/>
       <c r="D85" s="78"/>
       <c r="E85" s="78"/>
       <c r="F85" s="24"/>
@@ -13464,12 +13465,12 @@
       <c r="L85" s="76">
         <v>1</v>
       </c>
-      <c r="M85" s="171"/>
-      <c r="N85" s="171"/>
-      <c r="O85" s="189"/>
-      <c r="P85" s="187"/>
+      <c r="M85" s="159"/>
+      <c r="N85" s="159"/>
+      <c r="O85" s="201"/>
+      <c r="P85" s="174"/>
       <c r="Q85" s="26" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="R85" s="26"/>
       <c r="S85" s="130"/>
@@ -13494,9 +13495,9 @@
       <c r="AL85" s="24"/>
     </row>
     <row r="86" spans="1:38" ht="28.5" x14ac:dyDescent="0.4">
-      <c r="A86" s="168"/>
-      <c r="B86" s="168"/>
-      <c r="C86" s="165"/>
+      <c r="A86" s="160"/>
+      <c r="B86" s="160"/>
+      <c r="C86" s="167"/>
       <c r="D86" s="78"/>
       <c r="E86" s="78"/>
       <c r="F86" s="69"/>
@@ -13514,10 +13515,10 @@
       <c r="L86" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="M86" s="171"/>
-      <c r="N86" s="168"/>
-      <c r="O86" s="190"/>
-      <c r="P86" s="173"/>
+      <c r="M86" s="159"/>
+      <c r="N86" s="160"/>
+      <c r="O86" s="202"/>
+      <c r="P86" s="175"/>
       <c r="Q86" s="92"/>
       <c r="R86" s="26"/>
       <c r="S86" s="130"/>
@@ -13552,12 +13553,12 @@
         <v>163</v>
       </c>
       <c r="D87" s="78"/>
-      <c r="E87" s="176" t="s">
+      <c r="E87" s="207" t="s">
         <v>164</v>
       </c>
-      <c r="F87" s="177"/>
-      <c r="G87" s="177"/>
-      <c r="H87" s="178"/>
+      <c r="F87" s="198"/>
+      <c r="G87" s="198"/>
+      <c r="H87" s="208"/>
       <c r="I87" s="26"/>
       <c r="J87" s="75" t="b">
         <v>1</v>
@@ -13572,10 +13573,10 @@
         <v>165</v>
       </c>
       <c r="N87" s="26" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="O87" s="26" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="P87" s="26"/>
       <c r="Q87" s="92"/>
@@ -13602,22 +13603,22 @@
       <c r="AL87" s="24"/>
     </row>
     <row r="88" spans="1:38" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A88" s="167">
+      <c r="A88" s="158">
         <v>23.3</v>
       </c>
-      <c r="B88" s="160" t="s">
+      <c r="B88" s="168" t="s">
         <v>166</v>
       </c>
-      <c r="C88" s="172" t="s">
+      <c r="C88" s="173" t="s">
         <v>167</v>
       </c>
       <c r="D88" s="78"/>
-      <c r="E88" s="160" t="s">
+      <c r="E88" s="168" t="s">
         <v>168</v>
       </c>
-      <c r="F88" s="161"/>
-      <c r="G88" s="161"/>
-      <c r="H88" s="162"/>
+      <c r="F88" s="164"/>
+      <c r="G88" s="164"/>
+      <c r="H88" s="165"/>
       <c r="I88" s="26"/>
       <c r="J88" s="99" t="b">
         <v>0</v>
@@ -13628,16 +13629,16 @@
       <c r="L88" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="M88" s="172" t="s">
-        <v>1358</v>
-      </c>
-      <c r="N88" s="186" t="s">
-        <v>1430</v>
-      </c>
-      <c r="O88" s="172" t="s">
-        <v>1433</v>
-      </c>
-      <c r="P88" s="172"/>
+      <c r="M88" s="173" t="s">
+        <v>1357</v>
+      </c>
+      <c r="N88" s="206" t="s">
+        <v>1429</v>
+      </c>
+      <c r="O88" s="173" t="s">
+        <v>1431</v>
+      </c>
+      <c r="P88" s="173"/>
       <c r="Q88" s="26"/>
       <c r="R88" s="75"/>
       <c r="S88" s="130"/>
@@ -13662,14 +13663,14 @@
       <c r="AL88" s="24"/>
     </row>
     <row r="89" spans="1:38" ht="193.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="171"/>
+      <c r="A89" s="159"/>
       <c r="B89" s="169"/>
-      <c r="C89" s="171"/>
+      <c r="C89" s="159"/>
       <c r="D89" s="78"/>
       <c r="E89" s="169"/>
-      <c r="F89" s="170"/>
-      <c r="G89" s="170"/>
-      <c r="H89" s="179"/>
+      <c r="F89" s="162"/>
+      <c r="G89" s="162"/>
+      <c r="H89" s="166"/>
       <c r="I89" s="26" t="s">
         <v>169</v>
       </c>
@@ -13682,12 +13683,12 @@
       <c r="L89" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="M89" s="171"/>
-      <c r="N89" s="171"/>
-      <c r="O89" s="187"/>
-      <c r="P89" s="187"/>
+      <c r="M89" s="159"/>
+      <c r="N89" s="159"/>
+      <c r="O89" s="174"/>
+      <c r="P89" s="174"/>
       <c r="Q89" s="26" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="R89" s="26"/>
       <c r="S89" s="130"/>
@@ -13712,14 +13713,14 @@
       <c r="AL89" s="24"/>
     </row>
     <row r="90" spans="1:38" ht="81" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="168"/>
-      <c r="B90" s="163"/>
-      <c r="C90" s="168"/>
+      <c r="A90" s="160"/>
+      <c r="B90" s="170"/>
+      <c r="C90" s="160"/>
       <c r="D90" s="78"/>
       <c r="E90" s="169"/>
-      <c r="F90" s="170"/>
-      <c r="G90" s="170"/>
-      <c r="H90" s="179"/>
+      <c r="F90" s="162"/>
+      <c r="G90" s="162"/>
+      <c r="H90" s="166"/>
       <c r="I90" s="26" t="s">
         <v>170</v>
       </c>
@@ -13732,12 +13733,12 @@
       <c r="L90" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="M90" s="168"/>
-      <c r="N90" s="168"/>
-      <c r="O90" s="173"/>
-      <c r="P90" s="173"/>
+      <c r="M90" s="160"/>
+      <c r="N90" s="160"/>
+      <c r="O90" s="175"/>
+      <c r="P90" s="175"/>
       <c r="Q90" s="101" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="R90" s="26"/>
       <c r="S90" s="130"/>
@@ -13789,11 +13790,11 @@
         <v>21</v>
       </c>
       <c r="M91" s="26" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="N91" s="26"/>
       <c r="O91" s="26" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="P91" s="97"/>
       <c r="Q91" s="26"/>
@@ -13820,22 +13821,22 @@
       <c r="AL91" s="24"/>
     </row>
     <row r="92" spans="1:38" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="172">
+      <c r="A92" s="173">
         <v>23.5</v>
       </c>
-      <c r="B92" s="172" t="s">
+      <c r="B92" s="173" t="s">
         <v>174</v>
       </c>
-      <c r="C92" s="180" t="s">
+      <c r="C92" s="178" t="s">
         <v>175</v>
       </c>
       <c r="D92" s="78"/>
-      <c r="E92" s="160" t="s">
+      <c r="E92" s="168" t="s">
         <v>596</v>
       </c>
-      <c r="F92" s="161"/>
-      <c r="G92" s="161"/>
-      <c r="H92" s="161"/>
+      <c r="F92" s="164"/>
+      <c r="G92" s="164"/>
+      <c r="H92" s="164"/>
       <c r="I92" s="26"/>
       <c r="J92" s="75" t="b">
         <v>0</v>
@@ -13846,12 +13847,12 @@
       <c r="L92" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="M92" s="172" t="s">
+      <c r="M92" s="173" t="s">
         <v>176</v>
       </c>
-      <c r="N92" s="172"/>
-      <c r="O92" s="172" t="s">
-        <v>1435</v>
+      <c r="N92" s="173"/>
+      <c r="O92" s="173" t="s">
+        <v>1433</v>
       </c>
       <c r="P92" s="57"/>
       <c r="Q92" s="92"/>
@@ -13878,14 +13879,14 @@
       <c r="AL92" s="24"/>
     </row>
     <row r="93" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="171"/>
-      <c r="B93" s="171"/>
-      <c r="C93" s="179"/>
+      <c r="A93" s="159"/>
+      <c r="B93" s="159"/>
+      <c r="C93" s="166"/>
       <c r="D93" s="78"/>
       <c r="E93" s="169"/>
-      <c r="F93" s="170"/>
-      <c r="G93" s="170"/>
-      <c r="H93" s="170"/>
+      <c r="F93" s="162"/>
+      <c r="G93" s="162"/>
+      <c r="H93" s="162"/>
       <c r="I93" s="26" t="s">
         <v>177</v>
       </c>
@@ -13898,9 +13899,9 @@
       <c r="L93" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="M93" s="171"/>
-      <c r="N93" s="171"/>
-      <c r="O93" s="183"/>
+      <c r="M93" s="159"/>
+      <c r="N93" s="159"/>
+      <c r="O93" s="176"/>
       <c r="P93" s="31"/>
       <c r="Q93" s="92"/>
       <c r="R93" s="26"/>
@@ -13926,14 +13927,14 @@
       <c r="AL93" s="24"/>
     </row>
     <row r="94" spans="1:38" ht="43.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="168"/>
-      <c r="B94" s="168"/>
-      <c r="C94" s="165"/>
+      <c r="A94" s="160"/>
+      <c r="B94" s="160"/>
+      <c r="C94" s="167"/>
       <c r="D94" s="78"/>
       <c r="E94" s="169"/>
-      <c r="F94" s="170"/>
-      <c r="G94" s="170"/>
-      <c r="H94" s="170"/>
+      <c r="F94" s="162"/>
+      <c r="G94" s="162"/>
+      <c r="H94" s="162"/>
       <c r="I94" s="26" t="s">
         <v>178</v>
       </c>
@@ -13946,9 +13947,9 @@
       <c r="L94" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="M94" s="171"/>
-      <c r="N94" s="171"/>
-      <c r="O94" s="188"/>
+      <c r="M94" s="159"/>
+      <c r="N94" s="159"/>
+      <c r="O94" s="177"/>
       <c r="Q94" s="26" t="s">
         <v>179</v>
       </c>
@@ -14008,7 +14009,7 @@
         <v>801</v>
       </c>
       <c r="O95" s="26" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="P95" s="26"/>
       <c r="Q95" s="92"/>
@@ -14087,13 +14088,13 @@
       <c r="AL96" s="24"/>
     </row>
     <row r="97" spans="1:38" ht="69" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="172">
+      <c r="A97" s="173">
         <v>24</v>
       </c>
-      <c r="B97" s="172" t="s">
+      <c r="B97" s="173" t="s">
         <v>183</v>
       </c>
-      <c r="C97" s="180" t="s">
+      <c r="C97" s="178" t="s">
         <v>184</v>
       </c>
       <c r="D97" s="62" t="s">
@@ -14113,13 +14114,13 @@
       <c r="L97" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="M97" s="172" t="s">
-        <v>1361</v>
-      </c>
-      <c r="N97" s="172" t="s">
+      <c r="M97" s="173" t="s">
+        <v>1360</v>
+      </c>
+      <c r="N97" s="173" t="s">
         <v>186</v>
       </c>
-      <c r="O97" s="172" t="s">
+      <c r="O97" s="173" t="s">
         <v>187</v>
       </c>
       <c r="P97" s="57"/>
@@ -14147,9 +14148,9 @@
       <c r="AL97" s="24"/>
     </row>
     <row r="98" spans="1:38" ht="66.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="168"/>
-      <c r="B98" s="168"/>
-      <c r="C98" s="165"/>
+      <c r="A98" s="160"/>
+      <c r="B98" s="160"/>
+      <c r="C98" s="167"/>
       <c r="D98" s="78"/>
       <c r="E98" s="69"/>
       <c r="F98" s="69"/>
@@ -14167,9 +14168,9 @@
       <c r="L98" s="76">
         <v>1</v>
       </c>
-      <c r="M98" s="168"/>
-      <c r="N98" s="168"/>
-      <c r="O98" s="173"/>
+      <c r="M98" s="160"/>
+      <c r="N98" s="160"/>
+      <c r="O98" s="175"/>
       <c r="P98" s="31"/>
       <c r="Q98" s="92" t="s">
         <v>188</v>
@@ -14837,13 +14838,13 @@
       <c r="AL108" s="24"/>
     </row>
     <row r="109" spans="1:38" ht="63" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A109" s="172">
+      <c r="A109" s="173">
         <v>34.1</v>
       </c>
-      <c r="B109" s="172" t="s">
+      <c r="B109" s="173" t="s">
         <v>876</v>
       </c>
-      <c r="C109" s="180" t="s">
+      <c r="C109" s="178" t="s">
         <v>601</v>
       </c>
       <c r="D109" s="78"/>
@@ -14863,16 +14864,16 @@
       <c r="L109" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="M109" s="172" t="s">
+      <c r="M109" s="173" t="s">
         <v>877</v>
       </c>
-      <c r="N109" s="172" t="s">
+      <c r="N109" s="173" t="s">
         <v>878</v>
       </c>
-      <c r="O109" s="172" t="s">
+      <c r="O109" s="173" t="s">
         <v>879</v>
       </c>
-      <c r="P109" s="172"/>
+      <c r="P109" s="173"/>
       <c r="Q109" s="92"/>
       <c r="R109" s="26"/>
       <c r="S109" s="130"/>
@@ -14897,9 +14898,9 @@
       <c r="AL109" s="24"/>
     </row>
     <row r="110" spans="1:38" ht="155.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A110" s="168"/>
-      <c r="B110" s="171"/>
-      <c r="C110" s="179"/>
+      <c r="A110" s="160"/>
+      <c r="B110" s="159"/>
+      <c r="C110" s="166"/>
       <c r="D110" s="78"/>
       <c r="E110" s="78"/>
       <c r="F110" s="24"/>
@@ -14917,10 +14918,10 @@
       <c r="L110" s="76">
         <v>1</v>
       </c>
-      <c r="M110" s="168"/>
-      <c r="N110" s="168"/>
-      <c r="O110" s="173"/>
-      <c r="P110" s="173"/>
+      <c r="M110" s="160"/>
+      <c r="N110" s="160"/>
+      <c r="O110" s="175"/>
+      <c r="P110" s="175"/>
       <c r="Q110" s="92" t="s">
         <v>880</v>
       </c>
@@ -15251,13 +15252,13 @@
       <c r="AL115" s="24"/>
     </row>
     <row r="116" spans="1:38" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A116" s="172">
+      <c r="A116" s="173">
         <v>35.4</v>
       </c>
-      <c r="B116" s="182" t="s">
+      <c r="B116" s="209" t="s">
         <v>910</v>
       </c>
-      <c r="C116" s="172" t="s">
+      <c r="C116" s="173" t="s">
         <v>911</v>
       </c>
       <c r="D116" s="78"/>
@@ -15277,13 +15278,13 @@
       <c r="L116" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="M116" s="172" t="s">
+      <c r="M116" s="173" t="s">
         <v>913</v>
       </c>
-      <c r="N116" s="172" t="s">
+      <c r="N116" s="173" t="s">
         <v>914</v>
       </c>
-      <c r="O116" s="172" t="s">
+      <c r="O116" s="173" t="s">
         <v>915</v>
       </c>
       <c r="P116" s="57"/>
@@ -15313,9 +15314,9 @@
       <c r="AL116" s="24"/>
     </row>
     <row r="117" spans="1:38" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A117" s="171"/>
-      <c r="B117" s="171"/>
-      <c r="C117" s="171"/>
+      <c r="A117" s="159"/>
+      <c r="B117" s="159"/>
+      <c r="C117" s="159"/>
       <c r="D117" s="78"/>
       <c r="E117" s="98"/>
       <c r="F117" s="74"/>
@@ -15333,9 +15334,9 @@
       <c r="L117" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="M117" s="171"/>
-      <c r="N117" s="171"/>
-      <c r="O117" s="187"/>
+      <c r="M117" s="159"/>
+      <c r="N117" s="159"/>
+      <c r="O117" s="174"/>
       <c r="P117" s="86"/>
       <c r="Q117" s="86"/>
       <c r="R117" s="86"/>
@@ -15361,9 +15362,9 @@
       <c r="AL117" s="24"/>
     </row>
     <row r="118" spans="1:38" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A118" s="171"/>
-      <c r="B118" s="171"/>
-      <c r="C118" s="171"/>
+      <c r="A118" s="159"/>
+      <c r="B118" s="159"/>
+      <c r="C118" s="159"/>
       <c r="D118" s="78"/>
       <c r="E118" s="98"/>
       <c r="F118" s="74"/>
@@ -15381,9 +15382,9 @@
       <c r="L118" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="M118" s="171"/>
-      <c r="N118" s="171"/>
-      <c r="O118" s="187"/>
+      <c r="M118" s="159"/>
+      <c r="N118" s="159"/>
+      <c r="O118" s="174"/>
       <c r="P118" s="86"/>
       <c r="Q118" s="86"/>
       <c r="R118" s="86"/>
@@ -15409,9 +15410,9 @@
       <c r="AL118" s="24"/>
     </row>
     <row r="119" spans="1:38" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A119" s="171"/>
-      <c r="B119" s="171"/>
-      <c r="C119" s="171"/>
+      <c r="A119" s="159"/>
+      <c r="B119" s="159"/>
+      <c r="C119" s="159"/>
       <c r="D119" s="78"/>
       <c r="E119" s="98"/>
       <c r="F119" s="74"/>
@@ -15429,9 +15430,9 @@
       <c r="L119" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="M119" s="171"/>
-      <c r="N119" s="171"/>
-      <c r="O119" s="187"/>
+      <c r="M119" s="159"/>
+      <c r="N119" s="159"/>
+      <c r="O119" s="174"/>
       <c r="P119" s="86"/>
       <c r="Q119" s="86"/>
       <c r="R119" s="86"/>
@@ -15457,9 +15458,9 @@
       <c r="AL119" s="24"/>
     </row>
     <row r="120" spans="1:38" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A120" s="171"/>
-      <c r="B120" s="171"/>
-      <c r="C120" s="171"/>
+      <c r="A120" s="159"/>
+      <c r="B120" s="159"/>
+      <c r="C120" s="159"/>
       <c r="D120" s="78"/>
       <c r="E120" s="98"/>
       <c r="F120" s="74"/>
@@ -15477,9 +15478,9 @@
       <c r="L120" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="M120" s="171"/>
-      <c r="N120" s="171"/>
-      <c r="O120" s="187"/>
+      <c r="M120" s="159"/>
+      <c r="N120" s="159"/>
+      <c r="O120" s="174"/>
       <c r="P120" s="86"/>
       <c r="Q120" s="86"/>
       <c r="R120" s="86"/>
@@ -15505,9 +15506,9 @@
       <c r="AL120" s="24"/>
     </row>
     <row r="121" spans="1:38" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A121" s="171"/>
-      <c r="B121" s="171"/>
-      <c r="C121" s="171"/>
+      <c r="A121" s="159"/>
+      <c r="B121" s="159"/>
+      <c r="C121" s="159"/>
       <c r="D121" s="78"/>
       <c r="E121" s="98"/>
       <c r="F121" s="74"/>
@@ -15525,9 +15526,9 @@
       <c r="L121" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="M121" s="171"/>
-      <c r="N121" s="171"/>
-      <c r="O121" s="187"/>
+      <c r="M121" s="159"/>
+      <c r="N121" s="159"/>
+      <c r="O121" s="174"/>
       <c r="P121" s="86"/>
       <c r="Q121" s="86"/>
       <c r="R121" s="86"/>
@@ -15553,9 +15554,9 @@
       <c r="AL121" s="24"/>
     </row>
     <row r="122" spans="1:38" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A122" s="168"/>
-      <c r="B122" s="168"/>
-      <c r="C122" s="168"/>
+      <c r="A122" s="160"/>
+      <c r="B122" s="160"/>
+      <c r="C122" s="160"/>
       <c r="D122" s="78"/>
       <c r="E122" s="98"/>
       <c r="F122" s="74"/>
@@ -15573,9 +15574,9 @@
       <c r="L122" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="M122" s="168"/>
-      <c r="N122" s="168"/>
-      <c r="O122" s="173"/>
+      <c r="M122" s="160"/>
+      <c r="N122" s="160"/>
+      <c r="O122" s="175"/>
       <c r="P122" s="31"/>
       <c r="Q122" s="31"/>
       <c r="R122" s="31"/>
@@ -15993,7 +15994,7 @@
         <v>211</v>
       </c>
       <c r="N129" s="26" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="O129" s="31" t="s">
         <v>212</v>
@@ -16141,13 +16142,13 @@
       <c r="AL131" s="24"/>
     </row>
     <row r="132" spans="1:38" ht="128.25" x14ac:dyDescent="0.4">
-      <c r="A132" s="183">
+      <c r="A132" s="176">
         <v>41.1</v>
       </c>
-      <c r="B132" s="184" t="s">
+      <c r="B132" s="210" t="s">
         <v>222</v>
       </c>
-      <c r="C132" s="185" t="s">
+      <c r="C132" s="194" t="s">
         <v>223</v>
       </c>
       <c r="D132" s="78"/>
@@ -16167,18 +16168,18 @@
       <c r="L132" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="M132" s="172" t="s">
+      <c r="M132" s="173" t="s">
+        <v>1362</v>
+      </c>
+      <c r="N132" s="176" t="s">
+        <v>225</v>
+      </c>
+      <c r="O132" s="173" t="s">
+        <v>226</v>
+      </c>
+      <c r="P132" s="176"/>
+      <c r="Q132" s="26" t="s">
         <v>1363</v>
-      </c>
-      <c r="N132" s="183" t="s">
-        <v>225</v>
-      </c>
-      <c r="O132" s="172" t="s">
-        <v>226</v>
-      </c>
-      <c r="P132" s="183"/>
-      <c r="Q132" s="26" t="s">
-        <v>1364</v>
       </c>
       <c r="R132" s="31"/>
       <c r="S132" s="134"/>
@@ -16203,9 +16204,9 @@
       <c r="AL132" s="24"/>
     </row>
     <row r="133" spans="1:38" ht="28.5" x14ac:dyDescent="0.4">
-      <c r="A133" s="171"/>
-      <c r="B133" s="171"/>
-      <c r="C133" s="179"/>
+      <c r="A133" s="159"/>
+      <c r="B133" s="159"/>
+      <c r="C133" s="166"/>
       <c r="D133" s="78"/>
       <c r="E133" s="78"/>
       <c r="F133" s="24"/>
@@ -16223,10 +16224,10 @@
       <c r="L133" s="72">
         <v>1</v>
       </c>
-      <c r="M133" s="171"/>
-      <c r="N133" s="171"/>
-      <c r="O133" s="187"/>
-      <c r="P133" s="187"/>
+      <c r="M133" s="159"/>
+      <c r="N133" s="159"/>
+      <c r="O133" s="174"/>
+      <c r="P133" s="174"/>
       <c r="Q133" s="26"/>
       <c r="R133" s="31"/>
       <c r="S133" s="134"/>
@@ -16251,9 +16252,9 @@
       <c r="AL133" s="24"/>
     </row>
     <row r="134" spans="1:38" ht="28.5" x14ac:dyDescent="0.4">
-      <c r="A134" s="168"/>
-      <c r="B134" s="168"/>
-      <c r="C134" s="165"/>
+      <c r="A134" s="160"/>
+      <c r="B134" s="160"/>
+      <c r="C134" s="167"/>
       <c r="D134" s="78"/>
       <c r="E134" s="68"/>
       <c r="F134" s="69"/>
@@ -16271,10 +16272,10 @@
       <c r="L134" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="M134" s="168"/>
-      <c r="N134" s="168"/>
-      <c r="O134" s="173"/>
-      <c r="P134" s="173"/>
+      <c r="M134" s="160"/>
+      <c r="N134" s="160"/>
+      <c r="O134" s="175"/>
+      <c r="P134" s="175"/>
       <c r="Q134" s="91"/>
       <c r="R134" s="31"/>
       <c r="S134" s="134"/>
@@ -16479,13 +16480,13 @@
       <c r="AL137" s="24"/>
     </row>
     <row r="138" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A138" s="172">
+      <c r="A138" s="173">
         <v>43.1</v>
       </c>
-      <c r="B138" s="181" t="s">
+      <c r="B138" s="205" t="s">
         <v>246</v>
       </c>
-      <c r="C138" s="180" t="s">
+      <c r="C138" s="178" t="s">
         <v>247</v>
       </c>
       <c r="D138" s="78"/>
@@ -16505,16 +16506,16 @@
       <c r="L138" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="M138" s="172" t="s">
+      <c r="M138" s="173" t="s">
         <v>977</v>
       </c>
-      <c r="N138" s="172" t="s">
+      <c r="N138" s="173" t="s">
         <v>942</v>
       </c>
-      <c r="O138" s="172" t="s">
+      <c r="O138" s="173" t="s">
         <v>943</v>
       </c>
-      <c r="P138" s="172"/>
+      <c r="P138" s="173"/>
       <c r="Q138" s="92"/>
       <c r="R138" s="26" t="s">
         <v>944</v>
@@ -16543,9 +16544,9 @@
       <c r="AL138" s="24"/>
     </row>
     <row r="139" spans="1:38" ht="114" x14ac:dyDescent="0.4">
-      <c r="A139" s="171"/>
-      <c r="B139" s="171"/>
-      <c r="C139" s="179"/>
+      <c r="A139" s="159"/>
+      <c r="B139" s="159"/>
+      <c r="C139" s="166"/>
       <c r="D139" s="78"/>
       <c r="E139" s="78"/>
       <c r="F139" s="24"/>
@@ -16563,12 +16564,12 @@
       <c r="L139" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="M139" s="171"/>
-      <c r="N139" s="171"/>
-      <c r="O139" s="187"/>
-      <c r="P139" s="187"/>
+      <c r="M139" s="159"/>
+      <c r="N139" s="159"/>
+      <c r="O139" s="174"/>
+      <c r="P139" s="174"/>
       <c r="Q139" s="26" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="R139" s="26"/>
       <c r="S139" s="130"/>
@@ -16593,9 +16594,9 @@
       <c r="AL139" s="24"/>
     </row>
     <row r="140" spans="1:38" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A140" s="168"/>
-      <c r="B140" s="168"/>
-      <c r="C140" s="165"/>
+      <c r="A140" s="160"/>
+      <c r="B140" s="160"/>
+      <c r="C140" s="167"/>
       <c r="D140" s="78"/>
       <c r="E140" s="78"/>
       <c r="F140" s="69"/>
@@ -16613,10 +16614,10 @@
       <c r="L140" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="M140" s="168"/>
-      <c r="N140" s="168"/>
-      <c r="O140" s="173"/>
-      <c r="P140" s="173"/>
+      <c r="M140" s="160"/>
+      <c r="N140" s="160"/>
+      <c r="O140" s="175"/>
+      <c r="P140" s="175"/>
       <c r="Q140" s="92"/>
       <c r="R140" s="26"/>
       <c r="S140" s="130"/>
@@ -16645,10 +16646,10 @@
         <v>43.2</v>
       </c>
       <c r="B141" s="29" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C141" s="92" t="s">
         <v>1366</v>
-      </c>
-      <c r="C141" s="92" t="s">
-        <v>1367</v>
       </c>
       <c r="D141" s="78"/>
       <c r="E141" s="98" t="s">
@@ -16711,7 +16712,7 @@
         <v>43.3</v>
       </c>
       <c r="B142" s="29" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="C142" s="74" t="s">
         <v>257</v>
@@ -16767,13 +16768,13 @@
       <c r="AL142" s="24"/>
     </row>
     <row r="143" spans="1:38" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A143" s="172">
+      <c r="A143" s="173">
         <v>43.4</v>
       </c>
-      <c r="B143" s="172" t="s">
+      <c r="B143" s="173" t="s">
         <v>114</v>
       </c>
-      <c r="C143" s="174" t="s">
+      <c r="C143" s="214" t="s">
         <v>115</v>
       </c>
       <c r="D143" s="59"/>
@@ -16793,16 +16794,16 @@
       <c r="L143" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="M143" s="172" t="s">
+      <c r="M143" s="173" t="s">
         <v>978</v>
       </c>
-      <c r="N143" s="172" t="s">
+      <c r="N143" s="173" t="s">
         <v>262</v>
       </c>
-      <c r="O143" s="172" t="s">
-        <v>1368</v>
-      </c>
-      <c r="P143" s="172" t="s">
+      <c r="O143" s="173" t="s">
+        <v>1367</v>
+      </c>
+      <c r="P143" s="173" t="s">
         <v>117</v>
       </c>
       <c r="Q143" s="92"/>
@@ -16829,9 +16830,9 @@
       <c r="AL143" s="24"/>
     </row>
     <row r="144" spans="1:38" ht="146.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A144" s="168"/>
-      <c r="B144" s="168"/>
-      <c r="C144" s="164"/>
+      <c r="A144" s="160"/>
+      <c r="B144" s="160"/>
+      <c r="C144" s="163"/>
       <c r="D144" s="59"/>
       <c r="E144" s="24"/>
       <c r="F144" s="24"/>
@@ -16849,10 +16850,10 @@
       <c r="L144" s="76">
         <v>1</v>
       </c>
-      <c r="M144" s="168"/>
-      <c r="N144" s="168"/>
-      <c r="O144" s="173"/>
-      <c r="P144" s="173"/>
+      <c r="M144" s="160"/>
+      <c r="N144" s="160"/>
+      <c r="O144" s="175"/>
+      <c r="P144" s="175"/>
       <c r="Q144" s="92" t="s">
         <v>119</v>
       </c>
@@ -16906,7 +16907,7 @@
         <v>28</v>
       </c>
       <c r="M145" s="26" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="N145" s="26" t="s">
         <v>263</v>
@@ -16990,13 +16991,13 @@
       <c r="AJ146" s="24"/>
     </row>
     <row r="147" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A147" s="167">
+      <c r="A147" s="158">
         <v>44.1</v>
       </c>
-      <c r="B147" s="167" t="s">
+      <c r="B147" s="158" t="s">
         <v>270</v>
       </c>
-      <c r="C147" s="167" t="s">
+      <c r="C147" s="158" t="s">
         <v>271</v>
       </c>
       <c r="D147" s="24"/>
@@ -17005,7 +17006,7 @@
       </c>
       <c r="F147" s="82"/>
       <c r="G147" s="82"/>
-      <c r="H147" s="175"/>
+      <c r="H147" s="172"/>
       <c r="I147" s="73"/>
       <c r="J147" s="99" t="b">
         <v>0</v>
@@ -17016,14 +17017,14 @@
       <c r="L147" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="M147" s="172" t="s">
+      <c r="M147" s="173" t="s">
         <v>272</v>
       </c>
-      <c r="N147" s="172"/>
-      <c r="O147" s="213" t="s">
+      <c r="N147" s="173"/>
+      <c r="O147" s="180" t="s">
         <v>273</v>
       </c>
-      <c r="P147" s="172"/>
+      <c r="P147" s="173"/>
       <c r="Q147" s="88"/>
       <c r="R147" s="124"/>
       <c r="S147" s="124"/>
@@ -17041,14 +17042,14 @@
       <c r="AJ147" s="24"/>
     </row>
     <row r="148" spans="1:38" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A148" s="168"/>
-      <c r="B148" s="168"/>
-      <c r="C148" s="168"/>
+      <c r="A148" s="160"/>
+      <c r="B148" s="160"/>
+      <c r="C148" s="160"/>
       <c r="D148" s="24"/>
       <c r="E148" s="78"/>
       <c r="F148" s="69"/>
       <c r="G148" s="69"/>
-      <c r="H148" s="165"/>
+      <c r="H148" s="167"/>
       <c r="I148" s="73" t="s">
         <v>64</v>
       </c>
@@ -17061,10 +17062,10 @@
       <c r="L148" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="M148" s="168"/>
-      <c r="N148" s="168"/>
-      <c r="O148" s="173"/>
-      <c r="P148" s="173"/>
+      <c r="M148" s="160"/>
+      <c r="N148" s="160"/>
+      <c r="O148" s="175"/>
+      <c r="P148" s="175"/>
       <c r="Q148" s="88" t="s">
         <v>274</v>
       </c>
@@ -17132,22 +17133,22 @@
       <c r="AJ149" s="24"/>
     </row>
     <row r="150" spans="1:38" ht="97.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A150" s="167">
+      <c r="A150" s="158">
         <v>44.2</v>
       </c>
-      <c r="B150" s="167" t="s">
+      <c r="B150" s="158" t="s">
         <v>134</v>
       </c>
-      <c r="C150" s="167" t="s">
+      <c r="C150" s="158" t="s">
         <v>135</v>
       </c>
       <c r="D150" s="24"/>
-      <c r="E150" s="160" t="s">
+      <c r="E150" s="168" t="s">
         <v>136</v>
       </c>
-      <c r="F150" s="161"/>
-      <c r="G150" s="161"/>
-      <c r="H150" s="162"/>
+      <c r="F150" s="164"/>
+      <c r="G150" s="164"/>
+      <c r="H150" s="165"/>
       <c r="I150" s="26"/>
       <c r="J150" s="99" t="b">
         <v>0</v>
@@ -17158,14 +17159,14 @@
       <c r="L150" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="M150" s="172" t="s">
+      <c r="M150" s="173" t="s">
         <v>279</v>
       </c>
-      <c r="N150" s="172"/>
-      <c r="O150" s="172" t="s">
+      <c r="N150" s="173"/>
+      <c r="O150" s="173" t="s">
         <v>280</v>
       </c>
-      <c r="P150" s="172"/>
+      <c r="P150" s="173"/>
       <c r="Q150" s="88"/>
       <c r="R150" s="124"/>
       <c r="S150" s="124"/>
@@ -17183,14 +17184,14 @@
       <c r="AJ150" s="24"/>
     </row>
     <row r="151" spans="1:38" ht="42.75" x14ac:dyDescent="0.4">
-      <c r="A151" s="168"/>
-      <c r="B151" s="168"/>
-      <c r="C151" s="168"/>
+      <c r="A151" s="160"/>
+      <c r="B151" s="160"/>
+      <c r="C151" s="160"/>
       <c r="D151" s="24"/>
-      <c r="E151" s="163"/>
-      <c r="F151" s="164"/>
-      <c r="G151" s="164"/>
-      <c r="H151" s="165"/>
+      <c r="E151" s="170"/>
+      <c r="F151" s="163"/>
+      <c r="G151" s="163"/>
+      <c r="H151" s="167"/>
       <c r="I151" s="26" t="s">
         <v>138</v>
       </c>
@@ -17203,10 +17204,10 @@
       <c r="L151" s="99">
         <v>1</v>
       </c>
-      <c r="M151" s="168"/>
-      <c r="N151" s="168"/>
-      <c r="O151" s="173"/>
-      <c r="P151" s="173"/>
+      <c r="M151" s="160"/>
+      <c r="N151" s="160"/>
+      <c r="O151" s="175"/>
+      <c r="P151" s="175"/>
       <c r="Q151" s="122" t="s">
         <v>139</v>
       </c>
@@ -17236,12 +17237,12 @@
         <v>11</v>
       </c>
       <c r="D152" s="24"/>
-      <c r="E152" s="166" t="s">
+      <c r="E152" s="213" t="s">
         <v>12</v>
       </c>
-      <c r="F152" s="164"/>
-      <c r="G152" s="164"/>
-      <c r="H152" s="164"/>
+      <c r="F152" s="163"/>
+      <c r="G152" s="163"/>
+      <c r="H152" s="163"/>
       <c r="I152" s="26"/>
       <c r="J152" s="99" t="b">
         <v>1</v>
@@ -17286,22 +17287,22 @@
       <c r="AJ152" s="24"/>
     </row>
     <row r="153" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A153" s="167">
+      <c r="A153" s="158">
         <v>44.4</v>
       </c>
-      <c r="B153" s="167" t="s">
+      <c r="B153" s="158" t="s">
         <v>285</v>
       </c>
-      <c r="C153" s="167" t="s">
+      <c r="C153" s="158" t="s">
         <v>286</v>
       </c>
       <c r="D153" s="24"/>
-      <c r="E153" s="160" t="s">
+      <c r="E153" s="168" t="s">
         <v>287</v>
       </c>
-      <c r="F153" s="161"/>
-      <c r="G153" s="161"/>
-      <c r="H153" s="161"/>
+      <c r="F153" s="164"/>
+      <c r="G153" s="164"/>
+      <c r="H153" s="164"/>
       <c r="I153" s="26"/>
       <c r="J153" s="117" t="b">
         <v>1</v>
@@ -17312,16 +17313,16 @@
       <c r="L153" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="M153" s="172" t="s">
+      <c r="M153" s="173" t="s">
         <v>288</v>
       </c>
-      <c r="N153" s="172" t="s">
+      <c r="N153" s="173" t="s">
         <v>289</v>
       </c>
-      <c r="O153" s="172" t="s">
+      <c r="O153" s="173" t="s">
         <v>290</v>
       </c>
-      <c r="P153" s="172"/>
+      <c r="P153" s="173"/>
       <c r="Q153" s="88"/>
       <c r="R153" s="124"/>
       <c r="S153" s="124"/>
@@ -17344,14 +17345,14 @@
       <c r="AJ153" s="24"/>
     </row>
     <row r="154" spans="1:38" ht="71.25" x14ac:dyDescent="0.4">
-      <c r="A154" s="168"/>
-      <c r="B154" s="168"/>
-      <c r="C154" s="168"/>
+      <c r="A154" s="160"/>
+      <c r="B154" s="160"/>
+      <c r="C154" s="160"/>
       <c r="D154" s="24"/>
       <c r="E154" s="169"/>
-      <c r="F154" s="170"/>
-      <c r="G154" s="170"/>
-      <c r="H154" s="170"/>
+      <c r="F154" s="162"/>
+      <c r="G154" s="162"/>
+      <c r="H154" s="162"/>
       <c r="I154" s="26" t="s">
         <v>291</v>
       </c>
@@ -17364,10 +17365,10 @@
       <c r="L154" s="80">
         <v>1</v>
       </c>
-      <c r="M154" s="168"/>
-      <c r="N154" s="168"/>
-      <c r="O154" s="173"/>
-      <c r="P154" s="173"/>
+      <c r="M154" s="160"/>
+      <c r="N154" s="160"/>
+      <c r="O154" s="175"/>
+      <c r="P154" s="175"/>
       <c r="Q154" s="88" t="s">
         <v>292</v>
       </c>
@@ -17392,22 +17393,22 @@
       <c r="AJ154" s="24"/>
     </row>
     <row r="155" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A155" s="167">
+      <c r="A155" s="158">
         <v>44.5</v>
       </c>
-      <c r="B155" s="167" t="s">
+      <c r="B155" s="158" t="s">
         <v>82</v>
       </c>
-      <c r="C155" s="196" t="s">
+      <c r="C155" s="161" t="s">
         <v>83</v>
       </c>
       <c r="D155" s="59"/>
-      <c r="E155" s="196" t="s">
+      <c r="E155" s="161" t="s">
         <v>84</v>
       </c>
-      <c r="F155" s="161"/>
-      <c r="G155" s="161"/>
-      <c r="H155" s="162"/>
+      <c r="F155" s="164"/>
+      <c r="G155" s="164"/>
+      <c r="H155" s="165"/>
       <c r="I155" s="26"/>
       <c r="J155" s="117" t="b">
         <v>1</v>
@@ -17418,16 +17419,16 @@
       <c r="L155" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="M155" s="172" t="s">
+      <c r="M155" s="173" t="s">
         <v>293</v>
       </c>
-      <c r="N155" s="172" t="s">
+      <c r="N155" s="173" t="s">
         <v>294</v>
       </c>
-      <c r="O155" s="172" t="s">
+      <c r="O155" s="173" t="s">
         <v>295</v>
       </c>
-      <c r="P155" s="172"/>
+      <c r="P155" s="173"/>
       <c r="Q155" s="88"/>
       <c r="R155" s="124"/>
       <c r="S155" s="124"/>
@@ -17447,14 +17448,14 @@
       <c r="AJ155" s="24"/>
     </row>
     <row r="156" spans="1:38" ht="171" x14ac:dyDescent="0.4">
-      <c r="A156" s="171"/>
-      <c r="B156" s="171"/>
-      <c r="C156" s="170"/>
+      <c r="A156" s="159"/>
+      <c r="B156" s="159"/>
+      <c r="C156" s="162"/>
       <c r="D156" s="59"/>
-      <c r="E156" s="170"/>
-      <c r="F156" s="170"/>
-      <c r="G156" s="170"/>
-      <c r="H156" s="179"/>
+      <c r="E156" s="162"/>
+      <c r="F156" s="162"/>
+      <c r="G156" s="162"/>
+      <c r="H156" s="166"/>
       <c r="I156" s="31" t="s">
         <v>85</v>
       </c>
@@ -17467,12 +17468,12 @@
       <c r="L156" s="80">
         <v>1</v>
       </c>
-      <c r="M156" s="171"/>
-      <c r="N156" s="171"/>
-      <c r="O156" s="187"/>
-      <c r="P156" s="187"/>
+      <c r="M156" s="159"/>
+      <c r="N156" s="159"/>
+      <c r="O156" s="174"/>
+      <c r="P156" s="174"/>
       <c r="Q156" s="88" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="R156" s="124"/>
       <c r="S156" s="124"/>
@@ -17492,14 +17493,14 @@
       <c r="AJ156" s="24"/>
     </row>
     <row r="157" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A157" s="168"/>
-      <c r="B157" s="168"/>
-      <c r="C157" s="164"/>
+      <c r="A157" s="160"/>
+      <c r="B157" s="160"/>
+      <c r="C157" s="163"/>
       <c r="D157" s="59"/>
-      <c r="E157" s="164"/>
-      <c r="F157" s="164"/>
-      <c r="G157" s="164"/>
-      <c r="H157" s="165"/>
+      <c r="E157" s="163"/>
+      <c r="F157" s="163"/>
+      <c r="G157" s="163"/>
+      <c r="H157" s="167"/>
       <c r="I157" s="31" t="s">
         <v>86</v>
       </c>
@@ -17512,10 +17513,10 @@
       <c r="L157" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="M157" s="168"/>
-      <c r="N157" s="168"/>
-      <c r="O157" s="173"/>
-      <c r="P157" s="173"/>
+      <c r="M157" s="160"/>
+      <c r="N157" s="160"/>
+      <c r="O157" s="175"/>
+      <c r="P157" s="175"/>
       <c r="Q157" s="88"/>
       <c r="R157" s="124"/>
       <c r="S157" s="124"/>
@@ -17535,22 +17536,22 @@
       <c r="AJ157" s="24"/>
     </row>
     <row r="158" spans="1:38" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A158" s="167">
+      <c r="A158" s="158">
         <v>44.6</v>
       </c>
-      <c r="B158" s="167" t="s">
+      <c r="B158" s="158" t="s">
         <v>296</v>
       </c>
-      <c r="C158" s="167" t="s">
+      <c r="C158" s="158" t="s">
         <v>297</v>
       </c>
       <c r="D158" s="24"/>
-      <c r="E158" s="160" t="s">
+      <c r="E158" s="168" t="s">
         <v>298</v>
       </c>
-      <c r="F158" s="161"/>
-      <c r="G158" s="161"/>
-      <c r="H158" s="161"/>
+      <c r="F158" s="164"/>
+      <c r="G158" s="164"/>
+      <c r="H158" s="164"/>
       <c r="I158" s="26"/>
       <c r="J158" s="99" t="b">
         <v>1</v>
@@ -17561,14 +17562,14 @@
       <c r="L158" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="M158" s="172" t="s">
-        <v>1371</v>
-      </c>
-      <c r="N158" s="172" t="s">
+      <c r="M158" s="173" t="s">
+        <v>1370</v>
+      </c>
+      <c r="N158" s="173" t="s">
         <v>299</v>
       </c>
-      <c r="O158" s="172"/>
-      <c r="P158" s="172" t="s">
+      <c r="O158" s="173"/>
+      <c r="P158" s="173" t="s">
         <v>300</v>
       </c>
       <c r="Q158" s="88"/>
@@ -17593,14 +17594,14 @@
       <c r="AJ158" s="24"/>
     </row>
     <row r="159" spans="1:38" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A159" s="171"/>
-      <c r="B159" s="171"/>
-      <c r="C159" s="171"/>
+      <c r="A159" s="159"/>
+      <c r="B159" s="159"/>
+      <c r="C159" s="159"/>
       <c r="D159" s="24"/>
       <c r="E159" s="169"/>
-      <c r="F159" s="170"/>
-      <c r="G159" s="170"/>
-      <c r="H159" s="170"/>
+      <c r="F159" s="162"/>
+      <c r="G159" s="162"/>
+      <c r="H159" s="162"/>
       <c r="I159" s="26" t="s">
         <v>301</v>
       </c>
@@ -17613,10 +17614,10 @@
       <c r="L159" s="117">
         <v>1</v>
       </c>
-      <c r="M159" s="171"/>
-      <c r="N159" s="171"/>
-      <c r="O159" s="187"/>
-      <c r="P159" s="187"/>
+      <c r="M159" s="159"/>
+      <c r="N159" s="159"/>
+      <c r="O159" s="174"/>
+      <c r="P159" s="174"/>
       <c r="Q159" s="88" t="s">
         <v>302</v>
       </c>
@@ -17641,14 +17642,14 @@
       <c r="AJ159" s="24"/>
     </row>
     <row r="160" spans="1:38" ht="117.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A160" s="168"/>
-      <c r="B160" s="168"/>
-      <c r="C160" s="168"/>
+      <c r="A160" s="160"/>
+      <c r="B160" s="160"/>
+      <c r="C160" s="160"/>
       <c r="D160" s="24"/>
       <c r="E160" s="169"/>
-      <c r="F160" s="170"/>
-      <c r="G160" s="170"/>
-      <c r="H160" s="170"/>
+      <c r="F160" s="162"/>
+      <c r="G160" s="162"/>
+      <c r="H160" s="162"/>
       <c r="I160" s="26" t="s">
         <v>303</v>
       </c>
@@ -17661,10 +17662,10 @@
       <c r="L160" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="M160" s="168"/>
-      <c r="N160" s="168"/>
-      <c r="O160" s="173"/>
-      <c r="P160" s="173"/>
+      <c r="M160" s="160"/>
+      <c r="N160" s="160"/>
+      <c r="O160" s="175"/>
+      <c r="P160" s="175"/>
       <c r="Q160" s="88"/>
       <c r="R160" s="124"/>
       <c r="S160" s="124"/>
@@ -17687,22 +17688,22 @@
       <c r="AJ160" s="24"/>
     </row>
     <row r="161" spans="1:38" ht="77.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A161" s="167">
+      <c r="A161" s="158">
         <v>44.7</v>
       </c>
-      <c r="B161" s="167" t="s">
+      <c r="B161" s="158" t="s">
         <v>304</v>
       </c>
-      <c r="C161" s="167" t="s">
+      <c r="C161" s="158" t="s">
         <v>305</v>
       </c>
       <c r="D161" s="24"/>
-      <c r="E161" s="160" t="s">
+      <c r="E161" s="168" t="s">
         <v>306</v>
       </c>
-      <c r="F161" s="161"/>
-      <c r="G161" s="161"/>
-      <c r="H161" s="161"/>
+      <c r="F161" s="164"/>
+      <c r="G161" s="164"/>
+      <c r="H161" s="164"/>
       <c r="I161" s="26"/>
       <c r="J161" s="99" t="b">
         <v>1</v>
@@ -17713,17 +17714,17 @@
       <c r="L161" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="M161" s="172" t="s">
+      <c r="M161" s="173" t="s">
         <v>307</v>
       </c>
-      <c r="N161" s="172" t="s">
+      <c r="N161" s="173" t="s">
         <v>308</v>
       </c>
-      <c r="O161" s="172" t="s">
+      <c r="O161" s="173" t="s">
         <v>309</v>
       </c>
-      <c r="P161" s="172"/>
-      <c r="Q161" s="158"/>
+      <c r="P161" s="173"/>
+      <c r="Q161" s="211"/>
       <c r="R161" s="124"/>
       <c r="S161" s="124"/>
       <c r="T161" s="128"/>
@@ -17745,14 +17746,14 @@
       <c r="AJ161" s="24"/>
     </row>
     <row r="162" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A162" s="168"/>
-      <c r="B162" s="168"/>
-      <c r="C162" s="168"/>
+      <c r="A162" s="160"/>
+      <c r="B162" s="160"/>
+      <c r="C162" s="160"/>
       <c r="D162" s="24"/>
       <c r="E162" s="169"/>
-      <c r="F162" s="170"/>
-      <c r="G162" s="170"/>
-      <c r="H162" s="170"/>
+      <c r="F162" s="162"/>
+      <c r="G162" s="162"/>
+      <c r="H162" s="162"/>
       <c r="I162" s="26" t="s">
         <v>303</v>
       </c>
@@ -17765,11 +17766,11 @@
       <c r="L162" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="M162" s="168"/>
-      <c r="N162" s="168"/>
-      <c r="O162" s="173"/>
-      <c r="P162" s="173"/>
-      <c r="Q162" s="159"/>
+      <c r="M162" s="160"/>
+      <c r="N162" s="160"/>
+      <c r="O162" s="175"/>
+      <c r="P162" s="175"/>
+      <c r="Q162" s="212"/>
       <c r="R162" s="124"/>
       <c r="S162" s="124"/>
       <c r="T162" s="128"/>
@@ -17791,22 +17792,22 @@
       <c r="AJ162" s="24"/>
     </row>
     <row r="163" spans="1:38" ht="66" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A163" s="167">
+      <c r="A163" s="158">
         <v>44.8</v>
       </c>
-      <c r="B163" s="175" t="s">
+      <c r="B163" s="172" t="s">
         <v>310</v>
       </c>
-      <c r="C163" s="175" t="s">
+      <c r="C163" s="172" t="s">
         <v>311</v>
       </c>
       <c r="D163" s="24"/>
-      <c r="E163" s="160" t="s">
+      <c r="E163" s="168" t="s">
         <v>312</v>
       </c>
-      <c r="F163" s="161"/>
-      <c r="G163" s="161"/>
-      <c r="H163" s="161"/>
+      <c r="F163" s="164"/>
+      <c r="G163" s="164"/>
+      <c r="H163" s="164"/>
       <c r="I163" s="26"/>
       <c r="J163" s="117" t="b">
         <v>0</v>
@@ -17817,16 +17818,16 @@
       <c r="L163" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="M163" s="180" t="s">
+      <c r="M163" s="178" t="s">
         <v>313</v>
       </c>
-      <c r="N163" s="180" t="s">
+      <c r="N163" s="178" t="s">
         <v>314</v>
       </c>
-      <c r="O163" s="180" t="s">
+      <c r="O163" s="178" t="s">
         <v>315</v>
       </c>
-      <c r="P163" s="180"/>
+      <c r="P163" s="178"/>
       <c r="Q163" s="88" t="s">
         <v>316</v>
       </c>
@@ -17851,14 +17852,14 @@
       <c r="AJ163" s="24"/>
     </row>
     <row r="164" spans="1:38" ht="84" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A164" s="168"/>
-      <c r="B164" s="165"/>
-      <c r="C164" s="165"/>
+      <c r="A164" s="160"/>
+      <c r="B164" s="167"/>
+      <c r="C164" s="167"/>
       <c r="D164" s="59"/>
-      <c r="E164" s="163"/>
-      <c r="F164" s="164"/>
-      <c r="G164" s="164"/>
-      <c r="H164" s="164"/>
+      <c r="E164" s="170"/>
+      <c r="F164" s="163"/>
+      <c r="G164" s="163"/>
+      <c r="H164" s="163"/>
       <c r="I164" s="26" t="s">
         <v>303</v>
       </c>
@@ -17871,10 +17872,10 @@
       <c r="L164" s="79">
         <v>1</v>
       </c>
-      <c r="M164" s="165"/>
-      <c r="N164" s="165"/>
-      <c r="O164" s="200"/>
-      <c r="P164" s="200"/>
+      <c r="M164" s="167"/>
+      <c r="N164" s="167"/>
+      <c r="O164" s="179"/>
+      <c r="P164" s="179"/>
       <c r="Q164" s="123"/>
       <c r="R164" s="124"/>
       <c r="S164" s="124"/>
@@ -17906,7 +17907,7 @@
       <c r="C165" s="56" t="s">
         <v>318</v>
       </c>
-      <c r="D165" s="214"/>
+      <c r="D165" s="171"/>
       <c r="E165" s="62" t="s">
         <v>243</v>
       </c>
@@ -17930,7 +17931,7 @@
       <c r="O165" s="57" t="s">
         <v>320</v>
       </c>
-      <c r="P165" s="180"/>
+      <c r="P165" s="178"/>
       <c r="Q165" s="88"/>
       <c r="R165" s="124"/>
       <c r="S165" s="124"/>
@@ -17953,22 +17954,22 @@
       <c r="AJ165" s="24"/>
     </row>
     <row r="166" spans="1:38" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A166" s="167" t="s">
+      <c r="A166" s="158" t="s">
         <v>321</v>
       </c>
-      <c r="B166" s="167" t="s">
+      <c r="B166" s="158" t="s">
         <v>322</v>
       </c>
-      <c r="C166" s="167" t="s">
+      <c r="C166" s="158" t="s">
         <v>323</v>
       </c>
-      <c r="D166" s="170"/>
+      <c r="D166" s="162"/>
       <c r="E166" s="78"/>
-      <c r="F166" s="160" t="s">
+      <c r="F166" s="168" t="s">
         <v>248</v>
       </c>
-      <c r="G166" s="161"/>
-      <c r="H166" s="161"/>
+      <c r="G166" s="164"/>
+      <c r="H166" s="164"/>
       <c r="I166" s="26"/>
       <c r="J166" s="99" t="b">
         <v>0</v>
@@ -17979,14 +17980,14 @@
       <c r="L166" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="M166" s="172" t="s">
+      <c r="M166" s="173" t="s">
         <v>324</v>
       </c>
-      <c r="N166" s="172"/>
-      <c r="O166" s="172" t="s">
+      <c r="N166" s="173"/>
+      <c r="O166" s="173" t="s">
         <v>325</v>
       </c>
-      <c r="P166" s="199"/>
+      <c r="P166" s="181"/>
       <c r="Q166" s="88"/>
       <c r="R166" s="124"/>
       <c r="S166" s="124"/>
@@ -18009,14 +18010,14 @@
       <c r="AJ166" s="24"/>
     </row>
     <row r="167" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A167" s="168"/>
-      <c r="B167" s="168"/>
-      <c r="C167" s="168"/>
-      <c r="D167" s="164"/>
+      <c r="A167" s="160"/>
+      <c r="B167" s="160"/>
+      <c r="C167" s="160"/>
+      <c r="D167" s="163"/>
       <c r="E167" s="68"/>
-      <c r="F167" s="163"/>
-      <c r="G167" s="164"/>
-      <c r="H167" s="164"/>
+      <c r="F167" s="170"/>
+      <c r="G167" s="163"/>
+      <c r="H167" s="163"/>
       <c r="I167" s="26" t="s">
         <v>249</v>
       </c>
@@ -18029,10 +18030,10 @@
       <c r="L167" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="M167" s="168"/>
-      <c r="N167" s="168"/>
-      <c r="O167" s="173"/>
-      <c r="P167" s="200"/>
+      <c r="M167" s="160"/>
+      <c r="N167" s="160"/>
+      <c r="O167" s="175"/>
+      <c r="P167" s="179"/>
       <c r="Q167" s="88" t="s">
         <v>326</v>
       </c>
@@ -18317,26 +18318,245 @@
     </row>
   </sheetData>
   <mergeCells count="283">
-    <mergeCell ref="B155:B157"/>
-    <mergeCell ref="C155:C157"/>
-    <mergeCell ref="A158:A160"/>
-    <mergeCell ref="B158:B160"/>
-    <mergeCell ref="C158:C160"/>
-    <mergeCell ref="B161:B162"/>
-    <mergeCell ref="C161:C162"/>
-    <mergeCell ref="E155:H157"/>
-    <mergeCell ref="E158:H160"/>
-    <mergeCell ref="E161:H162"/>
-    <mergeCell ref="E163:H164"/>
-    <mergeCell ref="D165:D167"/>
-    <mergeCell ref="A166:A167"/>
-    <mergeCell ref="B166:B167"/>
-    <mergeCell ref="C166:C167"/>
-    <mergeCell ref="F166:H167"/>
-    <mergeCell ref="A161:A162"/>
-    <mergeCell ref="A163:A164"/>
-    <mergeCell ref="B163:B164"/>
-    <mergeCell ref="C163:C164"/>
+    <mergeCell ref="Q161:Q162"/>
+    <mergeCell ref="E150:H151"/>
+    <mergeCell ref="E152:H152"/>
+    <mergeCell ref="A153:A154"/>
+    <mergeCell ref="B153:B154"/>
+    <mergeCell ref="C153:C154"/>
+    <mergeCell ref="E153:H154"/>
+    <mergeCell ref="A155:A157"/>
+    <mergeCell ref="M143:M144"/>
+    <mergeCell ref="M147:M148"/>
+    <mergeCell ref="M150:M151"/>
+    <mergeCell ref="M153:M154"/>
+    <mergeCell ref="N143:N144"/>
+    <mergeCell ref="O143:O144"/>
+    <mergeCell ref="P143:P144"/>
+    <mergeCell ref="O150:O151"/>
+    <mergeCell ref="P150:P151"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="C143:C144"/>
+    <mergeCell ref="H147:H148"/>
+    <mergeCell ref="A150:A151"/>
+    <mergeCell ref="B150:B151"/>
+    <mergeCell ref="C150:C151"/>
+    <mergeCell ref="E87:H87"/>
+    <mergeCell ref="E88:H90"/>
+    <mergeCell ref="E92:H94"/>
+    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="C88:C90"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B138:B140"/>
+    <mergeCell ref="C138:C140"/>
+    <mergeCell ref="A116:A122"/>
+    <mergeCell ref="B116:B122"/>
+    <mergeCell ref="C116:C122"/>
+    <mergeCell ref="A132:A134"/>
+    <mergeCell ref="B132:B134"/>
+    <mergeCell ref="C132:C134"/>
+    <mergeCell ref="A138:A140"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="M88:M90"/>
+    <mergeCell ref="N88:N90"/>
+    <mergeCell ref="O88:O90"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="N61:N62"/>
+    <mergeCell ref="O61:O62"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="A84:A86"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="C84:C86"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="M63:M64"/>
+    <mergeCell ref="M61:M62"/>
+    <mergeCell ref="P61:P62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="P63:P64"/>
+    <mergeCell ref="O84:O86"/>
+    <mergeCell ref="P84:P86"/>
+    <mergeCell ref="N63:N64"/>
+    <mergeCell ref="O63:O64"/>
+    <mergeCell ref="M65:M66"/>
+    <mergeCell ref="N65:N66"/>
+    <mergeCell ref="O65:O66"/>
+    <mergeCell ref="P65:P66"/>
+    <mergeCell ref="P67:P68"/>
+    <mergeCell ref="M67:M68"/>
+    <mergeCell ref="M69:M70"/>
+    <mergeCell ref="N69:N70"/>
+    <mergeCell ref="O69:O70"/>
+    <mergeCell ref="P69:P70"/>
+    <mergeCell ref="M84:M86"/>
+    <mergeCell ref="N84:N86"/>
+    <mergeCell ref="N67:N68"/>
+    <mergeCell ref="O67:O68"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="M54:M55"/>
+    <mergeCell ref="N54:N55"/>
+    <mergeCell ref="O54:O55"/>
+    <mergeCell ref="P54:P55"/>
+    <mergeCell ref="M58:M59"/>
+    <mergeCell ref="N58:N59"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="P58:P59"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="M43:M45"/>
+    <mergeCell ref="N43:N45"/>
+    <mergeCell ref="O43:O45"/>
+    <mergeCell ref="P43:P45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="N46:N47"/>
+    <mergeCell ref="O46:O47"/>
+    <mergeCell ref="P46:P47"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="O36:O37"/>
+    <mergeCell ref="P36:P37"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="M39:M41"/>
+    <mergeCell ref="N39:N41"/>
+    <mergeCell ref="O39:O41"/>
+    <mergeCell ref="P39:P41"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="F15:H17"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="P30:P32"/>
+    <mergeCell ref="Q30:Q32"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="F30:H32"/>
+    <mergeCell ref="M30:M32"/>
+    <mergeCell ref="N30:N32"/>
+    <mergeCell ref="O30:O32"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:H20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="E24:H25"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E9:H10"/>
+    <mergeCell ref="N15:N17"/>
+    <mergeCell ref="O15:O17"/>
+    <mergeCell ref="Q15:Q17"/>
+    <mergeCell ref="R15:R17"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="S15:S17"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="M6:M8"/>
+    <mergeCell ref="N6:N8"/>
+    <mergeCell ref="O6:O8"/>
+    <mergeCell ref="P6:P8"/>
+    <mergeCell ref="M15:M17"/>
+    <mergeCell ref="P15:P17"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="P165:P167"/>
+    <mergeCell ref="M166:M167"/>
+    <mergeCell ref="N166:N167"/>
+    <mergeCell ref="O166:O167"/>
+    <mergeCell ref="P21:P23"/>
+    <mergeCell ref="Q21:Q23"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="E21:H23"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="N21:N23"/>
+    <mergeCell ref="O21:O23"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="O34:O35"/>
+    <mergeCell ref="P34:P35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N132:N134"/>
+    <mergeCell ref="O132:O134"/>
+    <mergeCell ref="P132:P134"/>
+    <mergeCell ref="M138:M140"/>
+    <mergeCell ref="N138:N140"/>
+    <mergeCell ref="O138:O140"/>
+    <mergeCell ref="P138:P140"/>
+    <mergeCell ref="M163:M164"/>
+    <mergeCell ref="N163:N164"/>
+    <mergeCell ref="O163:O164"/>
+    <mergeCell ref="P163:P164"/>
+    <mergeCell ref="N147:N148"/>
+    <mergeCell ref="O147:O148"/>
+    <mergeCell ref="P147:P148"/>
+    <mergeCell ref="N150:N151"/>
+    <mergeCell ref="N153:N154"/>
+    <mergeCell ref="O153:O154"/>
+    <mergeCell ref="P153:P154"/>
+    <mergeCell ref="N155:N157"/>
+    <mergeCell ref="O155:O157"/>
+    <mergeCell ref="P155:P157"/>
     <mergeCell ref="P88:P90"/>
     <mergeCell ref="O161:O162"/>
     <mergeCell ref="P161:P162"/>
@@ -18361,245 +18581,26 @@
     <mergeCell ref="N116:N122"/>
     <mergeCell ref="O116:O122"/>
     <mergeCell ref="M132:M134"/>
-    <mergeCell ref="N132:N134"/>
-    <mergeCell ref="O132:O134"/>
-    <mergeCell ref="P132:P134"/>
-    <mergeCell ref="M138:M140"/>
-    <mergeCell ref="N138:N140"/>
-    <mergeCell ref="O138:O140"/>
-    <mergeCell ref="P138:P140"/>
-    <mergeCell ref="M163:M164"/>
-    <mergeCell ref="N163:N164"/>
-    <mergeCell ref="O163:O164"/>
-    <mergeCell ref="P163:P164"/>
-    <mergeCell ref="N147:N148"/>
-    <mergeCell ref="O147:O148"/>
-    <mergeCell ref="P147:P148"/>
-    <mergeCell ref="N150:N151"/>
-    <mergeCell ref="N153:N154"/>
-    <mergeCell ref="O153:O154"/>
-    <mergeCell ref="P153:P154"/>
-    <mergeCell ref="N155:N157"/>
-    <mergeCell ref="O155:O157"/>
-    <mergeCell ref="P155:P157"/>
-    <mergeCell ref="P165:P167"/>
-    <mergeCell ref="M166:M167"/>
-    <mergeCell ref="N166:N167"/>
-    <mergeCell ref="O166:O167"/>
-    <mergeCell ref="P21:P23"/>
-    <mergeCell ref="Q21:Q23"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="E21:H23"/>
-    <mergeCell ref="M21:M23"/>
-    <mergeCell ref="N21:N23"/>
-    <mergeCell ref="O21:O23"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="N34:N35"/>
-    <mergeCell ref="O34:O35"/>
-    <mergeCell ref="P34:P35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="S15:S17"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="M6:M8"/>
-    <mergeCell ref="N6:N8"/>
-    <mergeCell ref="O6:O8"/>
-    <mergeCell ref="P6:P8"/>
-    <mergeCell ref="M15:M17"/>
-    <mergeCell ref="P15:P17"/>
-    <mergeCell ref="E24:H25"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E9:H10"/>
-    <mergeCell ref="N15:N17"/>
-    <mergeCell ref="O15:O17"/>
-    <mergeCell ref="Q15:Q17"/>
-    <mergeCell ref="R15:R17"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="F15:H17"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="P30:P32"/>
-    <mergeCell ref="Q30:Q32"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="F30:H32"/>
-    <mergeCell ref="M30:M32"/>
-    <mergeCell ref="N30:N32"/>
-    <mergeCell ref="O30:O32"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:H20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="O36:O37"/>
-    <mergeCell ref="P36:P37"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="M39:M41"/>
-    <mergeCell ref="N39:N41"/>
-    <mergeCell ref="O39:O41"/>
-    <mergeCell ref="P39:P41"/>
-    <mergeCell ref="M54:M55"/>
-    <mergeCell ref="N54:N55"/>
-    <mergeCell ref="O54:O55"/>
-    <mergeCell ref="P54:P55"/>
-    <mergeCell ref="M58:M59"/>
-    <mergeCell ref="N58:N59"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="P58:P59"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="M43:M45"/>
-    <mergeCell ref="N43:N45"/>
-    <mergeCell ref="O43:O45"/>
-    <mergeCell ref="P43:P45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="M46:M47"/>
-    <mergeCell ref="N46:N47"/>
-    <mergeCell ref="O46:O47"/>
-    <mergeCell ref="P46:P47"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="P61:P62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="P63:P64"/>
-    <mergeCell ref="O84:O86"/>
-    <mergeCell ref="P84:P86"/>
-    <mergeCell ref="N63:N64"/>
-    <mergeCell ref="O63:O64"/>
-    <mergeCell ref="M65:M66"/>
-    <mergeCell ref="N65:N66"/>
-    <mergeCell ref="O65:O66"/>
-    <mergeCell ref="P65:P66"/>
-    <mergeCell ref="P67:P68"/>
-    <mergeCell ref="M67:M68"/>
-    <mergeCell ref="M69:M70"/>
-    <mergeCell ref="N69:N70"/>
-    <mergeCell ref="O69:O70"/>
-    <mergeCell ref="P69:P70"/>
-    <mergeCell ref="M84:M86"/>
-    <mergeCell ref="N84:N86"/>
-    <mergeCell ref="N67:N68"/>
-    <mergeCell ref="O67:O68"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="M88:M90"/>
-    <mergeCell ref="N88:N90"/>
-    <mergeCell ref="O88:O90"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="N61:N62"/>
-    <mergeCell ref="O61:O62"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="A84:A86"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="C84:C86"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="M63:M64"/>
-    <mergeCell ref="M61:M62"/>
-    <mergeCell ref="E87:H87"/>
-    <mergeCell ref="E88:H90"/>
-    <mergeCell ref="E92:H94"/>
-    <mergeCell ref="A88:A90"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="C88:C90"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="A147:A148"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B138:B140"/>
-    <mergeCell ref="C138:C140"/>
-    <mergeCell ref="A116:A122"/>
-    <mergeCell ref="B116:B122"/>
-    <mergeCell ref="C116:C122"/>
-    <mergeCell ref="A132:A134"/>
-    <mergeCell ref="B132:B134"/>
-    <mergeCell ref="C132:C134"/>
-    <mergeCell ref="A138:A140"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="C147:C148"/>
-    <mergeCell ref="Q161:Q162"/>
-    <mergeCell ref="E150:H151"/>
-    <mergeCell ref="E152:H152"/>
-    <mergeCell ref="A153:A154"/>
-    <mergeCell ref="B153:B154"/>
-    <mergeCell ref="C153:C154"/>
-    <mergeCell ref="E153:H154"/>
-    <mergeCell ref="A155:A157"/>
-    <mergeCell ref="M143:M144"/>
-    <mergeCell ref="M147:M148"/>
-    <mergeCell ref="M150:M151"/>
-    <mergeCell ref="M153:M154"/>
-    <mergeCell ref="N143:N144"/>
-    <mergeCell ref="O143:O144"/>
-    <mergeCell ref="P143:P144"/>
-    <mergeCell ref="O150:O151"/>
-    <mergeCell ref="P150:P151"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="C143:C144"/>
-    <mergeCell ref="H147:H148"/>
-    <mergeCell ref="A150:A151"/>
-    <mergeCell ref="B150:B151"/>
-    <mergeCell ref="C150:C151"/>
+    <mergeCell ref="E163:H164"/>
+    <mergeCell ref="D165:D167"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="C166:C167"/>
+    <mergeCell ref="F166:H167"/>
+    <mergeCell ref="A161:A162"/>
+    <mergeCell ref="A163:A164"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="C163:C164"/>
+    <mergeCell ref="B155:B157"/>
+    <mergeCell ref="C155:C157"/>
+    <mergeCell ref="A158:A160"/>
+    <mergeCell ref="B158:B160"/>
+    <mergeCell ref="C158:C160"/>
+    <mergeCell ref="B161:B162"/>
+    <mergeCell ref="C161:C162"/>
+    <mergeCell ref="E155:H157"/>
+    <mergeCell ref="E158:H160"/>
+    <mergeCell ref="E161:H162"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <conditionalFormatting sqref="E4:I4 P4:AL4">
@@ -18683,15 +18684,15 @@
       <c r="A3" s="215" t="s">
         <v>980</v>
       </c>
-      <c r="B3" s="177"/>
-      <c r="C3" s="177"/>
-      <c r="D3" s="177"/>
-      <c r="E3" s="178"/>
+      <c r="B3" s="198"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="198"/>
+      <c r="E3" s="208"/>
       <c r="F3" s="216" t="s">
         <v>719</v>
       </c>
-      <c r="G3" s="177"/>
-      <c r="H3" s="178"/>
+      <c r="G3" s="198"/>
+      <c r="H3" s="208"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="11" t="s">
@@ -18715,7 +18716,7 @@
       <c r="G4" s="216" t="s">
         <v>984</v>
       </c>
-      <c r="H4" s="178"/>
+      <c r="H4" s="208"/>
     </row>
     <row r="5" spans="1:8" ht="28.5" x14ac:dyDescent="0.4">
       <c r="A5" s="15" t="s">
@@ -18766,7 +18767,7 @@
         <v>997</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -18832,7 +18833,7 @@
         <v>1012</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>1013</v>
@@ -18936,7 +18937,7 @@
         <v>1025</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>1026</v>
@@ -19118,7 +19119,7 @@
         <v>1321</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>1056</v>
@@ -19144,7 +19145,7 @@
         <v>1061</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="E21" s="20" t="s">
         <v>1062</v>
@@ -19222,7 +19223,7 @@
         <v>1073</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>1074</v>
@@ -19248,7 +19249,7 @@
         <v>1079</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="E25" s="20" t="s">
         <v>1080</v>
@@ -19274,7 +19275,7 @@
         <v>1082</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="E26" s="20" t="s">
         <v>1083</v>
@@ -19326,7 +19327,7 @@
         <v>1088</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>1089</v>
@@ -19352,7 +19353,7 @@
         <v>1091</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="E29" s="20" t="s">
         <v>1092</v>
@@ -19378,7 +19379,7 @@
         <v>1094</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="E30" s="20" t="s">
         <v>1095</v>
@@ -19404,7 +19405,7 @@
         <v>1097</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="E31" s="20" t="s">
         <v>1098</v>
@@ -19430,7 +19431,7 @@
         <v>1100</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="E32" s="20" t="s">
         <v>1101</v>
@@ -19456,7 +19457,7 @@
         <v>1103</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="E33" s="20" t="s">
         <v>1104</v>
@@ -19482,7 +19483,7 @@
         <v>1106</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="E34" s="20" t="s">
         <v>1107</v>
@@ -19508,7 +19509,7 @@
         <v>1109</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="E35" s="20" t="s">
         <v>1110</v>
@@ -19534,7 +19535,7 @@
         <v>1112</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="E36" s="20" t="s">
         <v>1113</v>
@@ -19560,7 +19561,7 @@
         <v>1115</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="E37" s="20" t="s">
         <v>1116</v>
@@ -19716,7 +19717,7 @@
         <v>1141</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="E43" s="20" t="s">
         <v>1142</v>
@@ -19768,7 +19769,7 @@
         <v>1148</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E45" s="20" t="s">
         <v>1149</v>
@@ -19794,7 +19795,7 @@
         <v>1151</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="E46" s="20" t="s">
         <v>1152</v>
@@ -19820,7 +19821,7 @@
         <v>1154</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E47" s="20" t="s">
         <v>1155</v>
@@ -19846,7 +19847,7 @@
         <v>1157</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="E48" s="20" t="s">
         <v>1158</v>
@@ -19872,7 +19873,7 @@
         <v>1160</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="E49" s="20" t="s">
         <v>1161</v>
@@ -19898,7 +19899,7 @@
         <v>1163</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="E50" s="20" t="s">
         <v>1164</v>
@@ -20210,7 +20211,7 @@
         <v>1220</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="E62" s="20" t="s">
         <v>1221</v>
@@ -20236,7 +20237,7 @@
         <v>1223</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="E63" s="20" t="s">
         <v>1224</v>
@@ -20262,7 +20263,7 @@
         <v>1226</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="E64" s="20" t="s">
         <v>1227</v>
@@ -20314,7 +20315,7 @@
         <v>1233</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="E66" s="20" t="s">
         <v>1234</v>
@@ -20418,7 +20419,7 @@
         <v>1250</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="E70" s="20" t="s">
         <v>1251</v>
@@ -20470,7 +20471,7 @@
         <v>1257</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="E72" s="20" t="s">
         <v>1258</v>
@@ -20522,7 +20523,7 @@
         <v>1264</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="E74" s="20" t="s">
         <v>1265</v>
@@ -20574,7 +20575,7 @@
         <v>1271</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="E76" s="20" t="s">
         <v>1272</v>
@@ -29920,7 +29921,7 @@
   <customSheetViews>
     <customSheetView guid="{73AED8E5-535A-4171-A115-780180FABBDA}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A3:Z4" xr:uid="{82978726-D63B-4FD9-AC37-976BCA27D161}"/>
+      <autoFilter ref="A3:Z4" xr:uid="{0B4C1DF7-6759-4A7D-9C99-CF911A20A363}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="3">
@@ -30085,17 +30086,17 @@
       <c r="A2" s="224">
         <v>3.1</v>
       </c>
-      <c r="B2" s="180" t="s">
+      <c r="B2" s="178" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="172" t="s">
+      <c r="C2" s="173" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="172" t="s">
+      <c r="D2" s="173" t="s">
         <v>32</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="F2" s="26"/>
       <c r="G2" s="26" t="s">
@@ -30122,10 +30123,10 @@
       <c r="Z2" s="32"/>
     </row>
     <row r="3" spans="1:26" ht="28.5" x14ac:dyDescent="0.4">
-      <c r="A3" s="217"/>
-      <c r="B3" s="222"/>
-      <c r="C3" s="217"/>
-      <c r="D3" s="217"/>
+      <c r="A3" s="220"/>
+      <c r="B3" s="217"/>
+      <c r="C3" s="220"/>
+      <c r="D3" s="220"/>
       <c r="E3" s="26" t="s">
         <v>1323</v>
       </c>
@@ -30156,10 +30157,10 @@
       <c r="Z3" s="32"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A4" s="217"/>
-      <c r="B4" s="222"/>
-      <c r="C4" s="217"/>
-      <c r="D4" s="217"/>
+      <c r="A4" s="220"/>
+      <c r="B4" s="217"/>
+      <c r="C4" s="220"/>
+      <c r="D4" s="220"/>
       <c r="E4" s="26" t="s">
         <v>334</v>
       </c>
@@ -30190,10 +30191,10 @@
       <c r="Z4" s="32"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A5" s="217"/>
-      <c r="B5" s="222"/>
-      <c r="C5" s="217"/>
-      <c r="D5" s="217"/>
+      <c r="A5" s="220"/>
+      <c r="B5" s="217"/>
+      <c r="C5" s="220"/>
+      <c r="D5" s="220"/>
       <c r="E5" s="26" t="s">
         <v>336</v>
       </c>
@@ -30224,10 +30225,10 @@
       <c r="Z5" s="32"/>
     </row>
     <row r="6" spans="1:26" ht="28.5" x14ac:dyDescent="0.4">
-      <c r="A6" s="217"/>
-      <c r="B6" s="222"/>
-      <c r="C6" s="217"/>
-      <c r="D6" s="217"/>
+      <c r="A6" s="220"/>
+      <c r="B6" s="217"/>
+      <c r="C6" s="220"/>
+      <c r="D6" s="220"/>
       <c r="E6" s="26" t="s">
         <v>339</v>
       </c>
@@ -30258,10 +30259,10 @@
       <c r="Z6" s="32"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A7" s="217"/>
-      <c r="B7" s="222"/>
-      <c r="C7" s="217"/>
-      <c r="D7" s="217"/>
+      <c r="A7" s="220"/>
+      <c r="B7" s="217"/>
+      <c r="C7" s="220"/>
+      <c r="D7" s="220"/>
       <c r="E7" s="26" t="s">
         <v>342</v>
       </c>
@@ -30290,10 +30291,10 @@
       <c r="Z7" s="32"/>
     </row>
     <row r="8" spans="1:26" ht="28.5" x14ac:dyDescent="0.4">
-      <c r="A8" s="217"/>
-      <c r="B8" s="222"/>
-      <c r="C8" s="217"/>
-      <c r="D8" s="217"/>
+      <c r="A8" s="220"/>
+      <c r="B8" s="217"/>
+      <c r="C8" s="220"/>
+      <c r="D8" s="220"/>
       <c r="E8" s="26" t="s">
         <v>603</v>
       </c>
@@ -30322,10 +30323,10 @@
       <c r="Z8" s="32"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A9" s="217"/>
-      <c r="B9" s="222"/>
-      <c r="C9" s="217"/>
-      <c r="D9" s="217"/>
+      <c r="A9" s="220"/>
+      <c r="B9" s="217"/>
+      <c r="C9" s="220"/>
+      <c r="D9" s="220"/>
       <c r="E9" s="26" t="s">
         <v>344</v>
       </c>
@@ -30354,10 +30355,10 @@
       <c r="Z9" s="32"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A10" s="217"/>
-      <c r="B10" s="222"/>
-      <c r="C10" s="217"/>
-      <c r="D10" s="217"/>
+      <c r="A10" s="220"/>
+      <c r="B10" s="217"/>
+      <c r="C10" s="220"/>
+      <c r="D10" s="220"/>
       <c r="E10" s="26" t="s">
         <v>356</v>
       </c>
@@ -30386,10 +30387,10 @@
       <c r="Z10" s="32"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A11" s="217"/>
-      <c r="B11" s="222"/>
-      <c r="C11" s="217"/>
-      <c r="D11" s="217"/>
+      <c r="A11" s="220"/>
+      <c r="B11" s="217"/>
+      <c r="C11" s="220"/>
+      <c r="D11" s="220"/>
       <c r="E11" s="26" t="s">
         <v>347</v>
       </c>
@@ -30421,13 +30422,13 @@
       <c r="A12" s="224" t="s">
         <v>349</v>
       </c>
-      <c r="B12" s="209" t="s">
+      <c r="B12" s="188" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="172" t="s">
+      <c r="C12" s="173" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="172" t="s">
+      <c r="D12" s="173" t="s">
         <v>39</v>
       </c>
       <c r="E12" s="26" t="s">
@@ -30455,10 +30456,10 @@
       <c r="W12" s="32"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A13" s="217"/>
-      <c r="B13" s="226"/>
-      <c r="C13" s="217"/>
-      <c r="D13" s="217"/>
+      <c r="A13" s="220"/>
+      <c r="B13" s="218"/>
+      <c r="C13" s="220"/>
+      <c r="D13" s="220"/>
       <c r="E13" s="26" t="s">
         <v>352</v>
       </c>
@@ -30487,13 +30488,13 @@
       <c r="A14" s="224" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="180" t="s">
+      <c r="B14" s="178" t="s">
         <v>354</v>
       </c>
-      <c r="C14" s="172" t="s">
+      <c r="C14" s="173" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="172" t="s">
+      <c r="D14" s="173" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="26" t="s">
@@ -30521,10 +30522,10 @@
       <c r="W14" s="32"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A15" s="217"/>
-      <c r="B15" s="222"/>
-      <c r="C15" s="217"/>
-      <c r="D15" s="217"/>
+      <c r="A15" s="220"/>
+      <c r="B15" s="217"/>
+      <c r="C15" s="220"/>
+      <c r="D15" s="220"/>
       <c r="E15" s="26" t="s">
         <v>336</v>
       </c>
@@ -30554,10 +30555,10 @@
       <c r="Y15" s="32"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A16" s="217"/>
-      <c r="B16" s="222"/>
-      <c r="C16" s="217"/>
-      <c r="D16" s="217"/>
+      <c r="A16" s="220"/>
+      <c r="B16" s="217"/>
+      <c r="C16" s="220"/>
+      <c r="D16" s="220"/>
       <c r="E16" s="26" t="s">
         <v>344</v>
       </c>
@@ -30586,10 +30587,10 @@
       <c r="Z16" s="32"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A17" s="217"/>
-      <c r="B17" s="222"/>
-      <c r="C17" s="217"/>
-      <c r="D17" s="217"/>
+      <c r="A17" s="220"/>
+      <c r="B17" s="217"/>
+      <c r="C17" s="220"/>
+      <c r="D17" s="220"/>
       <c r="E17" s="26" t="s">
         <v>356</v>
       </c>
@@ -30620,10 +30621,10 @@
       <c r="Z17" s="32"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A18" s="217"/>
-      <c r="B18" s="222"/>
-      <c r="C18" s="217"/>
-      <c r="D18" s="217"/>
+      <c r="A18" s="220"/>
+      <c r="B18" s="217"/>
+      <c r="C18" s="220"/>
+      <c r="D18" s="220"/>
       <c r="E18" s="141" t="s">
         <v>359</v>
       </c>
@@ -30654,13 +30655,13 @@
       <c r="A19" s="224" t="s">
         <v>360</v>
       </c>
-      <c r="B19" s="180" t="s">
+      <c r="B19" s="178" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="172" t="s">
+      <c r="C19" s="173" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="172" t="s">
+      <c r="D19" s="173" t="s">
         <v>64</v>
       </c>
       <c r="E19" s="26" t="s">
@@ -30690,10 +30691,10 @@
       <c r="Z19" s="32"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A20" s="217"/>
-      <c r="B20" s="222"/>
-      <c r="C20" s="217"/>
-      <c r="D20" s="217"/>
+      <c r="A20" s="220"/>
+      <c r="B20" s="217"/>
+      <c r="C20" s="220"/>
+      <c r="D20" s="220"/>
       <c r="E20" s="26" t="s">
         <v>363</v>
       </c>
@@ -30721,10 +30722,10 @@
       <c r="Z20" s="32"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A21" s="217"/>
-      <c r="B21" s="222"/>
-      <c r="C21" s="217"/>
-      <c r="D21" s="217"/>
+      <c r="A21" s="220"/>
+      <c r="B21" s="217"/>
+      <c r="C21" s="220"/>
+      <c r="D21" s="220"/>
       <c r="E21" s="26" t="s">
         <v>365</v>
       </c>
@@ -30752,10 +30753,10 @@
       <c r="Z21" s="32"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A22" s="217"/>
-      <c r="B22" s="222"/>
-      <c r="C22" s="217"/>
-      <c r="D22" s="217"/>
+      <c r="A22" s="220"/>
+      <c r="B22" s="217"/>
+      <c r="C22" s="220"/>
+      <c r="D22" s="220"/>
       <c r="E22" s="26" t="s">
         <v>367</v>
       </c>
@@ -30783,10 +30784,10 @@
       <c r="Z22" s="32"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A23" s="217"/>
-      <c r="B23" s="222"/>
-      <c r="C23" s="217"/>
-      <c r="D23" s="217"/>
+      <c r="A23" s="220"/>
+      <c r="B23" s="217"/>
+      <c r="C23" s="220"/>
+      <c r="D23" s="220"/>
       <c r="E23" s="26" t="s">
         <v>369</v>
       </c>
@@ -30814,10 +30815,10 @@
       <c r="Z23" s="32"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A24" s="217"/>
-      <c r="B24" s="222"/>
-      <c r="C24" s="217"/>
-      <c r="D24" s="217"/>
+      <c r="A24" s="220"/>
+      <c r="B24" s="217"/>
+      <c r="C24" s="220"/>
+      <c r="D24" s="220"/>
       <c r="E24" s="26" t="s">
         <v>371</v>
       </c>
@@ -30845,10 +30846,10 @@
       <c r="Z24" s="32"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A25" s="217"/>
-      <c r="B25" s="222"/>
-      <c r="C25" s="217"/>
-      <c r="D25" s="217"/>
+      <c r="A25" s="220"/>
+      <c r="B25" s="217"/>
+      <c r="C25" s="220"/>
+      <c r="D25" s="220"/>
       <c r="E25" s="26" t="s">
         <v>274</v>
       </c>
@@ -30876,10 +30877,10 @@
       <c r="Z25" s="32"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A26" s="217"/>
-      <c r="B26" s="222"/>
-      <c r="C26" s="217"/>
-      <c r="D26" s="217"/>
+      <c r="A26" s="220"/>
+      <c r="B26" s="217"/>
+      <c r="C26" s="220"/>
+      <c r="D26" s="220"/>
       <c r="E26" s="26" t="s">
         <v>373</v>
       </c>
@@ -30907,10 +30908,10 @@
       <c r="Z26" s="32"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A27" s="217"/>
-      <c r="B27" s="222"/>
-      <c r="C27" s="217"/>
-      <c r="D27" s="217"/>
+      <c r="A27" s="220"/>
+      <c r="B27" s="217"/>
+      <c r="C27" s="220"/>
+      <c r="D27" s="220"/>
       <c r="E27" s="26" t="s">
         <v>375</v>
       </c>
@@ -30938,10 +30939,10 @@
       <c r="Z27" s="32"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A28" s="217"/>
-      <c r="B28" s="222"/>
-      <c r="C28" s="217"/>
-      <c r="D28" s="217"/>
+      <c r="A28" s="220"/>
+      <c r="B28" s="217"/>
+      <c r="C28" s="220"/>
+      <c r="D28" s="220"/>
       <c r="E28" s="26" t="s">
         <v>377</v>
       </c>
@@ -30969,10 +30970,10 @@
       <c r="Z28" s="32"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A29" s="217"/>
-      <c r="B29" s="222"/>
-      <c r="C29" s="217"/>
-      <c r="D29" s="217"/>
+      <c r="A29" s="220"/>
+      <c r="B29" s="217"/>
+      <c r="C29" s="220"/>
+      <c r="D29" s="220"/>
       <c r="E29" s="26" t="s">
         <v>379</v>
       </c>
@@ -31000,10 +31001,10 @@
       <c r="Z29" s="32"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A30" s="217"/>
-      <c r="B30" s="222"/>
-      <c r="C30" s="217"/>
-      <c r="D30" s="217"/>
+      <c r="A30" s="220"/>
+      <c r="B30" s="217"/>
+      <c r="C30" s="220"/>
+      <c r="D30" s="220"/>
       <c r="E30" s="26" t="s">
         <v>381</v>
       </c>
@@ -31031,10 +31032,10 @@
       <c r="Z30" s="32"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A31" s="217"/>
-      <c r="B31" s="222"/>
-      <c r="C31" s="217"/>
-      <c r="D31" s="217"/>
+      <c r="A31" s="220"/>
+      <c r="B31" s="217"/>
+      <c r="C31" s="220"/>
+      <c r="D31" s="220"/>
       <c r="E31" s="26" t="s">
         <v>383</v>
       </c>
@@ -31062,10 +31063,10 @@
       <c r="Z31" s="32"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A32" s="217"/>
-      <c r="B32" s="222"/>
-      <c r="C32" s="217"/>
-      <c r="D32" s="217"/>
+      <c r="A32" s="220"/>
+      <c r="B32" s="217"/>
+      <c r="C32" s="220"/>
+      <c r="D32" s="220"/>
       <c r="E32" s="26" t="s">
         <v>385</v>
       </c>
@@ -31093,10 +31094,10 @@
       <c r="Z32" s="32"/>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A33" s="217"/>
-      <c r="B33" s="222"/>
-      <c r="C33" s="217"/>
-      <c r="D33" s="217"/>
+      <c r="A33" s="220"/>
+      <c r="B33" s="217"/>
+      <c r="C33" s="220"/>
+      <c r="D33" s="220"/>
       <c r="E33" s="26" t="s">
         <v>387</v>
       </c>
@@ -31124,10 +31125,10 @@
       <c r="Z33" s="32"/>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A34" s="217"/>
-      <c r="B34" s="222"/>
-      <c r="C34" s="217"/>
-      <c r="D34" s="217"/>
+      <c r="A34" s="220"/>
+      <c r="B34" s="217"/>
+      <c r="C34" s="220"/>
+      <c r="D34" s="220"/>
       <c r="E34" s="26" t="s">
         <v>389</v>
       </c>
@@ -31156,10 +31157,10 @@
       <c r="Z34" s="32"/>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A35" s="217"/>
-      <c r="B35" s="222"/>
-      <c r="C35" s="217"/>
-      <c r="D35" s="217"/>
+      <c r="A35" s="220"/>
+      <c r="B35" s="217"/>
+      <c r="C35" s="220"/>
+      <c r="D35" s="220"/>
       <c r="E35" s="26" t="s">
         <v>391</v>
       </c>
@@ -31188,10 +31189,10 @@
       <c r="Z35" s="32"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A36" s="218"/>
-      <c r="B36" s="223"/>
-      <c r="C36" s="218"/>
-      <c r="D36" s="218"/>
+      <c r="A36" s="221"/>
+      <c r="B36" s="219"/>
+      <c r="C36" s="221"/>
+      <c r="D36" s="221"/>
       <c r="E36" s="26" t="s">
         <v>393</v>
       </c>
@@ -31220,16 +31221,16 @@
       <c r="Z36" s="32"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A37" s="172">
+      <c r="A37" s="173">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B37" s="180" t="s">
+      <c r="B37" s="178" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="172" t="s">
+      <c r="C37" s="173" t="s">
         <v>31</v>
       </c>
-      <c r="D37" s="172" t="s">
+      <c r="D37" s="173" t="s">
         <v>32</v>
       </c>
       <c r="E37" s="26" t="s">
@@ -31260,10 +31261,10 @@
       <c r="Z37" s="32"/>
     </row>
     <row r="38" spans="1:26" ht="28.5" x14ac:dyDescent="0.4">
-      <c r="A38" s="217"/>
-      <c r="B38" s="222"/>
-      <c r="C38" s="217"/>
-      <c r="D38" s="217"/>
+      <c r="A38" s="220"/>
+      <c r="B38" s="217"/>
+      <c r="C38" s="220"/>
+      <c r="D38" s="220"/>
       <c r="E38" s="26" t="s">
         <v>1323</v>
       </c>
@@ -31292,10 +31293,10 @@
       <c r="Z38" s="32"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A39" s="217"/>
-      <c r="B39" s="222"/>
-      <c r="C39" s="217"/>
-      <c r="D39" s="217"/>
+      <c r="A39" s="220"/>
+      <c r="B39" s="217"/>
+      <c r="C39" s="220"/>
+      <c r="D39" s="220"/>
       <c r="E39" s="26" t="s">
         <v>334</v>
       </c>
@@ -31324,10 +31325,10 @@
       <c r="Z39" s="32"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A40" s="217"/>
-      <c r="B40" s="222"/>
-      <c r="C40" s="217"/>
-      <c r="D40" s="217"/>
+      <c r="A40" s="220"/>
+      <c r="B40" s="217"/>
+      <c r="C40" s="220"/>
+      <c r="D40" s="220"/>
       <c r="E40" s="26" t="s">
         <v>336</v>
       </c>
@@ -31356,10 +31357,10 @@
       <c r="Z40" s="32"/>
     </row>
     <row r="41" spans="1:26" ht="28.5" x14ac:dyDescent="0.4">
-      <c r="A41" s="217"/>
-      <c r="B41" s="222"/>
-      <c r="C41" s="217"/>
-      <c r="D41" s="217"/>
+      <c r="A41" s="220"/>
+      <c r="B41" s="217"/>
+      <c r="C41" s="220"/>
+      <c r="D41" s="220"/>
       <c r="E41" s="26" t="s">
         <v>339</v>
       </c>
@@ -31388,10 +31389,10 @@
       <c r="Z41" s="32"/>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A42" s="217"/>
-      <c r="B42" s="222"/>
-      <c r="C42" s="217"/>
-      <c r="D42" s="217"/>
+      <c r="A42" s="220"/>
+      <c r="B42" s="217"/>
+      <c r="C42" s="220"/>
+      <c r="D42" s="220"/>
       <c r="E42" s="26" t="s">
         <v>342</v>
       </c>
@@ -31420,10 +31421,10 @@
       <c r="Z42" s="32"/>
     </row>
     <row r="43" spans="1:26" ht="28.5" x14ac:dyDescent="0.4">
-      <c r="A43" s="217"/>
-      <c r="B43" s="222"/>
-      <c r="C43" s="217"/>
-      <c r="D43" s="217"/>
+      <c r="A43" s="220"/>
+      <c r="B43" s="217"/>
+      <c r="C43" s="220"/>
+      <c r="D43" s="220"/>
       <c r="E43" s="26" t="s">
         <v>603</v>
       </c>
@@ -31452,10 +31453,10 @@
       <c r="Z43" s="32"/>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A44" s="217"/>
-      <c r="B44" s="222"/>
-      <c r="C44" s="217"/>
-      <c r="D44" s="217"/>
+      <c r="A44" s="220"/>
+      <c r="B44" s="217"/>
+      <c r="C44" s="220"/>
+      <c r="D44" s="220"/>
       <c r="E44" s="26" t="s">
         <v>344</v>
       </c>
@@ -31484,10 +31485,10 @@
       <c r="Z44" s="32"/>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A45" s="217"/>
-      <c r="B45" s="222"/>
-      <c r="C45" s="217"/>
-      <c r="D45" s="217"/>
+      <c r="A45" s="220"/>
+      <c r="B45" s="217"/>
+      <c r="C45" s="220"/>
+      <c r="D45" s="220"/>
       <c r="E45" s="26" t="s">
         <v>356</v>
       </c>
@@ -31516,10 +31517,10 @@
       <c r="Z45" s="32"/>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A46" s="218"/>
-      <c r="B46" s="223"/>
-      <c r="C46" s="218"/>
-      <c r="D46" s="218"/>
+      <c r="A46" s="221"/>
+      <c r="B46" s="219"/>
+      <c r="C46" s="221"/>
+      <c r="D46" s="221"/>
       <c r="E46" s="26" t="s">
         <v>347</v>
       </c>
@@ -31551,13 +31552,13 @@
       <c r="A47" s="224" t="s">
         <v>395</v>
       </c>
-      <c r="B47" s="180" t="s">
+      <c r="B47" s="178" t="s">
         <v>69</v>
       </c>
-      <c r="C47" s="172" t="s">
+      <c r="C47" s="173" t="s">
         <v>396</v>
       </c>
-      <c r="D47" s="172" t="s">
+      <c r="D47" s="173" t="s">
         <v>39</v>
       </c>
       <c r="E47" s="26" t="s">
@@ -31588,10 +31589,10 @@
       <c r="Z47" s="32"/>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A48" s="218"/>
-      <c r="B48" s="223"/>
-      <c r="C48" s="218"/>
-      <c r="D48" s="218"/>
+      <c r="A48" s="221"/>
+      <c r="B48" s="219"/>
+      <c r="C48" s="221"/>
+      <c r="D48" s="221"/>
       <c r="E48" s="26" t="s">
         <v>398</v>
       </c>
@@ -31661,13 +31662,13 @@
       <c r="A50" s="224" t="s">
         <v>402</v>
       </c>
-      <c r="B50" s="180" t="s">
+      <c r="B50" s="178" t="s">
         <v>311</v>
       </c>
-      <c r="C50" s="172" t="s">
+      <c r="C50" s="173" t="s">
         <v>312</v>
       </c>
-      <c r="D50" s="172" t="s">
+      <c r="D50" s="173" t="s">
         <v>303</v>
       </c>
       <c r="E50" s="26" t="s">
@@ -31700,10 +31701,10 @@
       <c r="Z50" s="32"/>
     </row>
     <row r="51" spans="1:26" ht="72" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="217"/>
-      <c r="B51" s="222"/>
-      <c r="C51" s="217"/>
-      <c r="D51" s="217"/>
+      <c r="A51" s="220"/>
+      <c r="B51" s="217"/>
+      <c r="C51" s="220"/>
+      <c r="D51" s="220"/>
       <c r="E51" s="26" t="s">
         <v>406</v>
       </c>
@@ -31734,10 +31735,10 @@
       <c r="Z51" s="32"/>
     </row>
     <row r="52" spans="1:26" ht="65.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="217"/>
-      <c r="B52" s="222"/>
-      <c r="C52" s="217"/>
-      <c r="D52" s="217"/>
+      <c r="A52" s="220"/>
+      <c r="B52" s="217"/>
+      <c r="C52" s="220"/>
+      <c r="D52" s="220"/>
       <c r="E52" s="26" t="s">
         <v>409</v>
       </c>
@@ -31768,10 +31769,10 @@
       <c r="Z52" s="32"/>
     </row>
     <row r="53" spans="1:26" ht="114" x14ac:dyDescent="0.4">
-      <c r="A53" s="218"/>
-      <c r="B53" s="223"/>
-      <c r="C53" s="218"/>
-      <c r="D53" s="218"/>
+      <c r="A53" s="221"/>
+      <c r="B53" s="219"/>
+      <c r="C53" s="221"/>
+      <c r="D53" s="221"/>
       <c r="E53" s="26" t="s">
         <v>412</v>
       </c>
@@ -31842,13 +31843,13 @@
       <c r="A55" s="225" t="s">
         <v>418</v>
       </c>
-      <c r="B55" s="185" t="s">
+      <c r="B55" s="194" t="s">
         <v>83</v>
       </c>
-      <c r="C55" s="183" t="s">
+      <c r="C55" s="176" t="s">
         <v>84</v>
       </c>
-      <c r="D55" s="183" t="s">
+      <c r="D55" s="176" t="s">
         <v>85</v>
       </c>
       <c r="E55" s="26" t="s">
@@ -31879,10 +31880,10 @@
       <c r="Z55" s="32"/>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A56" s="217"/>
-      <c r="B56" s="222"/>
-      <c r="C56" s="217"/>
-      <c r="D56" s="217"/>
+      <c r="A56" s="220"/>
+      <c r="B56" s="217"/>
+      <c r="C56" s="220"/>
+      <c r="D56" s="220"/>
       <c r="E56" s="26" t="s">
         <v>421</v>
       </c>
@@ -31911,10 +31912,10 @@
       <c r="Z56" s="32"/>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A57" s="217"/>
-      <c r="B57" s="222"/>
-      <c r="C57" s="217"/>
-      <c r="D57" s="217"/>
+      <c r="A57" s="220"/>
+      <c r="B57" s="217"/>
+      <c r="C57" s="220"/>
+      <c r="D57" s="220"/>
       <c r="E57" s="77" t="s">
         <v>423</v>
       </c>
@@ -31941,10 +31942,10 @@
       <c r="Z57" s="32"/>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A58" s="217"/>
-      <c r="B58" s="222"/>
-      <c r="C58" s="217"/>
-      <c r="D58" s="217"/>
+      <c r="A58" s="220"/>
+      <c r="B58" s="217"/>
+      <c r="C58" s="220"/>
+      <c r="D58" s="220"/>
       <c r="E58" s="26" t="s">
         <v>424</v>
       </c>
@@ -31971,10 +31972,10 @@
       <c r="Z58" s="32"/>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A59" s="217"/>
-      <c r="B59" s="222"/>
-      <c r="C59" s="217"/>
-      <c r="D59" s="217"/>
+      <c r="A59" s="220"/>
+      <c r="B59" s="217"/>
+      <c r="C59" s="220"/>
+      <c r="D59" s="220"/>
       <c r="E59" s="77" t="s">
         <v>425</v>
       </c>
@@ -32003,10 +32004,10 @@
       <c r="Z59" s="32"/>
     </row>
     <row r="60" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="217"/>
-      <c r="B60" s="222"/>
-      <c r="C60" s="217"/>
-      <c r="D60" s="217"/>
+      <c r="A60" s="220"/>
+      <c r="B60" s="217"/>
+      <c r="C60" s="220"/>
+      <c r="D60" s="220"/>
       <c r="E60" s="77" t="s">
         <v>427</v>
       </c>
@@ -32035,10 +32036,10 @@
       <c r="Z60" s="32"/>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A61" s="217"/>
-      <c r="B61" s="222"/>
-      <c r="C61" s="217"/>
-      <c r="D61" s="217"/>
+      <c r="A61" s="220"/>
+      <c r="B61" s="217"/>
+      <c r="C61" s="220"/>
+      <c r="D61" s="220"/>
       <c r="E61" s="77" t="s">
         <v>429</v>
       </c>
@@ -32067,10 +32068,10 @@
       <c r="Z61" s="32"/>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A62" s="217"/>
-      <c r="B62" s="222"/>
-      <c r="C62" s="217"/>
-      <c r="D62" s="217"/>
+      <c r="A62" s="220"/>
+      <c r="B62" s="217"/>
+      <c r="C62" s="220"/>
+      <c r="D62" s="220"/>
       <c r="E62" s="77" t="s">
         <v>431</v>
       </c>
@@ -32099,10 +32100,10 @@
       <c r="Z62" s="32"/>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A63" s="217"/>
-      <c r="B63" s="222"/>
-      <c r="C63" s="217"/>
-      <c r="D63" s="217"/>
+      <c r="A63" s="220"/>
+      <c r="B63" s="217"/>
+      <c r="C63" s="220"/>
+      <c r="D63" s="220"/>
       <c r="E63" s="77" t="s">
         <v>433</v>
       </c>
@@ -32131,10 +32132,10 @@
       <c r="Z63" s="32"/>
     </row>
     <row r="64" spans="1:26" ht="28.5" x14ac:dyDescent="0.4">
-      <c r="A64" s="217"/>
-      <c r="B64" s="222"/>
-      <c r="C64" s="217"/>
-      <c r="D64" s="217"/>
+      <c r="A64" s="220"/>
+      <c r="B64" s="217"/>
+      <c r="C64" s="220"/>
+      <c r="D64" s="220"/>
       <c r="E64" s="26" t="s">
         <v>435</v>
       </c>
@@ -32163,10 +32164,10 @@
       <c r="Z64" s="32"/>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A65" s="217"/>
-      <c r="B65" s="222"/>
-      <c r="C65" s="217"/>
-      <c r="D65" s="217"/>
+      <c r="A65" s="220"/>
+      <c r="B65" s="217"/>
+      <c r="C65" s="220"/>
+      <c r="D65" s="220"/>
       <c r="E65" s="26" t="s">
         <v>437</v>
       </c>
@@ -32195,10 +32196,10 @@
       <c r="Z65" s="32"/>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A66" s="217"/>
-      <c r="B66" s="222"/>
-      <c r="C66" s="217"/>
-      <c r="D66" s="217"/>
+      <c r="A66" s="220"/>
+      <c r="B66" s="217"/>
+      <c r="C66" s="220"/>
+      <c r="D66" s="220"/>
       <c r="E66" s="77" t="s">
         <v>439</v>
       </c>
@@ -32227,10 +32228,10 @@
       <c r="Z66" s="32"/>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A67" s="218"/>
-      <c r="B67" s="223"/>
-      <c r="C67" s="218"/>
-      <c r="D67" s="218"/>
+      <c r="A67" s="221"/>
+      <c r="B67" s="219"/>
+      <c r="C67" s="221"/>
+      <c r="D67" s="221"/>
       <c r="E67" s="77" t="s">
         <v>393</v>
       </c>
@@ -32262,13 +32263,13 @@
       <c r="A68" s="224" t="s">
         <v>441</v>
       </c>
-      <c r="B68" s="180" t="s">
+      <c r="B68" s="178" t="s">
         <v>286</v>
       </c>
-      <c r="C68" s="172" t="s">
+      <c r="C68" s="173" t="s">
         <v>287</v>
       </c>
-      <c r="D68" s="172" t="s">
+      <c r="D68" s="173" t="s">
         <v>291</v>
       </c>
       <c r="E68" s="26" t="s">
@@ -32299,10 +32300,10 @@
       <c r="Z68" s="32"/>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A69" s="217"/>
-      <c r="B69" s="222"/>
-      <c r="C69" s="217"/>
-      <c r="D69" s="217"/>
+      <c r="A69" s="220"/>
+      <c r="B69" s="217"/>
+      <c r="C69" s="220"/>
+      <c r="D69" s="220"/>
       <c r="E69" s="26" t="s">
         <v>444</v>
       </c>
@@ -32331,10 +32332,10 @@
       <c r="Z69" s="32"/>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A70" s="217"/>
-      <c r="B70" s="222"/>
-      <c r="C70" s="217"/>
-      <c r="D70" s="217"/>
+      <c r="A70" s="220"/>
+      <c r="B70" s="217"/>
+      <c r="C70" s="220"/>
+      <c r="D70" s="220"/>
       <c r="E70" s="26" t="s">
         <v>446</v>
       </c>
@@ -32363,10 +32364,10 @@
       <c r="Z70" s="32"/>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A71" s="217"/>
-      <c r="B71" s="222"/>
-      <c r="C71" s="217"/>
-      <c r="D71" s="217"/>
+      <c r="A71" s="220"/>
+      <c r="B71" s="217"/>
+      <c r="C71" s="220"/>
+      <c r="D71" s="220"/>
       <c r="E71" s="26" t="s">
         <v>448</v>
       </c>
@@ -32395,10 +32396,10 @@
       <c r="Z71" s="32"/>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A72" s="218"/>
-      <c r="B72" s="223"/>
-      <c r="C72" s="218"/>
-      <c r="D72" s="218"/>
+      <c r="A72" s="221"/>
+      <c r="B72" s="219"/>
+      <c r="C72" s="221"/>
+      <c r="D72" s="221"/>
       <c r="E72" s="26" t="s">
         <v>393</v>
       </c>
@@ -32430,13 +32431,13 @@
       <c r="A73" s="224" t="s">
         <v>450</v>
       </c>
-      <c r="B73" s="180" t="s">
+      <c r="B73" s="178" t="s">
         <v>115</v>
       </c>
-      <c r="C73" s="172" t="s">
+      <c r="C73" s="173" t="s">
         <v>116</v>
       </c>
-      <c r="D73" s="172" t="s">
+      <c r="D73" s="173" t="s">
         <v>118</v>
       </c>
       <c r="E73" s="26" t="s">
@@ -32467,10 +32468,10 @@
       <c r="Z73" s="32"/>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A74" s="217"/>
-      <c r="B74" s="222"/>
-      <c r="C74" s="217"/>
-      <c r="D74" s="217"/>
+      <c r="A74" s="220"/>
+      <c r="B74" s="217"/>
+      <c r="C74" s="220"/>
+      <c r="D74" s="220"/>
       <c r="E74" s="26" t="s">
         <v>453</v>
       </c>
@@ -32499,10 +32500,10 @@
       <c r="Z74" s="32"/>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A75" s="217"/>
-      <c r="B75" s="222"/>
-      <c r="C75" s="217"/>
-      <c r="D75" s="217"/>
+      <c r="A75" s="220"/>
+      <c r="B75" s="217"/>
+      <c r="C75" s="220"/>
+      <c r="D75" s="220"/>
       <c r="E75" s="26" t="s">
         <v>455</v>
       </c>
@@ -32531,10 +32532,10 @@
       <c r="Z75" s="32"/>
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A76" s="217"/>
-      <c r="B76" s="222"/>
-      <c r="C76" s="217"/>
-      <c r="D76" s="217"/>
+      <c r="A76" s="220"/>
+      <c r="B76" s="217"/>
+      <c r="C76" s="220"/>
+      <c r="D76" s="220"/>
       <c r="E76" s="26" t="s">
         <v>457</v>
       </c>
@@ -32563,10 +32564,10 @@
       <c r="Z76" s="32"/>
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A77" s="217"/>
-      <c r="B77" s="222"/>
-      <c r="C77" s="217"/>
-      <c r="D77" s="217"/>
+      <c r="A77" s="220"/>
+      <c r="B77" s="217"/>
+      <c r="C77" s="220"/>
+      <c r="D77" s="220"/>
       <c r="E77" s="26" t="s">
         <v>459</v>
       </c>
@@ -32594,10 +32595,10 @@
       <c r="Y77" s="32"/>
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A78" s="217"/>
-      <c r="B78" s="222"/>
-      <c r="C78" s="217"/>
-      <c r="D78" s="217"/>
+      <c r="A78" s="220"/>
+      <c r="B78" s="217"/>
+      <c r="C78" s="220"/>
+      <c r="D78" s="220"/>
       <c r="E78" s="26" t="s">
         <v>461</v>
       </c>
@@ -32625,10 +32626,10 @@
       <c r="Y78" s="32"/>
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A79" s="217"/>
-      <c r="B79" s="222"/>
-      <c r="C79" s="217"/>
-      <c r="D79" s="217"/>
+      <c r="A79" s="220"/>
+      <c r="B79" s="217"/>
+      <c r="C79" s="220"/>
+      <c r="D79" s="220"/>
       <c r="E79" s="26" t="s">
         <v>463</v>
       </c>
@@ -32656,10 +32657,10 @@
       <c r="Y79" s="32"/>
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A80" s="217"/>
-      <c r="B80" s="222"/>
-      <c r="C80" s="217"/>
-      <c r="D80" s="217"/>
+      <c r="A80" s="220"/>
+      <c r="B80" s="217"/>
+      <c r="C80" s="220"/>
+      <c r="D80" s="220"/>
       <c r="E80" s="26" t="s">
         <v>465</v>
       </c>
@@ -32687,10 +32688,10 @@
       <c r="Y80" s="32"/>
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A81" s="218"/>
-      <c r="B81" s="223"/>
-      <c r="C81" s="218"/>
-      <c r="D81" s="218"/>
+      <c r="A81" s="221"/>
+      <c r="B81" s="219"/>
+      <c r="C81" s="221"/>
+      <c r="D81" s="221"/>
       <c r="E81" s="26" t="s">
         <v>467</v>
       </c>
@@ -32758,13 +32759,13 @@
       <c r="A83" s="224" t="s">
         <v>471</v>
       </c>
-      <c r="B83" s="180" t="s">
+      <c r="B83" s="178" t="s">
         <v>472</v>
       </c>
-      <c r="C83" s="172" t="s">
+      <c r="C83" s="173" t="s">
         <v>473</v>
       </c>
-      <c r="D83" s="172" t="s">
+      <c r="D83" s="173" t="s">
         <v>303</v>
       </c>
       <c r="E83" s="26" t="s">
@@ -32796,10 +32797,10 @@
       <c r="Y83" s="32"/>
     </row>
     <row r="84" spans="1:26" ht="28.5" x14ac:dyDescent="0.4">
-      <c r="A84" s="217"/>
-      <c r="B84" s="222"/>
-      <c r="C84" s="217"/>
-      <c r="D84" s="217"/>
+      <c r="A84" s="220"/>
+      <c r="B84" s="217"/>
+      <c r="C84" s="220"/>
+      <c r="D84" s="220"/>
       <c r="E84" s="26" t="s">
         <v>477</v>
       </c>
@@ -32829,10 +32830,10 @@
       <c r="Y84" s="32"/>
     </row>
     <row r="85" spans="1:26" ht="28.5" x14ac:dyDescent="0.4">
-      <c r="A85" s="217"/>
-      <c r="B85" s="222"/>
-      <c r="C85" s="217"/>
-      <c r="D85" s="217"/>
+      <c r="A85" s="220"/>
+      <c r="B85" s="217"/>
+      <c r="C85" s="220"/>
+      <c r="D85" s="220"/>
       <c r="E85" s="26" t="s">
         <v>480</v>
       </c>
@@ -32862,10 +32863,10 @@
       <c r="Y85" s="32"/>
     </row>
     <row r="86" spans="1:26" ht="28.5" x14ac:dyDescent="0.4">
-      <c r="A86" s="217"/>
-      <c r="B86" s="222"/>
-      <c r="C86" s="217"/>
-      <c r="D86" s="217"/>
+      <c r="A86" s="220"/>
+      <c r="B86" s="217"/>
+      <c r="C86" s="220"/>
+      <c r="D86" s="220"/>
       <c r="E86" s="26" t="s">
         <v>483</v>
       </c>
@@ -32895,10 +32896,10 @@
       <c r="Y86" s="32"/>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A87" s="217"/>
-      <c r="B87" s="222"/>
-      <c r="C87" s="217"/>
-      <c r="D87" s="217"/>
+      <c r="A87" s="220"/>
+      <c r="B87" s="217"/>
+      <c r="C87" s="220"/>
+      <c r="D87" s="220"/>
       <c r="E87" s="26" t="s">
         <v>486</v>
       </c>
@@ -32928,10 +32929,10 @@
       <c r="Y87" s="32"/>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A88" s="217"/>
-      <c r="B88" s="222"/>
-      <c r="C88" s="217"/>
-      <c r="D88" s="217"/>
+      <c r="A88" s="220"/>
+      <c r="B88" s="217"/>
+      <c r="C88" s="220"/>
+      <c r="D88" s="220"/>
       <c r="E88" s="26" t="s">
         <v>489</v>
       </c>
@@ -32961,10 +32962,10 @@
       <c r="Y88" s="32"/>
     </row>
     <row r="89" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="217"/>
-      <c r="B89" s="222"/>
-      <c r="C89" s="217"/>
-      <c r="D89" s="217"/>
+      <c r="A89" s="220"/>
+      <c r="B89" s="217"/>
+      <c r="C89" s="220"/>
+      <c r="D89" s="220"/>
       <c r="E89" s="26" t="s">
         <v>492</v>
       </c>
@@ -32994,10 +32995,10 @@
       <c r="Y89" s="32"/>
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A90" s="217"/>
-      <c r="B90" s="222"/>
-      <c r="C90" s="217"/>
-      <c r="D90" s="217"/>
+      <c r="A90" s="220"/>
+      <c r="B90" s="217"/>
+      <c r="C90" s="220"/>
+      <c r="D90" s="220"/>
       <c r="E90" s="26" t="s">
         <v>495</v>
       </c>
@@ -33030,13 +33031,13 @@
       <c r="A91" s="224" t="s">
         <v>498</v>
       </c>
-      <c r="B91" s="180" t="s">
+      <c r="B91" s="178" t="s">
         <v>135</v>
       </c>
-      <c r="C91" s="172" t="s">
+      <c r="C91" s="173" t="s">
         <v>136</v>
       </c>
-      <c r="D91" s="172" t="s">
+      <c r="D91" s="173" t="s">
         <v>138</v>
       </c>
       <c r="E91" s="26" t="s">
@@ -33066,10 +33067,10 @@
       <c r="Y91" s="32"/>
     </row>
     <row r="92" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A92" s="217"/>
-      <c r="B92" s="222"/>
-      <c r="C92" s="217"/>
-      <c r="D92" s="217"/>
+      <c r="A92" s="220"/>
+      <c r="B92" s="217"/>
+      <c r="C92" s="220"/>
+      <c r="D92" s="220"/>
       <c r="E92" s="26" t="s">
         <v>501</v>
       </c>
@@ -33097,10 +33098,10 @@
       <c r="Y92" s="32"/>
     </row>
     <row r="93" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A93" s="218"/>
-      <c r="B93" s="223"/>
-      <c r="C93" s="218"/>
-      <c r="D93" s="218"/>
+      <c r="A93" s="221"/>
+      <c r="B93" s="219"/>
+      <c r="C93" s="221"/>
+      <c r="D93" s="221"/>
       <c r="E93" s="26" t="s">
         <v>246</v>
       </c>
@@ -33132,13 +33133,13 @@
       <c r="A94" s="225" t="s">
         <v>504</v>
       </c>
-      <c r="B94" s="185" t="s">
+      <c r="B94" s="194" t="s">
         <v>505</v>
       </c>
-      <c r="C94" s="183" t="s">
+      <c r="C94" s="176" t="s">
         <v>506</v>
       </c>
-      <c r="D94" s="183" t="s">
+      <c r="D94" s="176" t="s">
         <v>138</v>
       </c>
       <c r="E94" s="31" t="s">
@@ -33169,10 +33170,10 @@
       <c r="Z94" s="32"/>
     </row>
     <row r="95" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A95" s="217"/>
-      <c r="B95" s="222"/>
-      <c r="C95" s="217"/>
-      <c r="D95" s="217"/>
+      <c r="A95" s="220"/>
+      <c r="B95" s="217"/>
+      <c r="C95" s="220"/>
+      <c r="D95" s="220"/>
       <c r="E95" s="26" t="s">
         <v>509</v>
       </c>
@@ -33201,10 +33202,10 @@
       <c r="Z95" s="32"/>
     </row>
     <row r="96" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A96" s="217"/>
-      <c r="B96" s="222"/>
-      <c r="C96" s="217"/>
-      <c r="D96" s="217"/>
+      <c r="A96" s="220"/>
+      <c r="B96" s="217"/>
+      <c r="C96" s="220"/>
+      <c r="D96" s="220"/>
       <c r="E96" s="26" t="s">
         <v>511</v>
       </c>
@@ -33233,10 +33234,10 @@
       <c r="Z96" s="32"/>
     </row>
     <row r="97" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A97" s="218"/>
-      <c r="B97" s="223"/>
-      <c r="C97" s="218"/>
-      <c r="D97" s="218"/>
+      <c r="A97" s="221"/>
+      <c r="B97" s="219"/>
+      <c r="C97" s="221"/>
+      <c r="D97" s="221"/>
       <c r="E97" s="26" t="s">
         <v>513</v>
       </c>
@@ -33267,13 +33268,13 @@
       <c r="A98" s="224" t="s">
         <v>515</v>
       </c>
-      <c r="B98" s="180" t="s">
+      <c r="B98" s="178" t="s">
         <v>141</v>
       </c>
-      <c r="C98" s="172" t="s">
+      <c r="C98" s="173" t="s">
         <v>142</v>
       </c>
-      <c r="D98" s="172" t="s">
+      <c r="D98" s="173" t="s">
         <v>144</v>
       </c>
       <c r="E98" s="77" t="s">
@@ -33302,10 +33303,10 @@
       <c r="X98" s="32"/>
     </row>
     <row r="99" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A99" s="217"/>
-      <c r="B99" s="222"/>
-      <c r="C99" s="217"/>
-      <c r="D99" s="217"/>
+      <c r="A99" s="220"/>
+      <c r="B99" s="217"/>
+      <c r="C99" s="220"/>
+      <c r="D99" s="220"/>
       <c r="E99" s="77" t="s">
         <v>518</v>
       </c>
@@ -33332,10 +33333,10 @@
       <c r="X99" s="32"/>
     </row>
     <row r="100" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A100" s="217"/>
-      <c r="B100" s="222"/>
-      <c r="C100" s="217"/>
-      <c r="D100" s="217"/>
+      <c r="A100" s="220"/>
+      <c r="B100" s="217"/>
+      <c r="C100" s="220"/>
+      <c r="D100" s="220"/>
       <c r="E100" s="77" t="s">
         <v>520</v>
       </c>
@@ -33362,10 +33363,10 @@
       <c r="X100" s="32"/>
     </row>
     <row r="101" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A101" s="217"/>
-      <c r="B101" s="222"/>
-      <c r="C101" s="217"/>
-      <c r="D101" s="217"/>
+      <c r="A101" s="220"/>
+      <c r="B101" s="217"/>
+      <c r="C101" s="220"/>
+      <c r="D101" s="220"/>
       <c r="E101" s="26" t="s">
         <v>522</v>
       </c>
@@ -33392,10 +33393,10 @@
       <c r="X101" s="32"/>
     </row>
     <row r="102" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A102" s="217"/>
-      <c r="B102" s="222"/>
-      <c r="C102" s="217"/>
-      <c r="D102" s="217"/>
+      <c r="A102" s="220"/>
+      <c r="B102" s="217"/>
+      <c r="C102" s="220"/>
+      <c r="D102" s="220"/>
       <c r="E102" s="26" t="s">
         <v>524</v>
       </c>
@@ -33422,10 +33423,10 @@
       <c r="X102" s="32"/>
     </row>
     <row r="103" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A103" s="217"/>
-      <c r="B103" s="222"/>
-      <c r="C103" s="217"/>
-      <c r="D103" s="217"/>
+      <c r="A103" s="220"/>
+      <c r="B103" s="217"/>
+      <c r="C103" s="220"/>
+      <c r="D103" s="220"/>
       <c r="E103" s="26" t="s">
         <v>526</v>
       </c>
@@ -33452,10 +33453,10 @@
       <c r="X103" s="32"/>
     </row>
     <row r="104" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A104" s="217"/>
-      <c r="B104" s="222"/>
-      <c r="C104" s="217"/>
-      <c r="D104" s="217"/>
+      <c r="A104" s="220"/>
+      <c r="B104" s="217"/>
+      <c r="C104" s="220"/>
+      <c r="D104" s="220"/>
       <c r="E104" s="26" t="s">
         <v>528</v>
       </c>
@@ -33482,10 +33483,10 @@
       <c r="X104" s="32"/>
     </row>
     <row r="105" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A105" s="217"/>
-      <c r="B105" s="222"/>
-      <c r="C105" s="217"/>
-      <c r="D105" s="217"/>
+      <c r="A105" s="220"/>
+      <c r="B105" s="217"/>
+      <c r="C105" s="220"/>
+      <c r="D105" s="220"/>
       <c r="E105" s="26" t="s">
         <v>530</v>
       </c>
@@ -33512,10 +33513,10 @@
       <c r="X105" s="32"/>
     </row>
     <row r="106" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A106" s="217"/>
-      <c r="B106" s="222"/>
-      <c r="C106" s="217"/>
-      <c r="D106" s="217"/>
+      <c r="A106" s="220"/>
+      <c r="B106" s="217"/>
+      <c r="C106" s="220"/>
+      <c r="D106" s="220"/>
       <c r="E106" s="26" t="s">
         <v>532</v>
       </c>
@@ -33542,10 +33543,10 @@
       <c r="X106" s="32"/>
     </row>
     <row r="107" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A107" s="217"/>
-      <c r="B107" s="222"/>
-      <c r="C107" s="217"/>
-      <c r="D107" s="217"/>
+      <c r="A107" s="220"/>
+      <c r="B107" s="217"/>
+      <c r="C107" s="220"/>
+      <c r="D107" s="220"/>
       <c r="E107" s="26" t="s">
         <v>534</v>
       </c>
@@ -33572,10 +33573,10 @@
       <c r="X107" s="32"/>
     </row>
     <row r="108" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A108" s="217"/>
-      <c r="B108" s="222"/>
-      <c r="C108" s="217"/>
-      <c r="D108" s="217"/>
+      <c r="A108" s="220"/>
+      <c r="B108" s="217"/>
+      <c r="C108" s="220"/>
+      <c r="D108" s="220"/>
       <c r="E108" s="26" t="s">
         <v>536</v>
       </c>
@@ -33602,10 +33603,10 @@
       <c r="X108" s="32"/>
     </row>
     <row r="109" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A109" s="217"/>
-      <c r="B109" s="222"/>
-      <c r="C109" s="217"/>
-      <c r="D109" s="217"/>
+      <c r="A109" s="220"/>
+      <c r="B109" s="217"/>
+      <c r="C109" s="220"/>
+      <c r="D109" s="220"/>
       <c r="E109" s="26" t="s">
         <v>538</v>
       </c>
@@ -33632,10 +33633,10 @@
       <c r="X109" s="32"/>
     </row>
     <row r="110" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A110" s="217"/>
-      <c r="B110" s="222"/>
-      <c r="C110" s="217"/>
-      <c r="D110" s="217"/>
+      <c r="A110" s="220"/>
+      <c r="B110" s="217"/>
+      <c r="C110" s="220"/>
+      <c r="D110" s="220"/>
       <c r="E110" s="26" t="s">
         <v>540</v>
       </c>
@@ -33662,10 +33663,10 @@
       <c r="X110" s="32"/>
     </row>
     <row r="111" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A111" s="217"/>
-      <c r="B111" s="222"/>
-      <c r="C111" s="217"/>
-      <c r="D111" s="217"/>
+      <c r="A111" s="220"/>
+      <c r="B111" s="217"/>
+      <c r="C111" s="220"/>
+      <c r="D111" s="220"/>
       <c r="E111" s="26" t="s">
         <v>542</v>
       </c>
@@ -33692,10 +33693,10 @@
       <c r="X111" s="32"/>
     </row>
     <row r="112" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A112" s="217"/>
-      <c r="B112" s="222"/>
-      <c r="C112" s="217"/>
-      <c r="D112" s="217"/>
+      <c r="A112" s="220"/>
+      <c r="B112" s="217"/>
+      <c r="C112" s="220"/>
+      <c r="D112" s="220"/>
       <c r="E112" s="26" t="s">
         <v>544</v>
       </c>
@@ -33722,10 +33723,10 @@
       <c r="X112" s="32"/>
     </row>
     <row r="113" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A113" s="217"/>
-      <c r="B113" s="222"/>
-      <c r="C113" s="217"/>
-      <c r="D113" s="217"/>
+      <c r="A113" s="220"/>
+      <c r="B113" s="217"/>
+      <c r="C113" s="220"/>
+      <c r="D113" s="220"/>
       <c r="E113" s="26" t="s">
         <v>546</v>
       </c>
@@ -33752,10 +33753,10 @@
       <c r="X113" s="32"/>
     </row>
     <row r="114" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A114" s="217"/>
-      <c r="B114" s="222"/>
-      <c r="C114" s="217"/>
-      <c r="D114" s="217"/>
+      <c r="A114" s="220"/>
+      <c r="B114" s="217"/>
+      <c r="C114" s="220"/>
+      <c r="D114" s="220"/>
       <c r="E114" s="26" t="s">
         <v>548</v>
       </c>
@@ -33782,10 +33783,10 @@
       <c r="X114" s="32"/>
     </row>
     <row r="115" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A115" s="217"/>
-      <c r="B115" s="222"/>
-      <c r="C115" s="217"/>
-      <c r="D115" s="217"/>
+      <c r="A115" s="220"/>
+      <c r="B115" s="217"/>
+      <c r="C115" s="220"/>
+      <c r="D115" s="220"/>
       <c r="E115" s="26" t="s">
         <v>550</v>
       </c>
@@ -33812,10 +33813,10 @@
       <c r="X115" s="32"/>
     </row>
     <row r="116" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A116" s="217"/>
-      <c r="B116" s="222"/>
-      <c r="C116" s="217"/>
-      <c r="D116" s="217"/>
+      <c r="A116" s="220"/>
+      <c r="B116" s="217"/>
+      <c r="C116" s="220"/>
+      <c r="D116" s="220"/>
       <c r="E116" s="26" t="s">
         <v>552</v>
       </c>
@@ -33842,10 +33843,10 @@
       <c r="X116" s="32"/>
     </row>
     <row r="117" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A117" s="218"/>
-      <c r="B117" s="223"/>
-      <c r="C117" s="218"/>
-      <c r="D117" s="218"/>
+      <c r="A117" s="221"/>
+      <c r="B117" s="219"/>
+      <c r="C117" s="221"/>
+      <c r="D117" s="221"/>
       <c r="E117" s="26" t="s">
         <v>554</v>
       </c>
@@ -33875,13 +33876,13 @@
       <c r="A118" s="224" t="s">
         <v>556</v>
       </c>
-      <c r="B118" s="180" t="s">
+      <c r="B118" s="178" t="s">
         <v>146</v>
       </c>
-      <c r="C118" s="172" t="s">
+      <c r="C118" s="173" t="s">
         <v>147</v>
       </c>
-      <c r="D118" s="172" t="s">
+      <c r="D118" s="173" t="s">
         <v>138</v>
       </c>
       <c r="E118" s="26" t="s">
@@ -33912,10 +33913,10 @@
       <c r="Z118" s="32"/>
     </row>
     <row r="119" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A119" s="217"/>
-      <c r="B119" s="222"/>
-      <c r="C119" s="217"/>
-      <c r="D119" s="217"/>
+      <c r="A119" s="220"/>
+      <c r="B119" s="217"/>
+      <c r="C119" s="220"/>
+      <c r="D119" s="220"/>
       <c r="E119" s="26" t="s">
         <v>559</v>
       </c>
@@ -33944,10 +33945,10 @@
       <c r="Z119" s="32"/>
     </row>
     <row r="120" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A120" s="217"/>
-      <c r="B120" s="222"/>
-      <c r="C120" s="217"/>
-      <c r="D120" s="217"/>
+      <c r="A120" s="220"/>
+      <c r="B120" s="217"/>
+      <c r="C120" s="220"/>
+      <c r="D120" s="220"/>
       <c r="E120" s="141" t="s">
         <v>561</v>
       </c>
@@ -33974,10 +33975,10 @@
       <c r="Z120" s="32"/>
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A121" s="217"/>
-      <c r="B121" s="222"/>
-      <c r="C121" s="217"/>
-      <c r="D121" s="217"/>
+      <c r="A121" s="220"/>
+      <c r="B121" s="217"/>
+      <c r="C121" s="220"/>
+      <c r="D121" s="220"/>
       <c r="E121" s="26" t="s">
         <v>499</v>
       </c>
@@ -34006,10 +34007,10 @@
       <c r="Z121" s="32"/>
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A122" s="217"/>
-      <c r="B122" s="222"/>
-      <c r="C122" s="217"/>
-      <c r="D122" s="217"/>
+      <c r="A122" s="220"/>
+      <c r="B122" s="217"/>
+      <c r="C122" s="220"/>
+      <c r="D122" s="220"/>
       <c r="E122" s="26" t="s">
         <v>501</v>
       </c>
@@ -34038,10 +34039,10 @@
       <c r="Z122" s="32"/>
     </row>
     <row r="123" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A123" s="217"/>
-      <c r="B123" s="222"/>
-      <c r="C123" s="217"/>
-      <c r="D123" s="217"/>
+      <c r="A123" s="220"/>
+      <c r="B123" s="217"/>
+      <c r="C123" s="220"/>
+      <c r="D123" s="220"/>
       <c r="E123" s="26" t="s">
         <v>562</v>
       </c>
@@ -34070,10 +34071,10 @@
       <c r="Z123" s="32"/>
     </row>
     <row r="124" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A124" s="217"/>
-      <c r="B124" s="222"/>
-      <c r="C124" s="217"/>
-      <c r="D124" s="217"/>
+      <c r="A124" s="220"/>
+      <c r="B124" s="217"/>
+      <c r="C124" s="220"/>
+      <c r="D124" s="220"/>
       <c r="E124" s="26" t="s">
         <v>564</v>
       </c>
@@ -34102,10 +34103,10 @@
       <c r="Z124" s="32"/>
     </row>
     <row r="125" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A125" s="217"/>
-      <c r="B125" s="222"/>
-      <c r="C125" s="217"/>
-      <c r="D125" s="217"/>
+      <c r="A125" s="220"/>
+      <c r="B125" s="217"/>
+      <c r="C125" s="220"/>
+      <c r="D125" s="220"/>
       <c r="E125" s="26" t="s">
         <v>566</v>
       </c>
@@ -34134,10 +34135,10 @@
       <c r="Z125" s="32"/>
     </row>
     <row r="126" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A126" s="217"/>
-      <c r="B126" s="222"/>
-      <c r="C126" s="217"/>
-      <c r="D126" s="217"/>
+      <c r="A126" s="220"/>
+      <c r="B126" s="217"/>
+      <c r="C126" s="220"/>
+      <c r="D126" s="220"/>
       <c r="E126" s="26" t="s">
         <v>568</v>
       </c>
@@ -34166,10 +34167,10 @@
       <c r="Z126" s="32"/>
     </row>
     <row r="127" spans="1:26" ht="28.5" x14ac:dyDescent="0.4">
-      <c r="A127" s="217"/>
-      <c r="B127" s="222"/>
-      <c r="C127" s="217"/>
-      <c r="D127" s="217"/>
+      <c r="A127" s="220"/>
+      <c r="B127" s="217"/>
+      <c r="C127" s="220"/>
+      <c r="D127" s="220"/>
       <c r="E127" s="26" t="s">
         <v>570</v>
       </c>
@@ -34198,10 +34199,10 @@
       <c r="Z127" s="32"/>
     </row>
     <row r="128" spans="1:26" ht="28.5" x14ac:dyDescent="0.4">
-      <c r="A128" s="217"/>
-      <c r="B128" s="222"/>
-      <c r="C128" s="217"/>
-      <c r="D128" s="217"/>
+      <c r="A128" s="220"/>
+      <c r="B128" s="217"/>
+      <c r="C128" s="220"/>
+      <c r="D128" s="220"/>
       <c r="E128" s="26" t="s">
         <v>572</v>
       </c>
@@ -34230,10 +34231,10 @@
       <c r="Z128" s="32"/>
     </row>
     <row r="129" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A129" s="217"/>
-      <c r="B129" s="222"/>
-      <c r="C129" s="217"/>
-      <c r="D129" s="217"/>
+      <c r="A129" s="220"/>
+      <c r="B129" s="217"/>
+      <c r="C129" s="220"/>
+      <c r="D129" s="220"/>
       <c r="E129" s="26" t="s">
         <v>574</v>
       </c>
@@ -34262,12 +34263,12 @@
       <c r="Z129" s="32"/>
     </row>
     <row r="130" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A130" s="217"/>
-      <c r="B130" s="222"/>
-      <c r="C130" s="217"/>
-      <c r="D130" s="217"/>
+      <c r="A130" s="220"/>
+      <c r="B130" s="217"/>
+      <c r="C130" s="220"/>
+      <c r="D130" s="220"/>
       <c r="E130" s="26" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="F130" s="26"/>
       <c r="G130" s="26" t="s">
@@ -34294,10 +34295,10 @@
       <c r="Z130" s="32"/>
     </row>
     <row r="131" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A131" s="217"/>
-      <c r="B131" s="222"/>
-      <c r="C131" s="217"/>
-      <c r="D131" s="217"/>
+      <c r="A131" s="220"/>
+      <c r="B131" s="217"/>
+      <c r="C131" s="220"/>
+      <c r="D131" s="220"/>
       <c r="E131" s="26" t="s">
         <v>577</v>
       </c>
@@ -34326,10 +34327,10 @@
       <c r="Z131" s="32"/>
     </row>
     <row r="132" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A132" s="217"/>
-      <c r="B132" s="222"/>
-      <c r="C132" s="217"/>
-      <c r="D132" s="217"/>
+      <c r="A132" s="220"/>
+      <c r="B132" s="217"/>
+      <c r="C132" s="220"/>
+      <c r="D132" s="220"/>
       <c r="E132" s="26" t="s">
         <v>1326</v>
       </c>
@@ -34358,10 +34359,10 @@
       <c r="Z132" s="32"/>
     </row>
     <row r="133" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A133" s="217"/>
-      <c r="B133" s="222"/>
-      <c r="C133" s="217"/>
-      <c r="D133" s="217"/>
+      <c r="A133" s="220"/>
+      <c r="B133" s="217"/>
+      <c r="C133" s="220"/>
+      <c r="D133" s="220"/>
       <c r="E133" s="26" t="s">
         <v>579</v>
       </c>
@@ -34390,10 +34391,10 @@
       <c r="Z133" s="32"/>
     </row>
     <row r="134" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A134" s="217"/>
-      <c r="B134" s="222"/>
-      <c r="C134" s="217"/>
-      <c r="D134" s="217"/>
+      <c r="A134" s="220"/>
+      <c r="B134" s="217"/>
+      <c r="C134" s="220"/>
+      <c r="D134" s="220"/>
       <c r="E134" s="26" t="s">
         <v>581</v>
       </c>
@@ -34422,10 +34423,10 @@
       <c r="Z134" s="32"/>
     </row>
     <row r="135" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A135" s="217"/>
-      <c r="B135" s="222"/>
-      <c r="C135" s="217"/>
-      <c r="D135" s="217"/>
+      <c r="A135" s="220"/>
+      <c r="B135" s="217"/>
+      <c r="C135" s="220"/>
+      <c r="D135" s="220"/>
       <c r="E135" s="26" t="s">
         <v>246</v>
       </c>
@@ -34454,10 +34455,10 @@
       <c r="Z135" s="32"/>
     </row>
     <row r="136" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A136" s="218"/>
-      <c r="B136" s="223"/>
-      <c r="C136" s="218"/>
-      <c r="D136" s="218"/>
+      <c r="A136" s="221"/>
+      <c r="B136" s="219"/>
+      <c r="C136" s="221"/>
+      <c r="D136" s="221"/>
       <c r="E136" s="26" t="s">
         <v>583</v>
       </c>
@@ -34489,13 +34490,13 @@
       <c r="A137" s="224" t="s">
         <v>585</v>
       </c>
-      <c r="B137" s="180" t="s">
+      <c r="B137" s="178" t="s">
         <v>159</v>
       </c>
-      <c r="C137" s="172" t="s">
+      <c r="C137" s="173" t="s">
         <v>586</v>
       </c>
-      <c r="D137" s="172" t="s">
+      <c r="D137" s="173" t="s">
         <v>160</v>
       </c>
       <c r="E137" s="26" t="s">
@@ -34526,10 +34527,10 @@
       <c r="Z137" s="32"/>
     </row>
     <row r="138" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A138" s="217"/>
-      <c r="B138" s="222"/>
-      <c r="C138" s="217"/>
-      <c r="D138" s="217"/>
+      <c r="A138" s="220"/>
+      <c r="B138" s="217"/>
+      <c r="C138" s="220"/>
+      <c r="D138" s="220"/>
       <c r="E138" s="26" t="s">
         <v>589</v>
       </c>
@@ -34558,12 +34559,12 @@
       <c r="Z138" s="32"/>
     </row>
     <row r="139" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A139" s="217"/>
-      <c r="B139" s="222"/>
-      <c r="C139" s="217"/>
-      <c r="D139" s="217"/>
+      <c r="A139" s="220"/>
+      <c r="B139" s="217"/>
+      <c r="C139" s="220"/>
+      <c r="D139" s="220"/>
       <c r="E139" s="26" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="F139" s="26"/>
       <c r="G139" s="26" t="s">
@@ -34589,10 +34590,10 @@
       <c r="Y139" s="32"/>
     </row>
     <row r="140" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A140" s="217"/>
-      <c r="B140" s="222"/>
-      <c r="C140" s="217"/>
-      <c r="D140" s="217"/>
+      <c r="A140" s="220"/>
+      <c r="B140" s="217"/>
+      <c r="C140" s="220"/>
+      <c r="D140" s="220"/>
       <c r="E140" s="26" t="s">
         <v>336</v>
       </c>
@@ -34620,10 +34621,10 @@
       <c r="Y140" s="32"/>
     </row>
     <row r="141" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A141" s="217"/>
-      <c r="B141" s="222"/>
-      <c r="C141" s="217"/>
-      <c r="D141" s="217"/>
+      <c r="A141" s="220"/>
+      <c r="B141" s="217"/>
+      <c r="C141" s="220"/>
+      <c r="D141" s="220"/>
       <c r="E141" s="26" t="s">
         <v>359</v>
       </c>
@@ -34651,10 +34652,10 @@
       <c r="Y141" s="32"/>
     </row>
     <row r="142" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A142" s="218"/>
-      <c r="B142" s="223"/>
-      <c r="C142" s="218"/>
-      <c r="D142" s="218"/>
+      <c r="A142" s="221"/>
+      <c r="B142" s="219"/>
+      <c r="C142" s="221"/>
+      <c r="D142" s="221"/>
       <c r="E142" s="26" t="s">
         <v>393</v>
       </c>
@@ -34685,13 +34686,13 @@
       <c r="A143" s="225" t="s">
         <v>591</v>
       </c>
-      <c r="B143" s="185" t="s">
+      <c r="B143" s="194" t="s">
         <v>167</v>
       </c>
-      <c r="C143" s="183" t="s">
+      <c r="C143" s="176" t="s">
         <v>168</v>
       </c>
-      <c r="D143" s="183" t="s">
+      <c r="D143" s="176" t="s">
         <v>169</v>
       </c>
       <c r="E143" s="26" t="s">
@@ -34721,10 +34722,10 @@
       <c r="Y143" s="32"/>
     </row>
     <row r="144" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A144" s="217"/>
-      <c r="B144" s="222"/>
-      <c r="C144" s="217"/>
-      <c r="D144" s="218"/>
+      <c r="A144" s="220"/>
+      <c r="B144" s="217"/>
+      <c r="C144" s="220"/>
+      <c r="D144" s="221"/>
       <c r="E144" s="141" t="s">
         <v>593</v>
       </c>
@@ -34749,9 +34750,9 @@
       <c r="X144" s="32"/>
     </row>
     <row r="145" spans="1:26" ht="28.5" x14ac:dyDescent="0.4">
-      <c r="A145" s="218"/>
-      <c r="B145" s="223"/>
-      <c r="C145" s="218"/>
+      <c r="A145" s="221"/>
+      <c r="B145" s="219"/>
+      <c r="C145" s="221"/>
       <c r="D145" s="26" t="s">
         <v>170</v>
       </c>
@@ -34826,13 +34827,13 @@
       <c r="A147" s="224" t="s">
         <v>599</v>
       </c>
-      <c r="B147" s="180" t="s">
+      <c r="B147" s="178" t="s">
         <v>184</v>
       </c>
-      <c r="C147" s="172" t="s">
+      <c r="C147" s="173" t="s">
         <v>185</v>
       </c>
-      <c r="D147" s="172" t="s">
+      <c r="D147" s="173" t="s">
         <v>138</v>
       </c>
       <c r="E147" s="26" t="s">
@@ -34863,10 +34864,10 @@
       <c r="Z147" s="32"/>
     </row>
     <row r="148" spans="1:26" ht="28.5" x14ac:dyDescent="0.4">
-      <c r="A148" s="217"/>
-      <c r="B148" s="222"/>
-      <c r="C148" s="217"/>
-      <c r="D148" s="217"/>
+      <c r="A148" s="220"/>
+      <c r="B148" s="217"/>
+      <c r="C148" s="220"/>
+      <c r="D148" s="220"/>
       <c r="E148" s="26" t="s">
         <v>572</v>
       </c>
@@ -34895,10 +34896,10 @@
       <c r="Z148" s="32"/>
     </row>
     <row r="149" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A149" s="217"/>
-      <c r="B149" s="222"/>
-      <c r="C149" s="217"/>
-      <c r="D149" s="217"/>
+      <c r="A149" s="220"/>
+      <c r="B149" s="217"/>
+      <c r="C149" s="220"/>
+      <c r="D149" s="220"/>
       <c r="E149" s="26" t="s">
         <v>574</v>
       </c>
@@ -34927,10 +34928,10 @@
       <c r="Z149" s="32"/>
     </row>
     <row r="150" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A150" s="218"/>
-      <c r="B150" s="223"/>
-      <c r="C150" s="218"/>
-      <c r="D150" s="218"/>
+      <c r="A150" s="221"/>
+      <c r="B150" s="219"/>
+      <c r="C150" s="221"/>
+      <c r="D150" s="221"/>
       <c r="E150" s="26" t="s">
         <v>577</v>
       </c>
@@ -34999,16 +35000,16 @@
       <c r="Z151" s="32"/>
     </row>
     <row r="152" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A152" s="172">
+      <c r="A152" s="173">
         <v>41.1</v>
       </c>
-      <c r="B152" s="172" t="s">
+      <c r="B152" s="173" t="s">
         <v>223</v>
       </c>
-      <c r="C152" s="172" t="s">
+      <c r="C152" s="173" t="s">
         <v>224</v>
       </c>
-      <c r="D152" s="172"/>
+      <c r="D152" s="173"/>
       <c r="E152" s="26" t="s">
         <v>603</v>
       </c>
@@ -35034,10 +35035,10 @@
       <c r="Y152" s="32"/>
     </row>
     <row r="153" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A153" s="217"/>
-      <c r="B153" s="217"/>
-      <c r="C153" s="217"/>
-      <c r="D153" s="217"/>
+      <c r="A153" s="220"/>
+      <c r="B153" s="220"/>
+      <c r="C153" s="220"/>
+      <c r="D153" s="220"/>
       <c r="E153" s="77" t="s">
         <v>336</v>
       </c>
@@ -35064,10 +35065,10 @@
       <c r="Z153" s="32"/>
     </row>
     <row r="154" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A154" s="217"/>
-      <c r="B154" s="217"/>
-      <c r="C154" s="217"/>
-      <c r="D154" s="217"/>
+      <c r="A154" s="220"/>
+      <c r="B154" s="220"/>
+      <c r="C154" s="220"/>
+      <c r="D154" s="220"/>
       <c r="E154" s="77" t="s">
         <v>344</v>
       </c>
@@ -35094,10 +35095,10 @@
       <c r="Z154" s="32"/>
     </row>
     <row r="155" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A155" s="217"/>
-      <c r="B155" s="217"/>
-      <c r="C155" s="217"/>
-      <c r="D155" s="217"/>
+      <c r="A155" s="220"/>
+      <c r="B155" s="220"/>
+      <c r="C155" s="220"/>
+      <c r="D155" s="220"/>
       <c r="E155" s="77" t="s">
         <v>356</v>
       </c>
@@ -35124,10 +35125,10 @@
       <c r="Z155" s="32"/>
     </row>
     <row r="156" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A156" s="217"/>
-      <c r="B156" s="217"/>
-      <c r="C156" s="217"/>
-      <c r="D156" s="217"/>
+      <c r="A156" s="220"/>
+      <c r="B156" s="220"/>
+      <c r="C156" s="220"/>
+      <c r="D156" s="220"/>
       <c r="E156" s="77" t="s">
         <v>359</v>
       </c>
@@ -35154,10 +35155,10 @@
       <c r="Z156" s="32"/>
     </row>
     <row r="157" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A157" s="217"/>
-      <c r="B157" s="217"/>
-      <c r="C157" s="217"/>
-      <c r="D157" s="217"/>
+      <c r="A157" s="220"/>
+      <c r="B157" s="220"/>
+      <c r="C157" s="220"/>
+      <c r="D157" s="220"/>
       <c r="E157" s="77" t="s">
         <v>604</v>
       </c>
@@ -35184,10 +35185,10 @@
       <c r="Z157" s="32"/>
     </row>
     <row r="158" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A158" s="217"/>
-      <c r="B158" s="217"/>
-      <c r="C158" s="217"/>
-      <c r="D158" s="217"/>
+      <c r="A158" s="220"/>
+      <c r="B158" s="220"/>
+      <c r="C158" s="220"/>
+      <c r="D158" s="220"/>
       <c r="E158" s="77" t="s">
         <v>605</v>
       </c>
@@ -35214,10 +35215,10 @@
       <c r="Z158" s="32"/>
     </row>
     <row r="159" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A159" s="217"/>
-      <c r="B159" s="217"/>
-      <c r="C159" s="217"/>
-      <c r="D159" s="217"/>
+      <c r="A159" s="220"/>
+      <c r="B159" s="220"/>
+      <c r="C159" s="220"/>
+      <c r="D159" s="220"/>
       <c r="E159" s="77" t="s">
         <v>606</v>
       </c>
@@ -35244,10 +35245,10 @@
       <c r="Z159" s="32"/>
     </row>
     <row r="160" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A160" s="218"/>
-      <c r="B160" s="218"/>
-      <c r="C160" s="218"/>
-      <c r="D160" s="218"/>
+      <c r="A160" s="221"/>
+      <c r="B160" s="221"/>
+      <c r="C160" s="221"/>
+      <c r="D160" s="221"/>
       <c r="E160" s="77" t="s">
         <v>607</v>
       </c>
@@ -35274,16 +35275,16 @@
       <c r="Z160" s="32"/>
     </row>
     <row r="161" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A161" s="172">
+      <c r="A161" s="173">
         <v>42</v>
       </c>
-      <c r="B161" s="158" t="s">
+      <c r="B161" s="211" t="s">
         <v>235</v>
       </c>
-      <c r="C161" s="172" t="s">
+      <c r="C161" s="173" t="s">
         <v>236</v>
       </c>
-      <c r="D161" s="172"/>
+      <c r="D161" s="173"/>
       <c r="E161" s="26" t="b">
         <v>1</v>
       </c>
@@ -35310,10 +35311,10 @@
       <c r="Z161" s="32"/>
     </row>
     <row r="162" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A162" s="218"/>
-      <c r="B162" s="221"/>
-      <c r="C162" s="218"/>
-      <c r="D162" s="218"/>
+      <c r="A162" s="221"/>
+      <c r="B162" s="222"/>
+      <c r="C162" s="221"/>
+      <c r="D162" s="221"/>
       <c r="E162" s="77" t="b">
         <v>0</v>
       </c>
@@ -35340,16 +35341,16 @@
       <c r="Z162" s="32"/>
     </row>
     <row r="163" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A163" s="172">
+      <c r="A163" s="173">
         <v>43.1</v>
       </c>
-      <c r="B163" s="219" t="s">
+      <c r="B163" s="226" t="s">
         <v>247</v>
       </c>
-      <c r="C163" s="172" t="s">
+      <c r="C163" s="173" t="s">
         <v>248</v>
       </c>
-      <c r="D163" s="185" t="s">
+      <c r="D163" s="194" t="s">
         <v>249</v>
       </c>
       <c r="E163" s="26" t="s">
@@ -35380,10 +35381,10 @@
       <c r="Z163" s="32"/>
     </row>
     <row r="164" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A164" s="217"/>
-      <c r="B164" s="220"/>
-      <c r="C164" s="217"/>
-      <c r="D164" s="222"/>
+      <c r="A164" s="220"/>
+      <c r="B164" s="227"/>
+      <c r="C164" s="220"/>
+      <c r="D164" s="217"/>
       <c r="E164" s="77" t="s">
         <v>609</v>
       </c>
@@ -35412,10 +35413,10 @@
       <c r="Z164" s="32"/>
     </row>
     <row r="165" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A165" s="217"/>
-      <c r="B165" s="220"/>
-      <c r="C165" s="217"/>
-      <c r="D165" s="222"/>
+      <c r="A165" s="220"/>
+      <c r="B165" s="227"/>
+      <c r="C165" s="220"/>
+      <c r="D165" s="217"/>
       <c r="E165" s="77" t="s">
         <v>611</v>
       </c>
@@ -35444,10 +35445,10 @@
       <c r="Z165" s="32"/>
     </row>
     <row r="166" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A166" s="217"/>
-      <c r="B166" s="220"/>
-      <c r="C166" s="217"/>
-      <c r="D166" s="222"/>
+      <c r="A166" s="220"/>
+      <c r="B166" s="227"/>
+      <c r="C166" s="220"/>
+      <c r="D166" s="217"/>
       <c r="E166" s="77" t="s">
         <v>613</v>
       </c>
@@ -35476,10 +35477,10 @@
       <c r="Z166" s="32"/>
     </row>
     <row r="167" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A167" s="217"/>
-      <c r="B167" s="220"/>
-      <c r="C167" s="217"/>
-      <c r="D167" s="222"/>
+      <c r="A167" s="220"/>
+      <c r="B167" s="227"/>
+      <c r="C167" s="220"/>
+      <c r="D167" s="217"/>
       <c r="E167" s="77" t="s">
         <v>615</v>
       </c>
@@ -35508,10 +35509,10 @@
       <c r="Z167" s="32"/>
     </row>
     <row r="168" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A168" s="217"/>
-      <c r="B168" s="220"/>
-      <c r="C168" s="217"/>
-      <c r="D168" s="222"/>
+      <c r="A168" s="220"/>
+      <c r="B168" s="227"/>
+      <c r="C168" s="220"/>
+      <c r="D168" s="217"/>
       <c r="E168" s="77" t="s">
         <v>617</v>
       </c>
@@ -35540,10 +35541,10 @@
       <c r="Z168" s="32"/>
     </row>
     <row r="169" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A169" s="217"/>
-      <c r="B169" s="220"/>
-      <c r="C169" s="217"/>
-      <c r="D169" s="222"/>
+      <c r="A169" s="220"/>
+      <c r="B169" s="227"/>
+      <c r="C169" s="220"/>
+      <c r="D169" s="217"/>
       <c r="E169" s="77" t="s">
         <v>326</v>
       </c>
@@ -35572,10 +35573,10 @@
       <c r="Z169" s="32"/>
     </row>
     <row r="170" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A170" s="218"/>
-      <c r="B170" s="221"/>
-      <c r="C170" s="218"/>
-      <c r="D170" s="223"/>
+      <c r="A170" s="221"/>
+      <c r="B170" s="222"/>
+      <c r="C170" s="221"/>
+      <c r="D170" s="219"/>
       <c r="E170" s="77" t="s">
         <v>620</v>
       </c>
@@ -35740,16 +35741,16 @@
       <c r="Z174" s="32"/>
     </row>
     <row r="175" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A175" s="172">
+      <c r="A175" s="173">
         <v>44.2</v>
       </c>
-      <c r="B175" s="172" t="s">
+      <c r="B175" s="173" t="s">
         <v>135</v>
       </c>
-      <c r="C175" s="172" t="s">
+      <c r="C175" s="173" t="s">
         <v>136</v>
       </c>
-      <c r="D175" s="172" t="s">
+      <c r="D175" s="173" t="s">
         <v>138</v>
       </c>
       <c r="E175" s="26" t="s">
@@ -35780,10 +35781,10 @@
       <c r="Z175" s="32"/>
     </row>
     <row r="176" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A176" s="217"/>
-      <c r="B176" s="217"/>
-      <c r="C176" s="217"/>
-      <c r="D176" s="217"/>
+      <c r="A176" s="220"/>
+      <c r="B176" s="220"/>
+      <c r="C176" s="220"/>
+      <c r="D176" s="220"/>
       <c r="E176" s="77" t="s">
         <v>501</v>
       </c>
@@ -35812,10 +35813,10 @@
       <c r="Z176" s="32"/>
     </row>
     <row r="177" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A177" s="217"/>
-      <c r="B177" s="217"/>
-      <c r="C177" s="218"/>
-      <c r="D177" s="218"/>
+      <c r="A177" s="220"/>
+      <c r="B177" s="220"/>
+      <c r="C177" s="221"/>
+      <c r="D177" s="221"/>
       <c r="E177" s="77" t="s">
         <v>246</v>
       </c>
@@ -35844,16 +35845,16 @@
       <c r="Z177" s="32"/>
     </row>
     <row r="178" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A178" s="172">
+      <c r="A178" s="173">
         <v>44.4</v>
       </c>
-      <c r="B178" s="172" t="s">
+      <c r="B178" s="173" t="s">
         <v>286</v>
       </c>
-      <c r="C178" s="172" t="s">
+      <c r="C178" s="173" t="s">
         <v>287</v>
       </c>
-      <c r="D178" s="172" t="s">
+      <c r="D178" s="173" t="s">
         <v>291</v>
       </c>
       <c r="E178" s="26" t="s">
@@ -35884,10 +35885,10 @@
       <c r="Z178" s="32"/>
     </row>
     <row r="179" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A179" s="217"/>
-      <c r="B179" s="217"/>
-      <c r="C179" s="217"/>
-      <c r="D179" s="217"/>
+      <c r="A179" s="220"/>
+      <c r="B179" s="220"/>
+      <c r="C179" s="220"/>
+      <c r="D179" s="220"/>
       <c r="E179" s="77" t="s">
         <v>444</v>
       </c>
@@ -35916,10 +35917,10 @@
       <c r="Z179" s="32"/>
     </row>
     <row r="180" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A180" s="217"/>
-      <c r="B180" s="217"/>
-      <c r="C180" s="217"/>
-      <c r="D180" s="217"/>
+      <c r="A180" s="220"/>
+      <c r="B180" s="220"/>
+      <c r="C180" s="220"/>
+      <c r="D180" s="220"/>
       <c r="E180" s="77" t="s">
         <v>446</v>
       </c>
@@ -35948,10 +35949,10 @@
       <c r="Z180" s="32"/>
     </row>
     <row r="181" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A181" s="217"/>
-      <c r="B181" s="217"/>
-      <c r="C181" s="217"/>
-      <c r="D181" s="217"/>
+      <c r="A181" s="220"/>
+      <c r="B181" s="220"/>
+      <c r="C181" s="220"/>
+      <c r="D181" s="220"/>
       <c r="E181" s="77" t="s">
         <v>448</v>
       </c>
@@ -35980,10 +35981,10 @@
       <c r="Z181" s="32"/>
     </row>
     <row r="182" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A182" s="218"/>
-      <c r="B182" s="218"/>
-      <c r="C182" s="218"/>
-      <c r="D182" s="218"/>
+      <c r="A182" s="221"/>
+      <c r="B182" s="221"/>
+      <c r="C182" s="221"/>
+      <c r="D182" s="221"/>
       <c r="E182" s="77" t="s">
         <v>393</v>
       </c>
@@ -36012,16 +36013,16 @@
       <c r="Z182" s="32"/>
     </row>
     <row r="183" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A183" s="172">
+      <c r="A183" s="173">
         <v>44.5</v>
       </c>
-      <c r="B183" s="174" t="s">
+      <c r="B183" s="214" t="s">
         <v>83</v>
       </c>
-      <c r="C183" s="172" t="s">
+      <c r="C183" s="173" t="s">
         <v>84</v>
       </c>
-      <c r="D183" s="183" t="s">
+      <c r="D183" s="176" t="s">
         <v>85</v>
       </c>
       <c r="E183" s="26" t="s">
@@ -36052,10 +36053,10 @@
       <c r="Z183" s="32"/>
     </row>
     <row r="184" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A184" s="217"/>
-      <c r="B184" s="226"/>
-      <c r="C184" s="217"/>
-      <c r="D184" s="217"/>
+      <c r="A184" s="220"/>
+      <c r="B184" s="218"/>
+      <c r="C184" s="220"/>
+      <c r="D184" s="220"/>
       <c r="E184" s="77" t="s">
         <v>421</v>
       </c>
@@ -36084,10 +36085,10 @@
       <c r="Z184" s="32"/>
     </row>
     <row r="185" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A185" s="217"/>
-      <c r="B185" s="226"/>
-      <c r="C185" s="217"/>
-      <c r="D185" s="217"/>
+      <c r="A185" s="220"/>
+      <c r="B185" s="218"/>
+      <c r="C185" s="220"/>
+      <c r="D185" s="220"/>
       <c r="E185" s="77" t="s">
         <v>624</v>
       </c>
@@ -36114,10 +36115,10 @@
       <c r="Z185" s="32"/>
     </row>
     <row r="186" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A186" s="217"/>
-      <c r="B186" s="226"/>
-      <c r="C186" s="217"/>
-      <c r="D186" s="217"/>
+      <c r="A186" s="220"/>
+      <c r="B186" s="218"/>
+      <c r="C186" s="220"/>
+      <c r="D186" s="220"/>
       <c r="E186" s="77" t="s">
         <v>425</v>
       </c>
@@ -36146,10 +36147,10 @@
       <c r="Z186" s="32"/>
     </row>
     <row r="187" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A187" s="217"/>
-      <c r="B187" s="226"/>
-      <c r="C187" s="217"/>
-      <c r="D187" s="217"/>
+      <c r="A187" s="220"/>
+      <c r="B187" s="218"/>
+      <c r="C187" s="220"/>
+      <c r="D187" s="220"/>
       <c r="E187" s="77" t="s">
         <v>427</v>
       </c>
@@ -36178,10 +36179,10 @@
       <c r="Z187" s="32"/>
     </row>
     <row r="188" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A188" s="217"/>
-      <c r="B188" s="226"/>
-      <c r="C188" s="217"/>
-      <c r="D188" s="217"/>
+      <c r="A188" s="220"/>
+      <c r="B188" s="218"/>
+      <c r="C188" s="220"/>
+      <c r="D188" s="220"/>
       <c r="E188" s="77" t="s">
         <v>429</v>
       </c>
@@ -36210,10 +36211,10 @@
       <c r="Z188" s="32"/>
     </row>
     <row r="189" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A189" s="217"/>
-      <c r="B189" s="226"/>
-      <c r="C189" s="217"/>
-      <c r="D189" s="217"/>
+      <c r="A189" s="220"/>
+      <c r="B189" s="218"/>
+      <c r="C189" s="220"/>
+      <c r="D189" s="220"/>
       <c r="E189" s="77" t="s">
         <v>431</v>
       </c>
@@ -36242,10 +36243,10 @@
       <c r="Z189" s="32"/>
     </row>
     <row r="190" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A190" s="217"/>
-      <c r="B190" s="226"/>
-      <c r="C190" s="217"/>
-      <c r="D190" s="217"/>
+      <c r="A190" s="220"/>
+      <c r="B190" s="218"/>
+      <c r="C190" s="220"/>
+      <c r="D190" s="220"/>
       <c r="E190" s="77" t="s">
         <v>433</v>
       </c>
@@ -36274,10 +36275,10 @@
       <c r="Z190" s="32"/>
     </row>
     <row r="191" spans="1:26" ht="28.5" x14ac:dyDescent="0.4">
-      <c r="A191" s="217"/>
-      <c r="B191" s="226"/>
-      <c r="C191" s="217"/>
-      <c r="D191" s="217"/>
+      <c r="A191" s="220"/>
+      <c r="B191" s="218"/>
+      <c r="C191" s="220"/>
+      <c r="D191" s="220"/>
       <c r="E191" s="26" t="s">
         <v>435</v>
       </c>
@@ -36306,10 +36307,10 @@
       <c r="Z191" s="32"/>
     </row>
     <row r="192" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A192" s="217"/>
-      <c r="B192" s="226"/>
-      <c r="C192" s="217"/>
-      <c r="D192" s="217"/>
+      <c r="A192" s="220"/>
+      <c r="B192" s="218"/>
+      <c r="C192" s="220"/>
+      <c r="D192" s="220"/>
       <c r="E192" s="26" t="s">
         <v>437</v>
       </c>
@@ -36338,10 +36339,10 @@
       <c r="Z192" s="32"/>
     </row>
     <row r="193" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A193" s="217"/>
-      <c r="B193" s="226"/>
-      <c r="C193" s="217"/>
-      <c r="D193" s="217"/>
+      <c r="A193" s="220"/>
+      <c r="B193" s="218"/>
+      <c r="C193" s="220"/>
+      <c r="D193" s="220"/>
       <c r="E193" s="77" t="s">
         <v>439</v>
       </c>
@@ -36370,10 +36371,10 @@
       <c r="Z193" s="32"/>
     </row>
     <row r="194" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A194" s="218"/>
-      <c r="B194" s="227"/>
-      <c r="C194" s="218"/>
-      <c r="D194" s="218"/>
+      <c r="A194" s="221"/>
+      <c r="B194" s="223"/>
+      <c r="C194" s="221"/>
+      <c r="D194" s="221"/>
       <c r="E194" s="77" t="s">
         <v>393</v>
       </c>
@@ -36402,16 +36403,16 @@
       <c r="Z194" s="32"/>
     </row>
     <row r="195" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A195" s="172">
+      <c r="A195" s="173">
         <v>44.6</v>
       </c>
-      <c r="B195" s="172" t="s">
+      <c r="B195" s="173" t="s">
         <v>297</v>
       </c>
-      <c r="C195" s="172" t="s">
+      <c r="C195" s="173" t="s">
         <v>298</v>
       </c>
-      <c r="D195" s="172" t="s">
+      <c r="D195" s="173" t="s">
         <v>301</v>
       </c>
       <c r="E195" s="26" t="s">
@@ -36442,10 +36443,10 @@
       <c r="Z195" s="32"/>
     </row>
     <row r="196" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A196" s="217"/>
-      <c r="B196" s="217"/>
-      <c r="C196" s="217"/>
-      <c r="D196" s="217"/>
+      <c r="A196" s="220"/>
+      <c r="B196" s="220"/>
+      <c r="C196" s="220"/>
+      <c r="D196" s="220"/>
       <c r="E196" s="142" t="s">
         <v>627</v>
       </c>
@@ -36474,10 +36475,10 @@
       <c r="Z196" s="32"/>
     </row>
     <row r="197" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A197" s="218"/>
-      <c r="B197" s="218"/>
-      <c r="C197" s="218"/>
-      <c r="D197" s="218"/>
+      <c r="A197" s="221"/>
+      <c r="B197" s="221"/>
+      <c r="C197" s="221"/>
+      <c r="D197" s="221"/>
       <c r="E197" s="142" t="s">
         <v>326</v>
       </c>
@@ -36506,16 +36507,16 @@
       <c r="Z197" s="32"/>
     </row>
     <row r="198" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A198" s="172">
+      <c r="A198" s="173">
         <v>44.8</v>
       </c>
-      <c r="B198" s="180" t="s">
+      <c r="B198" s="178" t="s">
         <v>311</v>
       </c>
-      <c r="C198" s="172" t="s">
+      <c r="C198" s="173" t="s">
         <v>312</v>
       </c>
-      <c r="D198" s="172"/>
+      <c r="D198" s="173"/>
       <c r="E198" s="26" t="s">
         <v>403</v>
       </c>
@@ -36544,10 +36545,10 @@
       <c r="Z198" s="32"/>
     </row>
     <row r="199" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A199" s="217"/>
-      <c r="B199" s="222"/>
-      <c r="C199" s="217"/>
-      <c r="D199" s="217"/>
+      <c r="A199" s="220"/>
+      <c r="B199" s="217"/>
+      <c r="C199" s="220"/>
+      <c r="D199" s="220"/>
       <c r="E199" s="77" t="s">
         <v>406</v>
       </c>
@@ -36576,10 +36577,10 @@
       <c r="Z199" s="32"/>
     </row>
     <row r="200" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A200" s="217"/>
-      <c r="B200" s="222"/>
-      <c r="C200" s="217"/>
-      <c r="D200" s="217"/>
+      <c r="A200" s="220"/>
+      <c r="B200" s="217"/>
+      <c r="C200" s="220"/>
+      <c r="D200" s="220"/>
       <c r="E200" s="77" t="s">
         <v>409</v>
       </c>
@@ -36608,10 +36609,10 @@
       <c r="Z200" s="32"/>
     </row>
     <row r="201" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A201" s="218"/>
-      <c r="B201" s="223"/>
-      <c r="C201" s="218"/>
-      <c r="D201" s="218"/>
+      <c r="A201" s="221"/>
+      <c r="B201" s="219"/>
+      <c r="C201" s="221"/>
+      <c r="D201" s="221"/>
       <c r="E201" s="77" t="s">
         <v>412</v>
       </c>
@@ -36709,62 +36710,30 @@
     </row>
   </sheetData>
   <mergeCells count="104">
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B55:B67"/>
-    <mergeCell ref="B68:B72"/>
-    <mergeCell ref="B91:B93"/>
-    <mergeCell ref="B83:B90"/>
-    <mergeCell ref="B198:B201"/>
-    <mergeCell ref="B73:B81"/>
-    <mergeCell ref="B178:B182"/>
-    <mergeCell ref="B175:B177"/>
-    <mergeCell ref="B118:B136"/>
-    <mergeCell ref="B137:B142"/>
-    <mergeCell ref="B143:B145"/>
-    <mergeCell ref="B147:B150"/>
-    <mergeCell ref="B152:B160"/>
-    <mergeCell ref="B161:B162"/>
-    <mergeCell ref="B195:B197"/>
-    <mergeCell ref="B183:B194"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A152:A160"/>
-    <mergeCell ref="A137:A142"/>
-    <mergeCell ref="A195:A197"/>
-    <mergeCell ref="A198:A201"/>
-    <mergeCell ref="A68:A72"/>
-    <mergeCell ref="A73:A81"/>
-    <mergeCell ref="A183:A194"/>
-    <mergeCell ref="A175:A177"/>
-    <mergeCell ref="A178:A182"/>
-    <mergeCell ref="D137:D142"/>
-    <mergeCell ref="D118:D136"/>
-    <mergeCell ref="C73:C81"/>
-    <mergeCell ref="C83:C90"/>
-    <mergeCell ref="C19:C36"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="C37:C46"/>
-    <mergeCell ref="D37:D46"/>
-    <mergeCell ref="D19:D36"/>
-    <mergeCell ref="D83:D90"/>
-    <mergeCell ref="D55:D67"/>
-    <mergeCell ref="C55:C67"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A55:A67"/>
-    <mergeCell ref="A91:A93"/>
-    <mergeCell ref="A94:A97"/>
-    <mergeCell ref="A98:A117"/>
-    <mergeCell ref="A118:A136"/>
-    <mergeCell ref="A83:A90"/>
-    <mergeCell ref="D98:D117"/>
-    <mergeCell ref="B94:B97"/>
-    <mergeCell ref="B98:B117"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="B37:B46"/>
-    <mergeCell ref="B19:B36"/>
-    <mergeCell ref="A37:A46"/>
-    <mergeCell ref="A19:A36"/>
+    <mergeCell ref="D2:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="A161:A162"/>
+    <mergeCell ref="B163:B170"/>
+    <mergeCell ref="A163:A170"/>
+    <mergeCell ref="C163:C170"/>
+    <mergeCell ref="D163:D170"/>
+    <mergeCell ref="C161:C162"/>
+    <mergeCell ref="D161:D162"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="D94:D97"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A143:A145"/>
+    <mergeCell ref="A147:A150"/>
+    <mergeCell ref="C2:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="C50:C53"/>
     <mergeCell ref="C195:C197"/>
     <mergeCell ref="D198:D201"/>
     <mergeCell ref="C198:C201"/>
@@ -36789,30 +36758,62 @@
     <mergeCell ref="C183:C194"/>
     <mergeCell ref="D91:D93"/>
     <mergeCell ref="D73:D81"/>
-    <mergeCell ref="D2:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="A161:A162"/>
-    <mergeCell ref="B163:B170"/>
-    <mergeCell ref="A163:A170"/>
-    <mergeCell ref="C163:C170"/>
-    <mergeCell ref="D163:D170"/>
-    <mergeCell ref="C161:C162"/>
-    <mergeCell ref="D161:D162"/>
-    <mergeCell ref="C94:C97"/>
-    <mergeCell ref="D94:D97"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A143:A145"/>
-    <mergeCell ref="A147:A150"/>
-    <mergeCell ref="C2:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A55:A67"/>
+    <mergeCell ref="A91:A93"/>
+    <mergeCell ref="A94:A97"/>
+    <mergeCell ref="A98:A117"/>
+    <mergeCell ref="A118:A136"/>
+    <mergeCell ref="A83:A90"/>
+    <mergeCell ref="D98:D117"/>
+    <mergeCell ref="B94:B97"/>
+    <mergeCell ref="B98:B117"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B37:B46"/>
+    <mergeCell ref="B19:B36"/>
+    <mergeCell ref="A37:A46"/>
+    <mergeCell ref="A19:A36"/>
+    <mergeCell ref="D137:D142"/>
+    <mergeCell ref="D118:D136"/>
+    <mergeCell ref="C73:C81"/>
+    <mergeCell ref="C83:C90"/>
+    <mergeCell ref="C19:C36"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="C37:C46"/>
+    <mergeCell ref="D37:D46"/>
+    <mergeCell ref="D19:D36"/>
+    <mergeCell ref="D83:D90"/>
+    <mergeCell ref="D55:D67"/>
+    <mergeCell ref="C55:C67"/>
+    <mergeCell ref="A152:A160"/>
+    <mergeCell ref="A137:A142"/>
+    <mergeCell ref="A195:A197"/>
+    <mergeCell ref="A198:A201"/>
+    <mergeCell ref="A68:A72"/>
+    <mergeCell ref="A73:A81"/>
+    <mergeCell ref="A183:A194"/>
+    <mergeCell ref="A175:A177"/>
+    <mergeCell ref="A178:A182"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B55:B67"/>
+    <mergeCell ref="B68:B72"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="B83:B90"/>
+    <mergeCell ref="B198:B201"/>
+    <mergeCell ref="B73:B81"/>
+    <mergeCell ref="B178:B182"/>
+    <mergeCell ref="B175:B177"/>
+    <mergeCell ref="B118:B136"/>
+    <mergeCell ref="B137:B142"/>
+    <mergeCell ref="B143:B145"/>
+    <mergeCell ref="B147:B150"/>
+    <mergeCell ref="B152:B160"/>
+    <mergeCell ref="B161:B162"/>
+    <mergeCell ref="B195:B197"/>
+    <mergeCell ref="B183:B194"/>
+    <mergeCell ref="B47:B48"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <hyperlinks>
